--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\박진형\취업준비생\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DF467E-0F8E-4D98-88C4-6015CAC92016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5420AF95-9125-47EB-B7B4-86497E1AC9EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1313,9 +1313,7 @@
   </sheetPr>
   <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
@@ -2785,6 +2783,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F91E044E3A9D84A8197B09587594D86" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a727839579f0816cd156df87ac1abb38">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4b137422-f48a-46a4-80bc-5707d2d59248" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c55dfd8d1a660179b90c490e9dacc3e0" ns3:_="">
     <xsd:import namespace="4b137422-f48a-46a4-80bc-5707d2d59248"/>
@@ -2916,22 +2929,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90D4028D-EDFF-412B-AA66-71E995903656}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2947,28 +2969,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90D4028D-EDFF-412B-AA66-71E995903656}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5420AF95-9125-47EB-B7B4-86497E1AC9EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB45E08-1712-4473-B947-85F56FC4A616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="159">
   <si>
     <t>해야할 일</t>
   </si>
@@ -670,13 +670,22 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>점심 이경진 책임, 이태준 선임</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>정지수 생일
 3기신도시 고양창릉
 사전청약 발표</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7시30분 헤어로맨스 사가정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심 고현석-하윤실-고결?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심 이경진 책임, 이태준 선임
+저녁 권승미, 방진실, 오지인</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1313,7 +1322,9 @@
   </sheetPr>
   <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
@@ -1404,12 +1415,14 @@
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
+      <c r="E4" s="10" t="s">
+        <v>156</v>
+      </c>
       <c r="F4" s="10" t="s">
         <v>147</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H4" s="10"/>
     </row>
@@ -1567,7 +1580,9 @@
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
+      <c r="H14" s="10" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="35.1" customHeight="1">
       <c r="A15" s="23"/>
@@ -1608,7 +1623,7 @@
         <v>118</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10" t="s">
@@ -2783,21 +2798,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F91E044E3A9D84A8197B09587594D86" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a727839579f0816cd156df87ac1abb38">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4b137422-f48a-46a4-80bc-5707d2d59248" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c55dfd8d1a660179b90c490e9dacc3e0" ns3:_="">
     <xsd:import namespace="4b137422-f48a-46a4-80bc-5707d2d59248"/>
@@ -2929,31 +2929,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90D4028D-EDFF-412B-AA66-71E995903656}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2969,4 +2960,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90D4028D-EDFF-412B-AA66-71E995903656}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\dailyStudy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user1\Desktop\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB45E08-1712-4473-B947-85F56FC4A616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99CB58C-90E8-4BFE-B7DA-FDB6A6673CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-48" yWindow="-48" windowWidth="19296" windowHeight="10296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="일정" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="160">
   <si>
     <t>해야할 일</t>
   </si>
@@ -416,10 +416,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2월 서자영 출산</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -615,22 +611,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>마경도 선임님, 김정기 책임님
-연락해보기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>헌혈 가능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>알뜰교통카드
-모바일캐시비 변경</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>저녁 석촌
-전진하, 공동운, 손충모</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -664,12 +645,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>김승규 생일
-저녁 송별회 이태준 선임,
-유재욱, 조명범, 정은채</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>정지수 생일
 3기신도시 고양창릉
 사전청약 발표</t>
@@ -684,8 +659,37 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>김승규 생일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁 송별회 이태준 선임,
+유재욱, 조명범, 정은채
+상암 골목대장포장마차</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>점심 이경진 책임, 이태준 선임
-저녁 권승미, 방진실, 오지인</t>
+저녁 권승미, 방진실, 오지인
+목포회수산 - 우리집</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>19시반 에어부산 김포-&gt;김해</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20시 에어부산 김해-&gt;김포</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마경도 선임님, 김정기 책임님
+연락해보기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>알뜰교통카드
+모바일캐시비 변경</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1323,17 +1327,17 @@
   <dimension ref="A1:N71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="4" customWidth="1"/>
-    <col min="2" max="8" width="25.625" style="4" customWidth="1"/>
-    <col min="9" max="12" width="8.875" style="4"/>
+    <col min="1" max="1" width="8.84765625" style="4" customWidth="1"/>
+    <col min="2" max="8" width="25.59765625" style="4" customWidth="1"/>
+    <col min="9" max="12" width="8.84765625" style="4"/>
     <col min="13" max="13" width="17" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.875" style="4" customWidth="1"/>
-    <col min="15" max="16384" width="8.875" style="4"/>
+    <col min="14" max="14" width="8.84765625" style="4" customWidth="1"/>
+    <col min="15" max="16384" width="8.84765625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="35.1" customHeight="1">
@@ -1374,13 +1378,13 @@
         <v>60</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>80</v>
@@ -1389,50 +1393,52 @@
     <row r="3" spans="1:8" ht="50.1" customHeight="1">
       <c r="A3" s="25"/>
       <c r="B3" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="50.1" customHeight="1">
       <c r="A4" s="25"/>
       <c r="B4" s="10" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8" ht="35.1" customHeight="1">
       <c r="A5" s="25"/>
       <c r="B5" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>102</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>103</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
@@ -1491,13 +1497,13 @@
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
       <c r="D9" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>83</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>72</v>
@@ -1509,25 +1515,21 @@
     <row r="10" spans="1:8" ht="50.1" customHeight="1">
       <c r="A10" s="23"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="10" t="s">
-        <v>96</v>
-      </c>
+      <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="10"/>
+      <c r="G10" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="G10" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="H10" s="10"/>
+      <c r="H10" s="10" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="50.1" customHeight="1">
       <c r="A11" s="23"/>
       <c r="B11" s="10"/>
-      <c r="C11" s="10" t="s">
-        <v>146</v>
-      </c>
+      <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
@@ -1561,27 +1563,31 @@
     <row r="13" spans="1:8" ht="50.1" customHeight="1">
       <c r="A13" s="23"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
+      <c r="C13" s="10" t="s">
+        <v>158</v>
+      </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="50.1" customHeight="1">
       <c r="A14" s="23"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
+      <c r="C14" s="10" t="s">
+        <v>159</v>
+      </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="35.1" customHeight="1">
@@ -1611,23 +1617,23 @@
     <row r="16" spans="1:8" ht="50.1" customHeight="1">
       <c r="A16" s="23"/>
       <c r="B16" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="D16" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="E16" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="E16" s="10" t="s">
-        <v>118</v>
-      </c>
       <c r="F16" s="10" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="50.1" customHeight="1">
@@ -1667,21 +1673,21 @@
     <row r="19" spans="1:13" ht="50.1" customHeight="1">
       <c r="A19" s="23"/>
       <c r="B19" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F19" s="10" t="s">
         <v>119</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>120</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="50.1" customHeight="1">
@@ -1693,7 +1699,7 @@
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="M20" s="11" t="s">
         <v>74</v>
@@ -1719,10 +1725,10 @@
     <row r="22" spans="1:13" ht="50.1" customHeight="1">
       <c r="A22" s="23"/>
       <c r="B22" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>121</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>122</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>93</v>
@@ -1750,7 +1756,7 @@
     </row>
     <row r="24" spans="1:13" ht="35.1" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>43</v>
@@ -1782,13 +1788,13 @@
       <c r="B25" s="13"/>
       <c r="C25" s="14"/>
       <c r="D25" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>72</v>
@@ -1837,7 +1843,7 @@
         <v>51</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>66</v>
@@ -1854,11 +1860,11 @@
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E29" s="10"/>
       <c r="F29" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
@@ -1876,7 +1882,7 @@
     <row r="31" spans="1:13" ht="35.1" customHeight="1">
       <c r="A31" s="25"/>
       <c r="B31" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>70</v>
@@ -1902,14 +1908,14 @@
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E32" s="10"/>
       <c r="F32" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="G32" s="10" t="s">
         <v>127</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>128</v>
       </c>
       <c r="H32" s="10"/>
     </row>
@@ -1951,14 +1957,14 @@
       <c r="A35" s="25"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="50.1" customHeight="1">
@@ -2013,7 +2019,7 @@
     </row>
     <row r="40" spans="1:14" ht="35.1" customHeight="1">
       <c r="A40" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>43</v>
@@ -2045,10 +2051,10 @@
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
       <c r="G41" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="50.1" customHeight="1">
@@ -2059,10 +2065,10 @@
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
       <c r="G42" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M42" s="11"/>
       <c r="N42" s="11"/>
@@ -2218,13 +2224,13 @@
         <v>60</v>
       </c>
       <c r="D53" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="F53" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>80</v>
@@ -2255,7 +2261,7 @@
     </row>
     <row r="56" spans="1:8" ht="35.1" customHeight="1">
       <c r="A56" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>43</v>
@@ -2288,13 +2294,13 @@
         <v>2</v>
       </c>
       <c r="D57" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="F57" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>49</v>
@@ -2326,7 +2332,7 @@
     <row r="60" spans="1:8" ht="35.1" customHeight="1">
       <c r="A60" s="25"/>
       <c r="B60" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>68</v>
@@ -2354,11 +2360,11 @@
       <c r="D61" s="10"/>
       <c r="E61" s="10"/>
       <c r="F61" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G61" s="10"/>
       <c r="H61" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="50.1" customHeight="1">
@@ -2399,10 +2405,10 @@
       <c r="A64" s="25"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D64" s="10" t="s">
         <v>132</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>133</v>
       </c>
       <c r="E64" s="10"/>
       <c r="F64" s="10"/>
@@ -2446,12 +2452,12 @@
     <row r="67" spans="1:8" ht="50.1" customHeight="1">
       <c r="A67" s="25"/>
       <c r="B67" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
       <c r="E67" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F67" s="10"/>
       <c r="G67" s="10"/>
@@ -2473,10 +2479,10 @@
         <v>92</v>
       </c>
       <c r="C69" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="E69" s="12"/>
       <c r="F69" s="12"/>
@@ -2504,7 +2510,7 @@
       <c r="F71" s="10"/>
       <c r="G71" s="10"/>
       <c r="H71" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -2527,17 +2533,17 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="1.625" style="4" customWidth="1"/>
-    <col min="2" max="3" width="35.625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="1.59765625" style="4" customWidth="1"/>
+    <col min="2" max="3" width="35.59765625" style="4" customWidth="1"/>
     <col min="4" max="4" width="35.75" style="4" customWidth="1"/>
-    <col min="5" max="16" width="8.875" style="4"/>
+    <col min="5" max="16" width="8.84765625" style="4"/>
     <col min="17" max="17" width="12.25" style="4" customWidth="1"/>
-    <col min="18" max="16384" width="8.875" style="4"/>
+    <col min="18" max="16384" width="8.84765625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="21" thickBot="1">
+    <row r="1" spans="2:17" ht="20.399999999999999" thickBot="1">
       <c r="B1" s="26" t="s">
         <v>0</v>
       </c>
@@ -2798,6 +2804,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F91E044E3A9D84A8197B09587594D86" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a727839579f0816cd156df87ac1abb38">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4b137422-f48a-46a4-80bc-5707d2d59248" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c55dfd8d1a660179b90c490e9dacc3e0" ns3:_="">
     <xsd:import namespace="4b137422-f48a-46a4-80bc-5707d2d59248"/>
@@ -2929,22 +2950,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90D4028D-EDFF-412B-AA66-71E995903656}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2960,28 +2990,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90D4028D-EDFF-412B-AA66-71E995903656}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user1\Desktop\dailyStudy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99CB58C-90E8-4BFE-B7DA-FDB6A6673CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E958EF-AFE5-45ED-A46D-34C600E66ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-48" yWindow="-48" windowWidth="19296" windowHeight="10296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="일정" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="152">
   <si>
     <t>해야할 일</t>
   </si>
@@ -470,24 +470,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>결혼기념일
-윤여희 생일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>윤혜린 생일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>장인어른 생신
 (음력 1/26)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>윤순태 생일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>김효은 생일</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -604,10 +591,6 @@
   <si>
     <t>~저녁 9시
 LG CNS 전기차 예약(9920)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>배문성 설날 미리 연락해보기</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -635,47 +618,13 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>점심 대우아파트
-8시 에어부산 김해-&gt;김포</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7시 문래 스몰
-정유열, 이주희</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>정지수 생일
 3기신도시 고양창릉
 사전청약 발표</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>7시30분 헤어로맨스 사가정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>점심 고현석-하윤실-고결?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김승규 생일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>저녁 송별회 이태준 선임,
-유재욱, 조명범, 정은채
-상암 골목대장포장마차</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>점심 이경진 책임, 이태준 선임
-저녁 권승미, 방진실, 오지인
-목포회수산 - 우리집</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>19시반 에어부산 김포-&gt;김해</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -685,6 +634,19 @@
   <si>
     <t>마경도 선임님, 김정기 책임님
 연락해보기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12시 지산고축구 스포원D
+저녁 장전동 가족 모임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁 한화리조트 해운대</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11시반 대우아파트</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1324,10 +1286,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:N71"/>
+  <dimension ref="A1:N68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="16.5"/>
@@ -1369,161 +1331,153 @@
     <row r="2" spans="1:8" ht="35.1" customHeight="1">
       <c r="A2" s="25"/>
       <c r="B2" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>80</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8" ht="50.1" customHeight="1">
       <c r="A3" s="25"/>
-      <c r="B3" s="20" t="s">
-        <v>109</v>
+      <c r="B3" s="10" t="s">
+        <v>148</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D3" s="10"/>
-      <c r="E3" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>112</v>
-      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" ht="50.1" customHeight="1">
       <c r="A4" s="25"/>
-      <c r="B4" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
-      <c r="E4" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>156</v>
-      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A5" s="25"/>
-      <c r="B5" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="6" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A6" s="25"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
+      <c r="A5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A6" s="22"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A7" s="25"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A8" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="G7" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A8" s="23"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A9" s="22"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>83</v>
+      <c r="A9" s="23"/>
+      <c r="B9" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="50.1" customHeight="1">
       <c r="A10" s="23"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
+      <c r="B10" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>147</v>
+      </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="50.1" customHeight="1">
@@ -1534,106 +1488,108 @@
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
+      <c r="H11" s="10" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="35.1" customHeight="1">
       <c r="A12" s="23"/>
       <c r="B12" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="50.1" customHeight="1">
       <c r="A13" s="23"/>
-      <c r="B13" s="10"/>
+      <c r="B13" s="10" t="s">
+        <v>111</v>
+      </c>
       <c r="C13" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>113</v>
       </c>
+      <c r="E13" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" s="10"/>
       <c r="H13" s="10" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="50.1" customHeight="1">
       <c r="A14" s="23"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="10" t="s">
-        <v>159</v>
-      </c>
+      <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
-      <c r="H14" s="10" t="s">
-        <v>152</v>
-      </c>
+      <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:8" ht="35.1" customHeight="1">
       <c r="A15" s="23"/>
       <c r="B15" s="8" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="50.1" customHeight="1">
       <c r="A16" s="23"/>
       <c r="B16" s="10" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="C16" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="F16" s="10" t="s">
         <v>116</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>150</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="50.1" customHeight="1">
@@ -1644,106 +1600,119 @@
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
+      <c r="H17" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="18" spans="1:13" ht="35.1" customHeight="1">
       <c r="A18" s="23"/>
       <c r="B18" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="M18" s="11" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="50.1" customHeight="1">
       <c r="A19" s="23"/>
       <c r="B19" s="10" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="F19" s="10" t="s">
-        <v>119</v>
-      </c>
+      <c r="D19" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
       <c r="G19" s="10"/>
-      <c r="H19" s="10" t="s">
-        <v>111</v>
+      <c r="H19" s="10"/>
+      <c r="M19" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A20" s="23"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
-      <c r="H20" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="M20" s="11" t="s">
-        <v>74</v>
+      <c r="H20" s="10"/>
+      <c r="M20" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A21" s="23"/>
-      <c r="B21" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
+      <c r="A21" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="M21" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A22" s="23"/>
-      <c r="B22" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="M22" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A22" s="25"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A23" s="24"/>
-      <c r="B23" s="10"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="10" t="s">
+        <v>95</v>
+      </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
@@ -1751,75 +1720,56 @@
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
       <c r="M23" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A24" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="M24" s="11" t="s">
-        <v>78</v>
-      </c>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A24" s="25"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
     </row>
     <row r="25" spans="1:13" ht="35.1" customHeight="1">
       <c r="A25" s="25"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>83</v>
+      <c r="B25" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="M25" s="11" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="50.1" customHeight="1">
       <c r="A26" s="25"/>
-      <c r="B26" s="10" t="s">
-        <v>95</v>
-      </c>
+      <c r="B26" s="10"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
+      <c r="D26" s="10" t="s">
+        <v>119</v>
+      </c>
       <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
+      <c r="F26" s="10" t="s">
+        <v>120</v>
+      </c>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
-      <c r="M26" s="4" t="s">
-        <v>81</v>
-      </c>
     </row>
     <row r="27" spans="1:13" ht="50.1" customHeight="1">
       <c r="A27" s="25"/>
@@ -1834,25 +1784,25 @@
     <row r="28" spans="1:13" ht="35.1" customHeight="1">
       <c r="A28" s="25"/>
       <c r="B28" s="8" t="s">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>137</v>
+        <v>67</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="50.1" customHeight="1">
@@ -1866,7 +1816,9 @@
       <c r="F29" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="G29" s="10"/>
+      <c r="G29" s="10" t="s">
+        <v>124</v>
+      </c>
       <c r="H29" s="10"/>
     </row>
     <row r="30" spans="1:13" ht="50.1" customHeight="1">
@@ -1882,42 +1834,40 @@
     <row r="31" spans="1:13" ht="35.1" customHeight="1">
       <c r="A31" s="25"/>
       <c r="B31" s="8" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="50.1" customHeight="1">
       <c r="A32" s="25"/>
       <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10" t="s">
+      <c r="C32" s="10" t="s">
         <v>125</v>
       </c>
+      <c r="D32" s="10"/>
       <c r="E32" s="10"/>
-      <c r="F32" s="10" t="s">
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="G32" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="H32" s="10"/>
     </row>
     <row r="33" spans="1:14" ht="50.1" customHeight="1">
       <c r="A33" s="25"/>
@@ -1932,42 +1882,34 @@
     <row r="34" spans="1:14" ht="35.1" customHeight="1">
       <c r="A34" s="25"/>
       <c r="B34" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>87</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
     </row>
     <row r="35" spans="1:14" ht="50.1" customHeight="1">
       <c r="A35" s="25"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="10" t="s">
-        <v>128</v>
-      </c>
+      <c r="C35" s="10"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
-      <c r="H35" s="20" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="50.1" customHeight="1">
+      <c r="H35" s="10"/>
+    </row>
+    <row r="36" spans="1:14" ht="49.9" customHeight="1">
       <c r="A36" s="25"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -1978,83 +1920,93 @@
       <c r="H36" s="10"/>
     </row>
     <row r="37" spans="1:14" ht="35.1" customHeight="1">
-      <c r="A37" s="25"/>
-      <c r="B37" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-    </row>
-    <row r="38" spans="1:14" ht="50.1" customHeight="1">
-      <c r="A38" s="25"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-    </row>
-    <row r="39" spans="1:14" ht="49.9" customHeight="1">
-      <c r="A39" s="25"/>
+      <c r="A37" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="35.1" customHeight="1">
+      <c r="A38" s="22"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="50.1" customHeight="1">
+      <c r="A39" s="23"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-    </row>
-    <row r="40" spans="1:14" ht="35.1" customHeight="1">
-      <c r="A40" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="G39" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+    </row>
+    <row r="40" spans="1:14" ht="50.1" customHeight="1">
+      <c r="A40" s="23"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
     </row>
     <row r="41" spans="1:14" ht="35.1" customHeight="1">
-      <c r="A41" s="22"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
+      <c r="A41" s="23"/>
+      <c r="B41" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="G41" s="1" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="50.1" customHeight="1">
@@ -2064,14 +2016,8 @@
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
-      <c r="G42" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="H42" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
     </row>
     <row r="43" spans="1:14" ht="50.1" customHeight="1">
       <c r="A43" s="23"/>
@@ -2086,25 +2032,25 @@
     <row r="44" spans="1:14" ht="35.1" customHeight="1">
       <c r="A44" s="23"/>
       <c r="B44" s="8" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="50.1" customHeight="1">
@@ -2130,25 +2076,25 @@
     <row r="47" spans="1:14" ht="35.1" customHeight="1">
       <c r="A47" s="23"/>
       <c r="B47" s="8" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="50.1" customHeight="1">
@@ -2174,25 +2120,25 @@
     <row r="50" spans="1:8" ht="35.1" customHeight="1">
       <c r="A50" s="23"/>
       <c r="B50" s="8" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="50.1" customHeight="1">
@@ -2206,7 +2152,7 @@
       <c r="H51" s="10"/>
     </row>
     <row r="52" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A52" s="23"/>
+      <c r="A52" s="24"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
@@ -2216,41 +2162,57 @@
       <c r="H52" s="10"/>
     </row>
     <row r="53" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A53" s="23"/>
-      <c r="B53" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A54" s="23"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
+      <c r="A53" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A54" s="25"/>
+      <c r="B54" s="18">
+        <v>1</v>
+      </c>
+      <c r="C54" s="19">
+        <v>2</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="55" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A55" s="24"/>
+      <c r="A55" s="25"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
@@ -2259,54 +2221,38 @@
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
     </row>
-    <row r="56" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A56" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>48</v>
-      </c>
+    <row r="56" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A56" s="25"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
     </row>
     <row r="57" spans="1:8" ht="35.1" customHeight="1">
       <c r="A57" s="25"/>
-      <c r="B57" s="18">
-        <v>1</v>
-      </c>
-      <c r="C57" s="19">
-        <v>2</v>
-      </c>
-      <c r="D57" s="16" t="s">
-        <v>103</v>
+      <c r="B57" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>138</v>
+        <v>52</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="50.1" customHeight="1">
@@ -2315,9 +2261,13 @@
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
       <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
+      <c r="F58" s="10" t="s">
+        <v>106</v>
+      </c>
       <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
+      <c r="H58" s="10" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="59" spans="1:8" ht="50.1" customHeight="1">
       <c r="A59" s="25"/>
@@ -2332,40 +2282,40 @@
     <row r="60" spans="1:8" ht="35.1" customHeight="1">
       <c r="A60" s="25"/>
       <c r="B60" s="8" t="s">
-        <v>139</v>
+        <v>67</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="50.1" customHeight="1">
       <c r="A61" s="25"/>
       <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
+      <c r="C61" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>129</v>
+      </c>
       <c r="E61" s="10"/>
-      <c r="F61" s="10" t="s">
-        <v>106</v>
-      </c>
+      <c r="F61" s="10"/>
       <c r="G61" s="10"/>
-      <c r="H61" s="10" t="s">
-        <v>107</v>
-      </c>
+      <c r="H61" s="10"/>
     </row>
     <row r="62" spans="1:8" ht="50.1" customHeight="1">
       <c r="A62" s="25"/>
@@ -2380,37 +2330,37 @@
     <row r="63" spans="1:8" ht="35.1" customHeight="1">
       <c r="A63" s="25"/>
       <c r="B63" s="8" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="50.1" customHeight="1">
       <c r="A64" s="25"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="10" t="s">
+      <c r="B64" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="D64" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="E64" s="10"/>
       <c r="F64" s="10"/>
       <c r="G64" s="10"/>
       <c r="H64" s="10"/>
@@ -2428,40 +2378,30 @@
     <row r="66" spans="1:8" ht="35.1" customHeight="1">
       <c r="A66" s="25"/>
       <c r="B66" s="8" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>89</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
     </row>
     <row r="67" spans="1:8" ht="50.1" customHeight="1">
       <c r="A67" s="25"/>
-      <c r="B67" s="10" t="s">
-        <v>133</v>
-      </c>
+      <c r="B67" s="10"/>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
-      <c r="E67" s="10" t="s">
-        <v>134</v>
-      </c>
+      <c r="E67" s="10"/>
       <c r="F67" s="10"/>
       <c r="G67" s="10"/>
-      <c r="H67" s="10"/>
+      <c r="H67" s="10" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="68" spans="1:8" ht="50.1" customHeight="1">
       <c r="A68" s="25"/>
@@ -2471,55 +2411,17 @@
       <c r="E68" s="10"/>
       <c r="F68" s="10"/>
       <c r="G68" s="10"/>
-      <c r="H68" s="10"/>
-    </row>
-    <row r="69" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A69" s="25"/>
-      <c r="B69" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="12"/>
-    </row>
-    <row r="70" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A70" s="25"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A71" s="25"/>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
-      <c r="H71" s="10" t="s">
-        <v>147</v>
+      <c r="H68" s="10" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A41:A55"/>
-    <mergeCell ref="A57:A71"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A9:A23"/>
-    <mergeCell ref="A25:A39"/>
+    <mergeCell ref="A38:A52"/>
+    <mergeCell ref="A54:A68"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A6:A20"/>
+    <mergeCell ref="A22:A36"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E958EF-AFE5-45ED-A46D-34C600E66ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E8557D-DE3D-4C0D-8C38-7A64B2252953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="152">
   <si>
     <t>해야할 일</t>
   </si>
@@ -356,10 +356,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -637,16 +633,20 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>12시 지산고축구 스포원D
-저녁 장전동 가족 모임</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>저녁 한화리조트 해운대</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>11시반 대우아파트</t>
+    <t>점심 서부운전면허시험장
+IC 모바일 운전면허증 재발급</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>21시5분 에어부산 김포-&gt;김해</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20시 에어부산 김해-&gt;김포</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1286,10 +1286,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:N68"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="16.5"/>
@@ -1302,7 +1302,7 @@
     <col min="15" max="16384" width="8.84765625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="35.1" customHeight="1">
+    <row r="1" spans="1:13" ht="35.1" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>82</v>
       </c>
@@ -1328,91 +1328,97 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="8" t="s">
+    <row r="2" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A2" s="22"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-    </row>
-    <row r="3" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="D3" s="10"/>
+      <c r="G2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A3" s="23"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10" t="s">
+        <v>151</v>
+      </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-    </row>
-    <row r="4" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A4" s="25"/>
+      <c r="G3" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A4" s="23"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
+      <c r="G4" s="10" t="s">
+        <v>147</v>
+      </c>
       <c r="H4" s="10"/>
     </row>
-    <row r="5" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A6" s="22"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="50.1" customHeight="1">
+    <row r="5" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A5" s="23"/>
+      <c r="B5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A6" s="23"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="50.1" customHeight="1">
       <c r="A7" s="23"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -1420,231 +1426,247 @@
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="50.1" customHeight="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="35.1" customHeight="1">
       <c r="A8" s="23"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="1:8" ht="35.1" customHeight="1">
+      <c r="B8" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="50.1" customHeight="1">
       <c r="A9" s="23"/>
-      <c r="B9" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="50.1" customHeight="1">
+      <c r="B9" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="50.1" customHeight="1">
       <c r="A10" s="23"/>
       <c r="B10" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>147</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
-      <c r="G10" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="50.1" customHeight="1">
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:13" ht="35.1" customHeight="1">
       <c r="A11" s="23"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="35.1" customHeight="1">
+      <c r="B11" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="50.1" customHeight="1">
       <c r="A12" s="23"/>
-      <c r="B12" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="50.1" customHeight="1">
+      <c r="B12" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="50.1" customHeight="1">
       <c r="A13" s="23"/>
-      <c r="B13" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>144</v>
-      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="50.1" customHeight="1">
+        <v>140</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="35.1" customHeight="1">
       <c r="A14" s="23"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" spans="1:8" ht="35.1" customHeight="1">
+      <c r="B14" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="M14" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="50.1" customHeight="1">
       <c r="A15" s="23"/>
-      <c r="B15" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A16" s="23"/>
-      <c r="B16" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>139</v>
-      </c>
+      <c r="B15" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="M15" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A16" s="24"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
       <c r="D16" s="10"/>
-      <c r="E16" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>116</v>
-      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A17" s="23"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10" t="s">
-        <v>141</v>
+      <c r="H16" s="10"/>
+      <c r="M16" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A17" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A18" s="23"/>
-      <c r="B18" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="M18" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A19" s="23"/>
+      <c r="A19" s="25"/>
       <c r="B19" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>93</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="M19" s="4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A20" s="24"/>
+      <c r="A20" s="25"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -1652,265 +1674,251 @@
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
-      <c r="M20" s="4" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="21" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A21" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="M21" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A21" s="25"/>
+      <c r="B21" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="50.1" customHeight="1">
       <c r="A22" s="25"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="M22" s="11" t="s">
-        <v>73</v>
-      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:13" ht="50.1" customHeight="1">
       <c r="A23" s="25"/>
-      <c r="B23" s="10" t="s">
-        <v>95</v>
-      </c>
+      <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
-      <c r="M23" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="50.1" customHeight="1">
+    </row>
+    <row r="24" spans="1:13" ht="35.1" customHeight="1">
       <c r="A24" s="25"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-    </row>
-    <row r="25" spans="1:13" ht="35.1" customHeight="1">
+      <c r="B24" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="50.1" customHeight="1">
       <c r="A25" s="25"/>
-      <c r="B25" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:13" ht="50.1" customHeight="1">
       <c r="A26" s="25"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="10" t="s">
-        <v>119</v>
-      </c>
+      <c r="D26" s="10"/>
       <c r="E26" s="10"/>
-      <c r="F26" s="10" t="s">
-        <v>120</v>
-      </c>
+      <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
     </row>
-    <row r="27" spans="1:13" ht="50.1" customHeight="1">
+    <row r="27" spans="1:13" ht="35.1" customHeight="1">
       <c r="A27" s="25"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-    </row>
-    <row r="28" spans="1:13" ht="35.1" customHeight="1">
+      <c r="B27" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="50.1" customHeight="1">
       <c r="A28" s="25"/>
-      <c r="B28" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>85</v>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="20" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="50.1" customHeight="1">
       <c r="A29" s="25"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
-      <c r="D29" s="10" t="s">
-        <v>122</v>
-      </c>
+      <c r="D29" s="10"/>
       <c r="E29" s="10"/>
-      <c r="F29" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>124</v>
-      </c>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
       <c r="H29" s="10"/>
     </row>
-    <row r="30" spans="1:13" ht="50.1" customHeight="1">
+    <row r="30" spans="1:13" ht="35.1" customHeight="1">
       <c r="A30" s="25"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-    </row>
-    <row r="31" spans="1:13" ht="35.1" customHeight="1">
+      <c r="B30" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+    </row>
+    <row r="31" spans="1:13" ht="50.1" customHeight="1">
       <c r="A31" s="25"/>
-      <c r="B31" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="50.1" customHeight="1">
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+    </row>
+    <row r="32" spans="1:13" ht="49.9" customHeight="1">
       <c r="A32" s="25"/>
       <c r="B32" s="10"/>
-      <c r="C32" s="10" t="s">
-        <v>125</v>
-      </c>
+      <c r="C32" s="10"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
-      <c r="H32" s="20" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="50.1" customHeight="1">
-      <c r="A33" s="25"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
+      <c r="H32" s="10"/>
+    </row>
+    <row r="33" spans="1:14" ht="35.1" customHeight="1">
+      <c r="A33" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="34" spans="1:14" ht="35.1" customHeight="1">
-      <c r="A34" s="25"/>
-      <c r="B34" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
+      <c r="A34" s="22"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="35" spans="1:14" ht="50.1" customHeight="1">
-      <c r="A35" s="25"/>
+      <c r="A35" s="23"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-    </row>
-    <row r="36" spans="1:14" ht="49.9" customHeight="1">
-      <c r="A36" s="25"/>
+      <c r="G35" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+    </row>
+    <row r="36" spans="1:14" ht="50.1" customHeight="1">
+      <c r="A36" s="23"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
@@ -1920,44 +1928,38 @@
       <c r="H36" s="10"/>
     </row>
     <row r="37" spans="1:14" ht="35.1" customHeight="1">
-      <c r="A37" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="35.1" customHeight="1">
-      <c r="A38" s="22"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="A37" s="23"/>
+      <c r="B37" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="50.1" customHeight="1">
+      <c r="A38" s="23"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
     </row>
     <row r="39" spans="1:14" ht="50.1" customHeight="1">
       <c r="A39" s="23"/>
@@ -1966,48 +1968,42 @@
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
-      <c r="G39" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="H39" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
-    </row>
-    <row r="40" spans="1:14" ht="50.1" customHeight="1">
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+    </row>
+    <row r="40" spans="1:14" ht="35.1" customHeight="1">
       <c r="A40" s="23"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-    </row>
-    <row r="41" spans="1:14" ht="35.1" customHeight="1">
+      <c r="B40" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="50.1" customHeight="1">
       <c r="A41" s="23"/>
-      <c r="B41" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
     </row>
     <row r="42" spans="1:14" ht="50.1" customHeight="1">
       <c r="A42" s="23"/>
@@ -2019,39 +2015,39 @@
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
     </row>
-    <row r="43" spans="1:14" ht="50.1" customHeight="1">
+    <row r="43" spans="1:14" ht="35.1" customHeight="1">
       <c r="A43" s="23"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-    </row>
-    <row r="44" spans="1:14" ht="35.1" customHeight="1">
+      <c r="B43" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="50.1" customHeight="1">
       <c r="A44" s="23"/>
-      <c r="B44" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
     </row>
     <row r="45" spans="1:14" ht="50.1" customHeight="1">
       <c r="A45" s="23"/>
@@ -2063,42 +2059,42 @@
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
     </row>
-    <row r="46" spans="1:14" ht="50.1" customHeight="1">
+    <row r="46" spans="1:14" ht="35.1" customHeight="1">
       <c r="A46" s="23"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-    </row>
-    <row r="47" spans="1:14" ht="35.1" customHeight="1">
+      <c r="B46" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="50.1" customHeight="1">
       <c r="A47" s="23"/>
-      <c r="B47" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
     </row>
     <row r="48" spans="1:14" ht="50.1" customHeight="1">
-      <c r="A48" s="23"/>
+      <c r="A48" s="24"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
@@ -2107,42 +2103,58 @@
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
     </row>
-    <row r="49" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A49" s="23"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
+    <row r="49" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A49" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="50" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A50" s="23"/>
-      <c r="B50" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>98</v>
+      <c r="A50" s="25"/>
+      <c r="B50" s="18">
+        <v>1</v>
+      </c>
+      <c r="C50" s="19">
+        <v>2</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>102</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A51" s="23"/>
+      <c r="A51" s="25"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
@@ -2152,7 +2164,7 @@
       <c r="H51" s="10"/>
     </row>
     <row r="52" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A52" s="24"/>
+      <c r="A52" s="25"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
@@ -2162,53 +2174,41 @@
       <c r="H52" s="10"/>
     </row>
     <row r="53" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="25"/>
+      <c r="B53" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A54" s="25"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B53" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A54" s="25"/>
-      <c r="B54" s="18">
-        <v>1</v>
-      </c>
-      <c r="C54" s="19">
-        <v>2</v>
-      </c>
-      <c r="D54" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>50</v>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="50.1" customHeight="1">
@@ -2221,39 +2221,43 @@
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
     </row>
-    <row r="56" spans="1:8" ht="50.1" customHeight="1">
+    <row r="56" spans="1:8" ht="35.1" customHeight="1">
       <c r="A56" s="25"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-    </row>
-    <row r="57" spans="1:8" ht="35.1" customHeight="1">
+      <c r="B56" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="50.1" customHeight="1">
       <c r="A57" s="25"/>
-      <c r="B57" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
     </row>
     <row r="58" spans="1:8" ht="50.1" customHeight="1">
       <c r="A58" s="25"/>
@@ -2261,167 +2265,104 @@
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
       <c r="E58" s="10"/>
-      <c r="F58" s="10" t="s">
-        <v>106</v>
-      </c>
+      <c r="F58" s="10"/>
       <c r="G58" s="10"/>
-      <c r="H58" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="50.1" customHeight="1">
+      <c r="H58" s="10"/>
+    </row>
+    <row r="59" spans="1:8" ht="35.1" customHeight="1">
       <c r="A59" s="25"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-    </row>
-    <row r="60" spans="1:8" ht="35.1" customHeight="1">
+      <c r="B59" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="50.1" customHeight="1">
       <c r="A60" s="25"/>
-      <c r="B60" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="B60" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
     </row>
     <row r="61" spans="1:8" ht="50.1" customHeight="1">
       <c r="A61" s="25"/>
       <c r="B61" s="10"/>
-      <c r="C61" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>129</v>
-      </c>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
       <c r="E61" s="10"/>
       <c r="F61" s="10"/>
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
     </row>
-    <row r="62" spans="1:8" ht="50.1" customHeight="1">
+    <row r="62" spans="1:8" ht="35.1" customHeight="1">
       <c r="A62" s="25"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="10"/>
-    </row>
-    <row r="63" spans="1:8" ht="35.1" customHeight="1">
+      <c r="B62" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+    </row>
+    <row r="63" spans="1:8" ht="50.1" customHeight="1">
       <c r="A63" s="25"/>
-      <c r="B63" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>89</v>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="50.1" customHeight="1">
       <c r="A64" s="25"/>
-      <c r="B64" s="10" t="s">
-        <v>130</v>
-      </c>
+      <c r="B64" s="10"/>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
-      <c r="E64" s="10" t="s">
-        <v>131</v>
-      </c>
+      <c r="E64" s="10"/>
       <c r="F64" s="10"/>
       <c r="G64" s="10"/>
-      <c r="H64" s="10"/>
-    </row>
-    <row r="65" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A65" s="25"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
-    </row>
-    <row r="66" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A66" s="25"/>
-      <c r="B66" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="12"/>
-    </row>
-    <row r="67" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A67" s="25"/>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A68" s="25"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="10" t="s">
-        <v>143</v>
+      <c r="H64" s="10" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A38:A52"/>
-    <mergeCell ref="A54:A68"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A6:A20"/>
-    <mergeCell ref="A22:A36"/>
+  <mergeCells count="4">
+    <mergeCell ref="A34:A48"/>
+    <mergeCell ref="A50:A64"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="A18:A32"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2706,21 +2647,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F91E044E3A9D84A8197B09587594D86" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a727839579f0816cd156df87ac1abb38">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4b137422-f48a-46a4-80bc-5707d2d59248" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c55dfd8d1a660179b90c490e9dacc3e0" ns3:_="">
     <xsd:import namespace="4b137422-f48a-46a4-80bc-5707d2d59248"/>
@@ -2852,31 +2778,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90D4028D-EDFF-412B-AA66-71E995903656}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2892,4 +2809,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90D4028D-EDFF-412B-AA66-71E995903656}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E8557D-DE3D-4C0D-8C38-7A64B2252953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61596C2B-EDD8-4146-8AB0-6615C05438F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="153">
   <si>
     <t>해야할 일</t>
   </si>
@@ -652,6 +652,10 @@
   <si>
     <t>알뜰교통카드
 모바일캐시비 변경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3시 안평노인건강센터 할머니</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1289,7 +1293,7 @@
   <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="16.5"/>
@@ -1368,7 +1372,9 @@
       <c r="A4" s="23"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+      <c r="D4" s="10" t="s">
+        <v>152</v>
+      </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10" t="s">
@@ -2647,6 +2653,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F91E044E3A9D84A8197B09587594D86" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a727839579f0816cd156df87ac1abb38">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4b137422-f48a-46a4-80bc-5707d2d59248" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c55dfd8d1a660179b90c490e9dacc3e0" ns3:_="">
     <xsd:import namespace="4b137422-f48a-46a4-80bc-5707d2d59248"/>
@@ -2778,22 +2799,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90D4028D-EDFF-412B-AA66-71E995903656}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2809,28 +2839,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90D4028D-EDFF-412B-AA66-71E995903656}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61596C2B-EDD8-4146-8AB0-6615C05438F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71231699-5B80-424E-850B-70293B24DFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="156">
   <si>
     <t>해야할 일</t>
   </si>
@@ -539,10 +539,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>정봉현, 노숙진 생일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>장모님 생신
 (음력 4/16)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -600,10 +596,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>적금만기??</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2시 오협 결혼 - 10만원
 판교 더블유스퀘어</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -655,7 +647,33 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3시 안평노인건강센터 할머니</t>
+    <t>6시 동래역 환승센터
+임시선별검사소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수협은행
+부산은행 58만 1000원
+순병원 박한솔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3시 안평노인건강센터 할머니
+고대치기공, 지산고 회비 입금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고대치기공, 지산고 회비 입금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정봉현, 노숙진 생일
+고대치기공, 지산고 회비 입금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수협 적금만기
+과학기술인공제회 적금시작?</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1292,9 +1310,7 @@
   </sheetPr>
   <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="16.5"/>
   <cols>
@@ -1337,7 +1353,7 @@
       <c r="B2" s="13"/>
       <c r="C2" s="14"/>
       <c r="D2" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>82</v>
@@ -1357,15 +1373,19 @@
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
       <c r="G3" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="50.1" customHeight="1">
@@ -1378,7 +1398,7 @@
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H4" s="10"/>
     </row>
@@ -1410,18 +1430,18 @@
       <c r="A6" s="23"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10" t="s">
         <v>109</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="50.1" customHeight="1">
@@ -1432,10 +1452,10 @@
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="35.1" customHeight="1">
@@ -1477,17 +1497,17 @@
         <v>113</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="50.1" customHeight="1">
       <c r="A10" s="23"/>
       <c r="B10" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -1523,10 +1543,10 @@
     <row r="12" spans="1:13" ht="50.1" customHeight="1">
       <c r="A12" s="23"/>
       <c r="B12" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>137</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>138</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10" t="s">
@@ -1549,7 +1569,7 @@
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="M13" s="11" t="s">
         <v>74</v>
@@ -1638,7 +1658,7 @@
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
       <c r="D18" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>82</v>
@@ -1662,7 +1682,9 @@
         <v>94</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
+      <c r="D19" s="10" t="s">
+        <v>153</v>
+      </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
@@ -1693,7 +1715,7 @@
         <v>51</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>66</v>
@@ -1915,7 +1937,7 @@
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="H35" s="10" t="s">
         <v>107</v>
@@ -2150,7 +2172,7 @@
         <v>103</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>49</v>
@@ -2161,7 +2183,9 @@
     </row>
     <row r="51" spans="1:8" ht="50.1" customHeight="1">
       <c r="A51" s="25"/>
-      <c r="B51" s="10"/>
+      <c r="B51" s="10" t="s">
+        <v>153</v>
+      </c>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
@@ -2182,7 +2206,7 @@
     <row r="53" spans="1:8" ht="35.1" customHeight="1">
       <c r="A53" s="25"/>
       <c r="B53" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>68</v>
@@ -2255,10 +2279,10 @@
       <c r="A57" s="25"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D57" s="10" t="s">
         <v>127</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>128</v>
       </c>
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
@@ -2302,12 +2326,12 @@
     <row r="60" spans="1:8" ht="50.1" customHeight="1">
       <c r="A60" s="25"/>
       <c r="B60" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
       <c r="E60" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
@@ -2344,7 +2368,9 @@
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
+      <c r="E63" s="10" t="s">
+        <v>153</v>
+      </c>
       <c r="F63" s="10"/>
       <c r="G63" s="10"/>
       <c r="H63" s="10" t="s">
@@ -2360,7 +2386,7 @@
       <c r="F64" s="10"/>
       <c r="G64" s="10"/>
       <c r="H64" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2653,21 +2679,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F91E044E3A9D84A8197B09587594D86" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a727839579f0816cd156df87ac1abb38">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4b137422-f48a-46a4-80bc-5707d2d59248" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c55dfd8d1a660179b90c490e9dacc3e0" ns3:_="">
     <xsd:import namespace="4b137422-f48a-46a4-80bc-5707d2d59248"/>
@@ -2799,7 +2810,40 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90D4028D-EDFF-412B-AA66-71E995903656}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -2815,28 +2859,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71231699-5B80-424E-850B-70293B24DFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6627110-783A-4D31-BBA4-7F4770A1DBFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="157">
   <si>
     <t>해야할 일</t>
   </si>
@@ -652,12 +652,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>수협은행
-부산은행 58만 1000원
-순병원 박한솔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>3시 안평노인건강센터 할머니
 고대치기공, 지산고 회비 입금</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -674,6 +668,18 @@
   <si>
     <t>수협 적금만기
 과학기술인공제회 적금시작?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수협은행 적금 위임장 -
+부산은행 58만 1000원 -
+순병원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박한솔 독감예방주사 2차 -
+신세계 센텀 - 롯데 부산본점
+스토케 트립트랩, 프레디페리</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1310,7 +1316,9 @@
   </sheetPr>
   <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="16.5"/>
   <cols>
@@ -1379,7 +1387,7 @@
         <v>150</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>138</v>
@@ -1393,10 +1401,12 @@
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
+      <c r="F4" s="10" t="s">
+        <v>156</v>
+      </c>
       <c r="G4" s="10" t="s">
         <v>145</v>
       </c>
@@ -1569,7 +1579,7 @@
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M13" s="11" t="s">
         <v>74</v>
@@ -1683,7 +1693,7 @@
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -1937,7 +1947,7 @@
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H35" s="10" t="s">
         <v>107</v>
@@ -2184,7 +2194,7 @@
     <row r="51" spans="1:8" ht="50.1" customHeight="1">
       <c r="A51" s="25"/>
       <c r="B51" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
@@ -2369,7 +2379,7 @@
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
       <c r="E63" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F63" s="10"/>
       <c r="G63" s="10"/>
@@ -2679,6 +2689,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F91E044E3A9D84A8197B09587594D86" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a727839579f0816cd156df87ac1abb38">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4b137422-f48a-46a4-80bc-5707d2d59248" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c55dfd8d1a660179b90c490e9dacc3e0" ns3:_="">
     <xsd:import namespace="4b137422-f48a-46a4-80bc-5707d2d59248"/>
@@ -2810,35 +2835,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2860,9 +2860,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6627110-783A-4D31-BBA4-7F4770A1DBFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F06407-614B-4EC6-BE0B-7ACD74F92C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="159">
   <si>
     <t>해야할 일</t>
   </si>
@@ -616,16 +616,8 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>20시 에어부산 김해-&gt;김포</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>마경도 선임님, 김정기 책임님
 연락해보기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>저녁 한화리조트 해운대</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -680,6 +672,26 @@
     <t>박한솔 독감예방주사 2차 -
 신세계 센텀 - 롯데 부산본점
 스토케 트립트랩, 프레디페리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20시 에어부산 김해-&gt;김포</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3시 한화리조트 해운대 -
+스토리오브라망 마린시티점 -
+저녁 회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심 풍원장 꼬막정찬 -
+온천장 밀한줌 -
+대우아파트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상암유플러스 짐 찾으러 가기</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1317,7 +1329,7 @@
   <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="16.5"/>
@@ -1381,19 +1393,19 @@
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="50.1" customHeight="1">
@@ -1401,16 +1413,18 @@
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="H4" s="10"/>
+      <c r="H4" s="10" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="5" spans="1:13" ht="35.1" customHeight="1">
       <c r="A5" s="23"/>
@@ -1438,13 +1452,15 @@
     </row>
     <row r="6" spans="1:13" ht="50.1" customHeight="1">
       <c r="A6" s="23"/>
-      <c r="B6" s="10"/>
+      <c r="B6" s="10" t="s">
+        <v>158</v>
+      </c>
       <c r="C6" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10" t="s">
@@ -1462,7 +1478,7 @@
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>142</v>
@@ -1517,7 +1533,7 @@
     <row r="10" spans="1:13" ht="50.1" customHeight="1">
       <c r="A10" s="23"/>
       <c r="B10" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -1579,7 +1595,7 @@
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M13" s="11" t="s">
         <v>74</v>
@@ -1693,7 +1709,7 @@
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -1947,7 +1963,7 @@
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H35" s="10" t="s">
         <v>107</v>
@@ -2194,7 +2210,7 @@
     <row r="51" spans="1:8" ht="50.1" customHeight="1">
       <c r="A51" s="25"/>
       <c r="B51" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
@@ -2379,7 +2395,7 @@
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
       <c r="E63" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F63" s="10"/>
       <c r="G63" s="10"/>
@@ -2689,21 +2705,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F91E044E3A9D84A8197B09587594D86" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a727839579f0816cd156df87ac1abb38">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4b137422-f48a-46a4-80bc-5707d2d59248" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c55dfd8d1a660179b90c490e9dacc3e0" ns3:_="">
     <xsd:import namespace="4b137422-f48a-46a4-80bc-5707d2d59248"/>
@@ -2835,10 +2836,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2860,19 +2886,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F06407-614B-4EC6-BE0B-7ACD74F92C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC6E77D-E11E-4269-9326-7C4B8CBA06AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2705,6 +2705,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F91E044E3A9D84A8197B09587594D86" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a727839579f0816cd156df87ac1abb38">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4b137422-f48a-46a4-80bc-5707d2d59248" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c55dfd8d1a660179b90c490e9dacc3e0" ns3:_="">
     <xsd:import namespace="4b137422-f48a-46a4-80bc-5707d2d59248"/>
@@ -2836,35 +2851,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2886,9 +2876,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC6E77D-E11E-4269-9326-7C4B8CBA06AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74533000-5652-4298-BA78-729201E28D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="일정" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="160">
   <si>
     <t>해야할 일</t>
   </si>
@@ -692,6 +692,10 @@
   </si>
   <si>
     <t>상암유플러스 짐 찾으러 가기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델링 스터디 시작?</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1329,17 +1333,17 @@
   <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.84765625" style="4" customWidth="1"/>
-    <col min="2" max="8" width="25.59765625" style="4" customWidth="1"/>
-    <col min="9" max="12" width="8.84765625" style="4"/>
+    <col min="1" max="1" width="8.875" style="4" customWidth="1"/>
+    <col min="2" max="8" width="25.625" style="4" customWidth="1"/>
+    <col min="9" max="12" width="8.875" style="4"/>
     <col min="13" max="13" width="17" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.84765625" style="4" customWidth="1"/>
-    <col min="15" max="16384" width="8.84765625" style="4"/>
+    <col min="14" max="14" width="8.875" style="4" customWidth="1"/>
+    <col min="15" max="16384" width="8.875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="35.1" customHeight="1">
@@ -1540,7 +1544,9 @@
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
+      <c r="H10" s="10" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="11" spans="1:13" ht="35.1" customHeight="1">
       <c r="A11" s="23"/>
@@ -2434,17 +2440,17 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="1.59765625" style="4" customWidth="1"/>
-    <col min="2" max="3" width="35.59765625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="1.625" style="4" customWidth="1"/>
+    <col min="2" max="3" width="35.625" style="4" customWidth="1"/>
     <col min="4" max="4" width="35.75" style="4" customWidth="1"/>
-    <col min="5" max="16" width="8.84765625" style="4"/>
+    <col min="5" max="16" width="8.875" style="4"/>
     <col min="17" max="17" width="12.25" style="4" customWidth="1"/>
-    <col min="18" max="16384" width="8.84765625" style="4"/>
+    <col min="18" max="16384" width="8.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="20.399999999999999" thickBot="1">
+    <row r="1" spans="2:17" ht="21" thickBot="1">
       <c r="B1" s="26" t="s">
         <v>0</v>
       </c>

--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74533000-5652-4298-BA78-729201E28D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9218B42-A6F1-4AF1-BAE0-B3FF059D63AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -616,11 +616,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>마경도 선임님, 김정기 책임님
-연락해보기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>점심 서부운전면허시험장
 IC 모바일 운전면허증 재발급</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -696,6 +691,11 @@
   </si>
   <si>
     <t>모델링 스터디 시작?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오전 연말정산 서류제출
+LG전자가산 A동</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1333,7 +1333,7 @@
   <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1397,19 +1397,19 @@
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>148</v>
-      </c>
       <c r="F3" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="50.1" customHeight="1">
@@ -1417,17 +1417,17 @@
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>154</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="35.1" customHeight="1">
@@ -1457,14 +1457,14 @@
     <row r="6" spans="1:13" ht="50.1" customHeight="1">
       <c r="A6" s="23"/>
       <c r="B6" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C6" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>143</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10" t="s">
-        <v>144</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10" t="s">
@@ -1482,7 +1482,7 @@
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>142</v>
@@ -1537,7 +1537,7 @@
     <row r="10" spans="1:13" ht="50.1" customHeight="1">
       <c r="A10" s="23"/>
       <c r="B10" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -1545,7 +1545,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="35.1" customHeight="1">
@@ -1601,7 +1601,7 @@
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M13" s="11" t="s">
         <v>74</v>
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -1969,7 +1969,7 @@
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H35" s="10" t="s">
         <v>107</v>
@@ -2216,7 +2216,7 @@
     <row r="51" spans="1:8" ht="50.1" customHeight="1">
       <c r="A51" s="25"/>
       <c r="B51" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
@@ -2401,7 +2401,7 @@
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
       <c r="E63" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F63" s="10"/>
       <c r="G63" s="10"/>

--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9218B42-A6F1-4AF1-BAE0-B3FF059D63AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E786DBB9-5718-4B3B-A2DA-9AF13A056DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="150">
   <si>
     <t>해야할 일</t>
   </si>
@@ -556,10 +556,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1 (설날)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1 (삼일절)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -587,12 +583,6 @@
   </si>
   <si>
     <t>헌혈 가능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>손혜민 생일
-저녁 암 환우회 신논현
-이승배, 왕건, 송성윤</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -629,21 +619,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>알뜰교통카드
-모바일캐시비 변경</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6시 동래역 환승센터
-임시선별검사소</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3시 안평노인건강센터 할머니
-고대치기공, 지산고 회비 입금</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>고대치기공, 지산고 회비 입금</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -655,34 +630,6 @@
   <si>
     <t>수협 적금만기
 과학기술인공제회 적금시작?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수협은행 적금 위임장 -
-부산은행 58만 1000원 -
-순병원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>박한솔 독감예방주사 2차 -
-신세계 센텀 - 롯데 부산본점
-스토케 트립트랩, 프레디페리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20시 에어부산 김해-&gt;김포</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3시 한화리조트 해운대 -
-스토리오브라망 마린시티점 -
-저녁 회</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>점심 풍원장 꼬막정찬 -
-온천장 밀한줌 -
-대우아파트</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1330,11 +1277,9 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:N64"/>
+  <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
@@ -1373,359 +1318,349 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A2" s="22"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>82</v>
+      <c r="A2" s="23"/>
+      <c r="B2" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="50.1" customHeight="1">
       <c r="A3" s="23"/>
-      <c r="B3" s="10"/>
+      <c r="B3" s="10" t="s">
+        <v>147</v>
+      </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>152</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="F3" s="10"/>
       <c r="G3" s="10" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="50.1" customHeight="1">
       <c r="A4" s="23"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
-      <c r="D4" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="D4" s="10"/>
       <c r="E4" s="10"/>
-      <c r="F4" s="10" t="s">
-        <v>153</v>
-      </c>
+      <c r="F4" s="10"/>
       <c r="G4" s="10" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="35.1" customHeight="1">
       <c r="A5" s="23"/>
       <c r="B5" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="50.1" customHeight="1">
       <c r="A6" s="23"/>
       <c r="B6" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C6" s="10"/>
+        <v>110</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>111</v>
+      </c>
       <c r="D6" s="10" t="s">
-        <v>159</v>
+        <v>112</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10" t="s">
-        <v>109</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="G6" s="10"/>
       <c r="H6" s="10" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="50.1" customHeight="1">
       <c r="A7" s="23"/>
-      <c r="B7" s="10"/>
+      <c r="B7" s="10" t="s">
+        <v>143</v>
+      </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="10" t="s">
-        <v>144</v>
-      </c>
+      <c r="G7" s="10"/>
       <c r="H7" s="10" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="35.1" customHeight="1">
       <c r="A8" s="23"/>
       <c r="B8" s="8" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="50.1" customHeight="1">
       <c r="A9" s="23"/>
       <c r="B9" s="10" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>112</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="D9" s="10"/>
       <c r="E9" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="50.1" customHeight="1">
       <c r="A10" s="23"/>
-      <c r="B10" s="10" t="s">
-        <v>145</v>
-      </c>
+      <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10" t="s">
-        <v>158</v>
+        <v>146</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="35.1" customHeight="1">
       <c r="A11" s="23"/>
       <c r="B11" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="M11" s="11" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="50.1" customHeight="1">
       <c r="A12" s="23"/>
       <c r="B12" s="10" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>115</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
       <c r="G12" s="10"/>
-      <c r="H12" s="10" t="s">
-        <v>108</v>
+      <c r="H12" s="10"/>
+      <c r="M12" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A13" s="23"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
-      <c r="H13" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="M13" s="11" t="s">
-        <v>74</v>
+      <c r="H13" s="10"/>
+      <c r="M13" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A14" s="23"/>
-      <c r="B14" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
+      <c r="A14" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="M14" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A15" s="23"/>
-      <c r="B15" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="M15" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A15" s="25"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A16" s="24"/>
-      <c r="B16" s="10"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="10" t="s">
+        <v>94</v>
+      </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
+      <c r="D16" s="10" t="s">
+        <v>144</v>
+      </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="M16" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A17" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="M17" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="35.1" customHeight="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="50.1" customHeight="1">
+      <c r="A17" s="25"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:14" ht="35.1" customHeight="1">
       <c r="A18" s="25"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="21" t="s">
+      <c r="B18" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="F18" s="1" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="M18" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="50.1" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="50.1" customHeight="1">
       <c r="A19" s="25"/>
-      <c r="B19" s="10" t="s">
-        <v>94</v>
-      </c>
+      <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
+      <c r="F19" s="10" t="s">
+        <v>119</v>
+      </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
-      <c r="M19" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="50.1" customHeight="1">
+    </row>
+    <row r="20" spans="1:14" ht="50.1" customHeight="1">
       <c r="A20" s="25"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -1735,45 +1670,47 @@
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
     </row>
-    <row r="21" spans="1:13" ht="35.1" customHeight="1">
+    <row r="21" spans="1:14" ht="35.1" customHeight="1">
       <c r="A21" s="25"/>
       <c r="B21" s="8" t="s">
-        <v>49</v>
+        <v>120</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>132</v>
+        <v>67</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="50.1" customHeight="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="50.1" customHeight="1">
       <c r="A22" s="25"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="G22" s="10"/>
+        <v>122</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>123</v>
+      </c>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" spans="1:13" ht="50.1" customHeight="1">
+    <row r="23" spans="1:14" ht="50.1" customHeight="1">
       <c r="A23" s="25"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -1783,47 +1720,45 @@
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
     </row>
-    <row r="24" spans="1:13" ht="35.1" customHeight="1">
+    <row r="24" spans="1:14" ht="35.1" customHeight="1">
       <c r="A24" s="25"/>
       <c r="B24" s="8" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="50.1" customHeight="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="50.1" customHeight="1">
       <c r="A25" s="25"/>
       <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10" t="s">
-        <v>121</v>
-      </c>
+      <c r="C25" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" s="10"/>
       <c r="E25" s="10"/>
-      <c r="F25" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="H25" s="10"/>
-    </row>
-    <row r="26" spans="1:13" ht="50.1" customHeight="1">
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="50.1" customHeight="1">
       <c r="A26" s="25"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -1833,45 +1768,37 @@
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
     </row>
-    <row r="27" spans="1:13" ht="35.1" customHeight="1">
+    <row r="27" spans="1:14" ht="35.1" customHeight="1">
       <c r="A27" s="25"/>
       <c r="B27" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="50.1" customHeight="1">
+        <v>90</v>
+      </c>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+    </row>
+    <row r="28" spans="1:14" ht="50.1" customHeight="1">
       <c r="A28" s="25"/>
       <c r="B28" s="10"/>
-      <c r="C28" s="10" t="s">
-        <v>124</v>
-      </c>
+      <c r="C28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
-      <c r="H28" s="20" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="50.1" customHeight="1">
+      <c r="H28" s="10"/>
+    </row>
+    <row r="29" spans="1:14" ht="49.9" customHeight="1">
       <c r="A29" s="25"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -1881,103 +1808,107 @@
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
     </row>
-    <row r="30" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A30" s="25"/>
-      <c r="B30" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-    </row>
-    <row r="31" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A31" s="25"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-    </row>
-    <row r="32" spans="1:13" ht="49.9" customHeight="1">
-      <c r="A32" s="25"/>
+    <row r="30" spans="1:14" ht="35.1" customHeight="1">
+      <c r="A30" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="35.1" customHeight="1">
+      <c r="A31" s="22"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="50.1" customHeight="1">
+      <c r="A32" s="23"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-    </row>
-    <row r="33" spans="1:14" ht="35.1" customHeight="1">
-      <c r="A33" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="35.1" customHeight="1">
-      <c r="A34" s="22"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
+      <c r="G32" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+    </row>
+    <row r="33" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A33" s="23"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+    </row>
+    <row r="34" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A34" s="23"/>
+      <c r="B34" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="G34" s="1" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="50.1" customHeight="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="50.1" customHeight="1">
       <c r="A35" s="23"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
-      <c r="G35" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-    </row>
-    <row r="36" spans="1:14" ht="50.1" customHeight="1">
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+    </row>
+    <row r="36" spans="1:8" ht="50.1" customHeight="1">
       <c r="A36" s="23"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -1987,31 +1918,31 @@
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
     </row>
-    <row r="37" spans="1:14" ht="35.1" customHeight="1">
+    <row r="37" spans="1:8" ht="35.1" customHeight="1">
       <c r="A37" s="23"/>
       <c r="B37" s="8" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="50.1" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="50.1" customHeight="1">
       <c r="A38" s="23"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -2021,7 +1952,7 @@
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
     </row>
-    <row r="39" spans="1:14" ht="50.1" customHeight="1">
+    <row r="39" spans="1:8" ht="50.1" customHeight="1">
       <c r="A39" s="23"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -2031,31 +1962,31 @@
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
     </row>
-    <row r="40" spans="1:14" ht="35.1" customHeight="1">
+    <row r="40" spans="1:8" ht="35.1" customHeight="1">
       <c r="A40" s="23"/>
       <c r="B40" s="8" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="50.1" customHeight="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="50.1" customHeight="1">
       <c r="A41" s="23"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -2065,7 +1996,7 @@
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
     </row>
-    <row r="42" spans="1:14" ht="50.1" customHeight="1">
+    <row r="42" spans="1:8" ht="50.1" customHeight="1">
       <c r="A42" s="23"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -2075,31 +2006,31 @@
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
     </row>
-    <row r="43" spans="1:14" ht="35.1" customHeight="1">
+    <row r="43" spans="1:8" ht="35.1" customHeight="1">
       <c r="A43" s="23"/>
       <c r="B43" s="8" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="50.1" customHeight="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="50.1" customHeight="1">
       <c r="A44" s="23"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -2109,8 +2040,8 @@
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
     </row>
-    <row r="45" spans="1:14" ht="50.1" customHeight="1">
-      <c r="A45" s="23"/>
+    <row r="45" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A45" s="24"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
@@ -2119,43 +2050,61 @@
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
     </row>
-    <row r="46" spans="1:14" ht="35.1" customHeight="1">
-      <c r="A46" s="23"/>
-      <c r="B46" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" ht="50.1" customHeight="1">
-      <c r="A47" s="23"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-    </row>
-    <row r="48" spans="1:14" ht="50.1" customHeight="1">
-      <c r="A48" s="24"/>
-      <c r="B48" s="10"/>
+    <row r="46" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A46" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A47" s="25"/>
+      <c r="B47" s="18">
+        <v>1</v>
+      </c>
+      <c r="C47" s="19">
+        <v>2</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A48" s="25"/>
+      <c r="B48" s="10" t="s">
+        <v>144</v>
+      </c>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
@@ -2163,67 +2112,53 @@
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
     </row>
-    <row r="49" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A49" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>48</v>
-      </c>
+    <row r="49" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A49" s="25"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
     </row>
     <row r="50" spans="1:8" ht="35.1" customHeight="1">
       <c r="A50" s="25"/>
-      <c r="B50" s="18">
-        <v>1</v>
-      </c>
-      <c r="C50" s="19">
-        <v>2</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>102</v>
+      <c r="B50" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>133</v>
+        <v>52</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="50.1" customHeight="1">
       <c r="A51" s="25"/>
-      <c r="B51" s="10" t="s">
-        <v>149</v>
-      </c>
+      <c r="B51" s="10"/>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
+      <c r="F51" s="10" t="s">
+        <v>105</v>
+      </c>
       <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
+      <c r="H51" s="10" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="52" spans="1:8" ht="50.1" customHeight="1">
       <c r="A52" s="25"/>
@@ -2238,40 +2173,40 @@
     <row r="53" spans="1:8" ht="35.1" customHeight="1">
       <c r="A53" s="25"/>
       <c r="B53" s="8" t="s">
-        <v>134</v>
+        <v>67</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="50.1" customHeight="1">
       <c r="A54" s="25"/>
       <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
+      <c r="C54" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>127</v>
+      </c>
       <c r="E54" s="10"/>
-      <c r="F54" s="10" t="s">
-        <v>105</v>
-      </c>
+      <c r="F54" s="10"/>
       <c r="G54" s="10"/>
-      <c r="H54" s="10" t="s">
-        <v>106</v>
-      </c>
+      <c r="H54" s="10"/>
     </row>
     <row r="55" spans="1:8" ht="50.1" customHeight="1">
       <c r="A55" s="25"/>
@@ -2286,37 +2221,37 @@
     <row r="56" spans="1:8" ht="35.1" customHeight="1">
       <c r="A56" s="25"/>
       <c r="B56" s="8" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="50.1" customHeight="1">
       <c r="A57" s="25"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="E57" s="10"/>
+      <c r="B57" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10" t="s">
+        <v>129</v>
+      </c>
       <c r="F57" s="10"/>
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
@@ -2334,40 +2269,32 @@
     <row r="59" spans="1:8" ht="35.1" customHeight="1">
       <c r="A59" s="25"/>
       <c r="B59" s="8" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>88</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
     </row>
     <row r="60" spans="1:8" ht="50.1" customHeight="1">
       <c r="A60" s="25"/>
-      <c r="B60" s="10" t="s">
-        <v>128</v>
-      </c>
+      <c r="B60" s="10"/>
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
       <c r="E60" s="10" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
+      <c r="H60" s="10" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="61" spans="1:8" ht="50.1" customHeight="1">
       <c r="A61" s="25"/>
@@ -2377,56 +2304,16 @@
       <c r="E61" s="10"/>
       <c r="F61" s="10"/>
       <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
-    </row>
-    <row r="62" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A62" s="25"/>
-      <c r="B62" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
-    </row>
-    <row r="63" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A63" s="25"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A64" s="25"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="10" t="s">
-        <v>140</v>
+      <c r="H61" s="10" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A34:A48"/>
-    <mergeCell ref="A50:A64"/>
-    <mergeCell ref="A2:A16"/>
-    <mergeCell ref="A18:A32"/>
+    <mergeCell ref="A31:A45"/>
+    <mergeCell ref="A47:A61"/>
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="A15:A29"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E786DBB9-5718-4B3B-A2DA-9AF13A056DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D62F93D-6EBC-445D-8C97-5C58330B9204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="152">
   <si>
     <t>해야할 일</t>
   </si>
@@ -602,10 +602,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>점심 고현석-하윤실-고결?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>점심 서부운전면허시험장
 IC 모바일 운전면허증 재발급</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -643,6 +639,19 @@
   <si>
     <t>오전 연말정산 서류제출
 LG전자가산 A동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁 6시 면허증 받음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6/10 서윤식 DAP 강의개설공지?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심 고현석-하윤실-고결
+저녁 이마트 박한솔 이유식</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1279,7 +1288,9 @@
   </sheetPr>
   <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
@@ -1344,14 +1355,14 @@
     <row r="3" spans="1:13" ht="50.1" customHeight="1">
       <c r="A3" s="23"/>
       <c r="B3" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10" t="s">
@@ -1366,13 +1377,15 @@
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
+      <c r="E4" s="10" t="s">
+        <v>149</v>
+      </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="35.1" customHeight="1">
@@ -1424,7 +1437,7 @@
     <row r="7" spans="1:13" ht="50.1" customHeight="1">
       <c r="A7" s="23"/>
       <c r="B7" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -1432,7 +1445,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="35.1" customHeight="1">
@@ -1488,7 +1501,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M10" s="11" t="s">
         <v>74</v>
@@ -1602,7 +1615,7 @@
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
@@ -1856,7 +1869,7 @@
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H32" s="10" t="s">
         <v>107</v>
@@ -2103,7 +2116,7 @@
     <row r="48" spans="1:8" ht="50.1" customHeight="1">
       <c r="A48" s="25"/>
       <c r="B48" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
@@ -2112,7 +2125,7 @@
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
     </row>
-    <row r="49" spans="1:8" ht="50.1" customHeight="1">
+    <row r="49" spans="1:13" ht="50.1" customHeight="1">
       <c r="A49" s="25"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -2122,7 +2135,7 @@
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
     </row>
-    <row r="50" spans="1:8" ht="35.1" customHeight="1">
+    <row r="50" spans="1:13" ht="35.1" customHeight="1">
       <c r="A50" s="25"/>
       <c r="B50" s="8" t="s">
         <v>133</v>
@@ -2146,7 +2159,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="50.1" customHeight="1">
+    <row r="51" spans="1:13" ht="50.1" customHeight="1">
       <c r="A51" s="25"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -2160,7 +2173,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="50.1" customHeight="1">
+    <row r="52" spans="1:13" ht="50.1" customHeight="1">
       <c r="A52" s="25"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -2170,7 +2183,7 @@
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
     </row>
-    <row r="53" spans="1:8" ht="35.1" customHeight="1">
+    <row r="53" spans="1:13" ht="35.1" customHeight="1">
       <c r="A53" s="25"/>
       <c r="B53" s="8" t="s">
         <v>67</v>
@@ -2194,7 +2207,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="50.1" customHeight="1">
+    <row r="54" spans="1:13" ht="50.1" customHeight="1">
       <c r="A54" s="25"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10" t="s">
@@ -2208,7 +2221,7 @@
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
     </row>
-    <row r="55" spans="1:8" ht="50.1" customHeight="1">
+    <row r="55" spans="1:13" ht="50.1" customHeight="1">
       <c r="A55" s="25"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -2218,7 +2231,7 @@
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
     </row>
-    <row r="56" spans="1:8" ht="35.1" customHeight="1">
+    <row r="56" spans="1:13" ht="35.1" customHeight="1">
       <c r="A56" s="25"/>
       <c r="B56" s="8" t="s">
         <v>58</v>
@@ -2242,7 +2255,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="50.1" customHeight="1">
+    <row r="57" spans="1:13" ht="50.1" customHeight="1">
       <c r="A57" s="25"/>
       <c r="B57" s="10" t="s">
         <v>128</v>
@@ -2256,7 +2269,7 @@
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
     </row>
-    <row r="58" spans="1:8" ht="50.1" customHeight="1">
+    <row r="58" spans="1:13" ht="50.1" customHeight="1">
       <c r="A58" s="25"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -2266,7 +2279,7 @@
       <c r="G58" s="10"/>
       <c r="H58" s="10"/>
     </row>
-    <row r="59" spans="1:8" ht="35.1" customHeight="1">
+    <row r="59" spans="1:13" ht="35.1" customHeight="1">
       <c r="A59" s="25"/>
       <c r="B59" s="8" t="s">
         <v>91</v>
@@ -2282,21 +2295,24 @@
       <c r="G59" s="12"/>
       <c r="H59" s="12"/>
     </row>
-    <row r="60" spans="1:8" ht="50.1" customHeight="1">
+    <row r="60" spans="1:13" ht="50.1" customHeight="1">
       <c r="A60" s="25"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
       <c r="E60" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
       <c r="H60" s="10" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" ht="50.1" customHeight="1">
+      <c r="M60" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="50.1" customHeight="1">
       <c r="A61" s="25"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>

--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D62F93D-6EBC-445D-8C97-5C58330B9204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7E4F33-C708-44A4-99CA-EE4FB208EC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="147">
   <si>
     <t>해야할 일</t>
   </si>
@@ -466,19 +466,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>장인어른 생신
-(음력 1/26)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김효은 생일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>조혜진 생일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>조가영, 강기혁 생일</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -583,11 +570,6 @@
   </si>
   <si>
     <t>헌혈 가능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2시 오협 결혼 - 10만원
-판교 더블유스퀘어</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -602,15 +584,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>점심 서부운전면허시험장
-IC 모바일 운전면허증 재발급</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>21시5분 에어부산 김포-&gt;김해</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>20시 에어부산 김해-&gt;김포</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -629,29 +602,34 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>상암유플러스 짐 찾으러 가기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>모델링 스터디 시작?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>오전 연말정산 서류제출
-LG전자가산 A동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>저녁 6시 면허증 받음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>6/10 서윤식 DAP 강의개설공지?</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>점심 고현석-하윤실-고결
-저녁 이마트 박한솔 이유식</t>
+    <t>8/10 휴대폰 선택약정 신청</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조혜진 생일
+점심 이현정 친구
+괴정 캘리가든</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장인어른 생신 (음력 1/26)
+10시 모델링 스터디(이론반)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁 김용태 집들이?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁 한지연 이광성 신동준?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10시 모델링 스터디(이론반)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1286,11 +1264,9 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:N61"/>
+  <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
@@ -1302,7 +1278,7 @@
     <col min="15" max="16384" width="8.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="35.1" customHeight="1">
+    <row r="1" spans="1:8" ht="35.1" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>82</v>
       </c>
@@ -1328,301 +1304,272 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="35.1" customHeight="1">
+    <row r="2" spans="1:8" ht="35.1" customHeight="1">
       <c r="A2" s="23"/>
       <c r="B2" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="50.1" customHeight="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="50.1" customHeight="1">
       <c r="A3" s="23"/>
       <c r="B3" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C3" s="10"/>
+        <v>142</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="D3" s="10" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10" t="s">
-        <v>109</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="G3" s="10"/>
       <c r="H3" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="50.1" customHeight="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="50.1" customHeight="1">
       <c r="A4" s="23"/>
-      <c r="B4" s="10"/>
+      <c r="B4" s="10" t="s">
+        <v>136</v>
+      </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="35.1" customHeight="1">
+        <v>144</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" ht="35.1" customHeight="1">
       <c r="A5" s="23"/>
       <c r="B5" s="8" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="50.1" customHeight="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="50.1" customHeight="1">
       <c r="A6" s="23"/>
       <c r="B6" s="10" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="C6" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="F6" s="10" t="s">
         <v>112</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>139</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="50.1" customHeight="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="50.1" customHeight="1">
       <c r="A7" s="23"/>
-      <c r="B7" s="10" t="s">
-        <v>142</v>
-      </c>
+      <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="35.1" customHeight="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="35.1" customHeight="1">
       <c r="A8" s="23"/>
       <c r="B8" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="50.1" customHeight="1">
+        <v>88</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="1:8" ht="50.1" customHeight="1">
       <c r="A9" s="23"/>
       <c r="B9" s="10" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>115</v>
-      </c>
+      <c r="D9" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
       <c r="G9" s="10"/>
-      <c r="H9" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A10" s="23"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A10" s="24"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
-      <c r="H10" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A11" s="23"/>
-      <c r="B11" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="M11" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A12" s="23"/>
-      <c r="B12" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="M12" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A13" s="24"/>
-      <c r="B13" s="10"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A12" s="25"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A13" s="25"/>
+      <c r="B13" s="10" t="s">
+        <v>94</v>
+      </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
+      <c r="D13" s="10" t="s">
+        <v>137</v>
+      </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
-      <c r="M13" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A14" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="M14" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="35.1" customHeight="1">
+    </row>
+    <row r="14" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A14" s="25"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:8" ht="35.1" customHeight="1">
       <c r="A15" s="25"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>82</v>
+      <c r="B15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>128</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="M15" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="50.1" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="50.1" customHeight="1">
       <c r="A16" s="25"/>
-      <c r="B16" s="10" t="s">
-        <v>94</v>
-      </c>
+      <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
+      <c r="F16" s="10" t="s">
+        <v>116</v>
+      </c>
       <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="M16" s="4" t="s">
-        <v>81</v>
+      <c r="H16" s="10" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="50.1" customHeight="1">
@@ -1634,29 +1581,35 @@
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
+      <c r="M17" s="11" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="18" spans="1:14" ht="35.1" customHeight="1">
       <c r="A18" s="25"/>
       <c r="B18" s="8" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>131</v>
+        <v>67</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>53</v>
+        <v>84</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="50.1" customHeight="1">
@@ -1670,8 +1623,13 @@
       <c r="F19" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="G19" s="10"/>
+      <c r="G19" s="10" t="s">
+        <v>120</v>
+      </c>
       <c r="H19" s="10"/>
+      <c r="M19" s="4" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="20" spans="1:14" ht="50.1" customHeight="1">
       <c r="A20" s="25"/>
@@ -1682,46 +1640,53 @@
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
+      <c r="M20" s="4" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="21" spans="1:14" ht="35.1" customHeight="1">
       <c r="A21" s="25"/>
       <c r="B21" s="8" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="50.1" customHeight="1">
       <c r="A22" s="25"/>
       <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10" t="s">
+      <c r="C22" s="10" t="s">
         <v>121</v>
       </c>
+      <c r="D22" s="10"/>
       <c r="E22" s="10"/>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="G22" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="H22" s="10"/>
+      <c r="M22" s="11" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="23" spans="1:14" ht="50.1" customHeight="1">
       <c r="A23" s="25"/>
@@ -1731,47 +1696,44 @@
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
+      <c r="H23" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="24" spans="1:14" ht="35.1" customHeight="1">
       <c r="A24" s="25"/>
       <c r="B24" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>86</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
     </row>
     <row r="25" spans="1:14" ht="50.1" customHeight="1">
       <c r="A25" s="25"/>
       <c r="B25" s="10"/>
-      <c r="C25" s="10" t="s">
-        <v>124</v>
-      </c>
+      <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
-      <c r="H25" s="20" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="50.1" customHeight="1">
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="1:14" ht="49.9" customHeight="1">
       <c r="A26" s="25"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -1782,83 +1744,93 @@
       <c r="H26" s="10"/>
     </row>
     <row r="27" spans="1:14" ht="35.1" customHeight="1">
-      <c r="A27" s="25"/>
-      <c r="B27" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-    </row>
-    <row r="28" spans="1:14" ht="50.1" customHeight="1">
-      <c r="A28" s="25"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-    </row>
-    <row r="29" spans="1:14" ht="49.9" customHeight="1">
-      <c r="A29" s="25"/>
+      <c r="A27" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="35.1" customHeight="1">
+      <c r="A28" s="22"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="50.1" customHeight="1">
+      <c r="A29" s="23"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-    </row>
-    <row r="30" spans="1:14" ht="35.1" customHeight="1">
-      <c r="A30" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="G29" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+    </row>
+    <row r="30" spans="1:14" ht="50.1" customHeight="1">
+      <c r="A30" s="23"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
     </row>
     <row r="31" spans="1:14" ht="35.1" customHeight="1">
-      <c r="A31" s="22"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="G31" s="1" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="50.1" customHeight="1">
@@ -1868,14 +1840,10 @@
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="10" t="s">
-        <v>144</v>
-      </c>
+      <c r="G32" s="10"/>
       <c r="H32" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
+        <v>146</v>
+      </c>
     </row>
     <row r="33" spans="1:8" ht="50.1" customHeight="1">
       <c r="A33" s="23"/>
@@ -1890,25 +1858,25 @@
     <row r="34" spans="1:8" ht="35.1" customHeight="1">
       <c r="A34" s="23"/>
       <c r="B34" s="8" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="50.1" customHeight="1">
@@ -1934,25 +1902,25 @@
     <row r="37" spans="1:8" ht="35.1" customHeight="1">
       <c r="A37" s="23"/>
       <c r="B37" s="8" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="50.1" customHeight="1">
@@ -1963,7 +1931,9 @@
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
+      <c r="H38" s="10" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="39" spans="1:8" ht="50.1" customHeight="1">
       <c r="A39" s="23"/>
@@ -1978,25 +1948,25 @@
     <row r="40" spans="1:8" ht="35.1" customHeight="1">
       <c r="A40" s="23"/>
       <c r="B40" s="8" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="50.1" customHeight="1">
@@ -2010,7 +1980,7 @@
       <c r="H41" s="10"/>
     </row>
     <row r="42" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A42" s="23"/>
+      <c r="A42" s="24"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
@@ -2020,110 +1990,116 @@
       <c r="H42" s="10"/>
     </row>
     <row r="43" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A43" s="23"/>
-      <c r="B43" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A44" s="23"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
+      <c r="A43" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A44" s="25"/>
+      <c r="B44" s="18">
+        <v>1</v>
+      </c>
+      <c r="C44" s="19">
+        <v>2</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="45" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A45" s="24"/>
-      <c r="B45" s="10"/>
+      <c r="A45" s="25"/>
+      <c r="B45" s="10" t="s">
+        <v>137</v>
+      </c>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-    </row>
-    <row r="46" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A46" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="H45" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A46" s="25"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
     </row>
     <row r="47" spans="1:8" ht="35.1" customHeight="1">
       <c r="A47" s="25"/>
-      <c r="B47" s="18">
-        <v>1</v>
-      </c>
-      <c r="C47" s="19">
-        <v>2</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>102</v>
+      <c r="B47" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>132</v>
+        <v>52</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="50.1" customHeight="1">
       <c r="A48" s="25"/>
-      <c r="B48" s="10" t="s">
-        <v>143</v>
-      </c>
+      <c r="B48" s="10"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
+      <c r="F48" s="10" t="s">
+        <v>105</v>
+      </c>
       <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
+      <c r="H48" s="10" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="49" spans="1:13" ht="50.1" customHeight="1">
       <c r="A49" s="25"/>
@@ -2138,39 +2114,41 @@
     <row r="50" spans="1:13" ht="35.1" customHeight="1">
       <c r="A50" s="25"/>
       <c r="B50" s="8" t="s">
-        <v>133</v>
+        <v>67</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="50.1" customHeight="1">
       <c r="A51" s="25"/>
       <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
+      <c r="C51" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>124</v>
+      </c>
       <c r="E51" s="10"/>
-      <c r="F51" s="10" t="s">
-        <v>105</v>
-      </c>
+      <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="10" t="s">
-        <v>106</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="50.1" customHeight="1">
@@ -2186,37 +2164,37 @@
     <row r="53" spans="1:13" ht="35.1" customHeight="1">
       <c r="A53" s="25"/>
       <c r="B53" s="8" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="50.1" customHeight="1">
       <c r="A54" s="25"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10" t="s">
+      <c r="B54" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="D54" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="E54" s="10"/>
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
@@ -2234,40 +2212,35 @@
     <row r="56" spans="1:13" ht="35.1" customHeight="1">
       <c r="A56" s="25"/>
       <c r="B56" s="8" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>88</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
     </row>
     <row r="57" spans="1:13" ht="50.1" customHeight="1">
       <c r="A57" s="25"/>
-      <c r="B57" s="10" t="s">
-        <v>128</v>
-      </c>
+      <c r="B57" s="10"/>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
       <c r="E57" s="10" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="F57" s="10"/>
       <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
+      <c r="H57" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="M57" s="4" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="58" spans="1:13" ht="50.1" customHeight="1">
       <c r="A58" s="25"/>
@@ -2277,59 +2250,19 @@
       <c r="E58" s="10"/>
       <c r="F58" s="10"/>
       <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-    </row>
-    <row r="59" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A59" s="25"/>
-      <c r="B59" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
-    </row>
-    <row r="60" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A60" s="25"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="M60" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A61" s="25"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10" t="s">
-        <v>138</v>
+      <c r="H58" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="M58" s="4" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A31:A45"/>
-    <mergeCell ref="A47:A61"/>
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="A15:A29"/>
+    <mergeCell ref="A28:A42"/>
+    <mergeCell ref="A44:A58"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A12:A26"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2614,21 +2547,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F91E044E3A9D84A8197B09587594D86" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a727839579f0816cd156df87ac1abb38">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4b137422-f48a-46a4-80bc-5707d2d59248" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c55dfd8d1a660179b90c490e9dacc3e0" ns3:_="">
     <xsd:import namespace="4b137422-f48a-46a4-80bc-5707d2d59248"/>
@@ -2760,10 +2678,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2785,19 +2728,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7E4F33-C708-44A4-99CA-EE4FB208EC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0DC3ED-0E38-48D0-B7D6-46859F6DF9D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="149">
   <si>
     <t>해야할 일</t>
   </si>
@@ -621,15 +621,24 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>저녁 김용태 집들이?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>저녁 한지연 이광성 신동준?</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>10시 모델링 스터디(이론반)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영우글로벌러닝 결제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3시 COS Pro 1급
+YBM종로 CBT센터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁 김용태 집들이</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1356,12 +1365,14 @@
         <v>136</v>
       </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+      <c r="D4" s="10" t="s">
+        <v>146</v>
+      </c>
       <c r="E4" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>144</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>145</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -1569,7 +1580,7 @@
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="50.1" customHeight="1">
@@ -1626,7 +1637,9 @@
       <c r="G19" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="H19" s="10"/>
+      <c r="H19" s="10" t="s">
+        <v>147</v>
+      </c>
       <c r="M19" s="4" t="s">
         <v>76</v>
       </c>
@@ -1697,7 +1710,7 @@
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M23" s="4" t="s">
         <v>81</v>
@@ -1842,7 +1855,7 @@
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="50.1" customHeight="1">
@@ -1932,7 +1945,7 @@
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="50.1" customHeight="1">
@@ -2050,7 +2063,7 @@
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="50.1" customHeight="1">
@@ -2148,7 +2161,7 @@
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="50.1" customHeight="1">
@@ -2547,6 +2560,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F91E044E3A9D84A8197B09587594D86" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a727839579f0816cd156df87ac1abb38">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4b137422-f48a-46a4-80bc-5707d2d59248" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c55dfd8d1a660179b90c490e9dacc3e0" ns3:_="">
     <xsd:import namespace="4b137422-f48a-46a4-80bc-5707d2d59248"/>
@@ -2678,35 +2706,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2728,9 +2731,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0DC3ED-0E38-48D0-B7D6-46859F6DF9D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273C0720-A734-4FAA-97AB-96274BD93999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="150">
   <si>
     <t>해야할 일</t>
   </si>
@@ -639,6 +639,12 @@
   </si>
   <si>
     <t>저녁 김용태 집들이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오전 10시~ TCT COS Pro
+개발언어 신청
+3/25, 4/14 맨 앞 2개 신청하기</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1275,7 +1281,9 @@
   </sheetPr>
   <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
@@ -1589,7 +1597,9 @@
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
+      <c r="F17" s="10" t="s">
+        <v>149</v>
+      </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="M17" s="11" t="s">

--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273C0720-A734-4FAA-97AB-96274BD93999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1530FA4D-F5D6-4D98-823A-B3AD1B035E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="일정" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="149">
   <si>
     <t>해야할 일</t>
   </si>
@@ -494,10 +494,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>이현규 생일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>서동권 생일</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -621,10 +617,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>저녁 한지연 이광성 신동준?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>10시 모델링 스터디(이론반)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -635,16 +627,23 @@
   <si>
     <t>3시 COS Pro 1급
 YBM종로 CBT센터</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>저녁 김용태 집들이</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>오전 10시~ TCT COS Pro
 개발언어 신청
 3/25, 4/14 맨 앞 2개 신청하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이현규 생일
+5시 이유진, 최상희, 김효영</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁 김용태 집들이
+김세훈, 김용태, 한지연,
+강지원, 정유찬</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1282,7 +1281,7 @@
   <dimension ref="A1:N58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1348,7 +1347,7 @@
     <row r="3" spans="1:8" ht="50.1" customHeight="1">
       <c r="A3" s="23"/>
       <c r="B3" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>108</v>
@@ -1360,28 +1359,26 @@
         <v>110</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="50.1" customHeight="1">
       <c r="A4" s="23"/>
       <c r="B4" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>144</v>
-      </c>
+      <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
     </row>
@@ -1412,10 +1409,10 @@
     <row r="6" spans="1:8" ht="50.1" customHeight="1">
       <c r="A6" s="23"/>
       <c r="B6" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>132</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>133</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10" t="s">
@@ -1426,7 +1423,7 @@
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="50.1" customHeight="1">
@@ -1438,7 +1435,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="35.1" customHeight="1">
@@ -1512,7 +1509,7 @@
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>82</v>
@@ -1534,7 +1531,7 @@
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -1563,7 +1560,7 @@
         <v>51</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>66</v>
@@ -1580,15 +1577,15 @@
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="50.1" customHeight="1">
@@ -1598,7 +1595,7 @@
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
@@ -1609,7 +1606,7 @@
     <row r="18" spans="1:14" ht="35.1" customHeight="1">
       <c r="A18" s="25"/>
       <c r="B18" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>70</v>
@@ -1638,17 +1635,17 @@
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G19" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="G19" s="10" t="s">
-        <v>120</v>
-      </c>
       <c r="H19" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M19" s="4" t="s">
         <v>76</v>
@@ -1698,14 +1695,14 @@
       <c r="A22" s="25"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M22" s="11" t="s">
         <v>73</v>
@@ -1720,7 +1717,7 @@
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M23" s="4" t="s">
         <v>81</v>
@@ -1814,7 +1811,7 @@
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
       <c r="G29" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H29" s="10" t="s">
         <v>107</v>
@@ -1865,7 +1862,7 @@
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="50.1" customHeight="1">
@@ -1955,7 +1952,7 @@
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="50.1" customHeight="1">
@@ -2053,7 +2050,7 @@
         <v>103</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>49</v>
@@ -2065,7 +2062,7 @@
     <row r="45" spans="1:8" ht="50.1" customHeight="1">
       <c r="A45" s="25"/>
       <c r="B45" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
@@ -2073,7 +2070,7 @@
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="50.1" customHeight="1">
@@ -2089,7 +2086,7 @@
     <row r="47" spans="1:8" ht="35.1" customHeight="1">
       <c r="A47" s="25"/>
       <c r="B47" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>68</v>
@@ -2162,16 +2159,16 @@
       <c r="A51" s="25"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D51" s="10" t="s">
         <v>123</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>124</v>
       </c>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="50.1" customHeight="1">
@@ -2211,12 +2208,12 @@
     <row r="54" spans="1:13" ht="50.1" customHeight="1">
       <c r="A54" s="25"/>
       <c r="B54" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
       <c r="E54" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
@@ -2254,7 +2251,7 @@
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
       <c r="E57" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F57" s="10"/>
       <c r="G57" s="10"/>
@@ -2262,7 +2259,7 @@
         <v>93</v>
       </c>
       <c r="M57" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="50.1" customHeight="1">
@@ -2274,10 +2271,10 @@
       <c r="F58" s="10"/>
       <c r="G58" s="10"/>
       <c r="H58" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1530FA4D-F5D6-4D98-823A-B3AD1B035E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C13BB71-6DFD-4F7E-B46C-ACD04A48671D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1464" yWindow="1464" windowWidth="14400" windowHeight="7374" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="일정" sheetId="1" r:id="rId1"/>
@@ -625,11 +625,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3시 COS Pro 1급
-YBM종로 CBT센터</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>오전 10시~ TCT COS Pro
 개발언어 신청
 3/25, 4/14 맨 앞 2개 신청하기</t>
@@ -644,6 +639,11 @@
     <t>저녁 김용태 집들이
 김세훈, 김용태, 한지연,
 강지원, 정유찬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3시 COS Pro 1급
+신촌로113 YBM신촌CBT센터</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1280,18 +1280,16 @@
   </sheetPr>
   <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="4" customWidth="1"/>
-    <col min="2" max="8" width="25.625" style="4" customWidth="1"/>
-    <col min="9" max="12" width="8.875" style="4"/>
+    <col min="1" max="1" width="8.84765625" style="4" customWidth="1"/>
+    <col min="2" max="8" width="25.59765625" style="4" customWidth="1"/>
+    <col min="9" max="12" width="8.84765625" style="4"/>
     <col min="13" max="13" width="17" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.875" style="4" customWidth="1"/>
-    <col min="15" max="16384" width="8.875" style="4"/>
+    <col min="14" max="14" width="8.84765625" style="4" customWidth="1"/>
+    <col min="15" max="16384" width="8.84765625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="35.1" customHeight="1">
@@ -1376,7 +1374,7 @@
         <v>144</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
@@ -1577,7 +1575,7 @@
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10" t="s">
@@ -1595,7 +1593,7 @@
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
@@ -1645,7 +1643,7 @@
         <v>119</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M19" s="4" t="s">
         <v>76</v>
@@ -2296,17 +2294,17 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="1.625" style="4" customWidth="1"/>
-    <col min="2" max="3" width="35.625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="1.59765625" style="4" customWidth="1"/>
+    <col min="2" max="3" width="35.59765625" style="4" customWidth="1"/>
     <col min="4" max="4" width="35.75" style="4" customWidth="1"/>
-    <col min="5" max="16" width="8.875" style="4"/>
+    <col min="5" max="16" width="8.84765625" style="4"/>
     <col min="17" max="17" width="12.25" style="4" customWidth="1"/>
-    <col min="18" max="16384" width="8.875" style="4"/>
+    <col min="18" max="16384" width="8.84765625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="21" thickBot="1">
+    <row r="1" spans="2:17" ht="20.399999999999999" thickBot="1">
       <c r="B1" s="26" t="s">
         <v>0</v>
       </c>
@@ -2567,21 +2565,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F91E044E3A9D84A8197B09587594D86" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a727839579f0816cd156df87ac1abb38">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4b137422-f48a-46a4-80bc-5707d2d59248" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c55dfd8d1a660179b90c490e9dacc3e0" ns3:_="">
     <xsd:import namespace="4b137422-f48a-46a4-80bc-5707d2d59248"/>
@@ -2713,10 +2696,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2738,19 +2746,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1530FA4D-F5D6-4D98-823A-B3AD1B035E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0B8826-C212-49D4-9B1D-BA9AD52941EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="151">
   <si>
     <t>해야할 일</t>
   </si>
@@ -644,6 +644,14 @@
     <t>저녁 김용태 집들이
 김세훈, 김용태, 한지연,
 강지원, 정유찬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁 김창훈책임님, 김도영</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁 이승배??</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1281,7 +1289,7 @@
   <dimension ref="A1:N58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1414,7 +1422,9 @@
       <c r="C6" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="D6" s="10"/>
+      <c r="D6" s="10" t="s">
+        <v>150</v>
+      </c>
       <c r="E6" s="10" t="s">
         <v>111</v>
       </c>
@@ -1535,7 +1545,9 @@
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
+      <c r="G13" s="10" t="s">
+        <v>149</v>
+      </c>
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" ht="50.1" customHeight="1">
@@ -2567,21 +2579,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F91E044E3A9D84A8197B09587594D86" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a727839579f0816cd156df87ac1abb38">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4b137422-f48a-46a4-80bc-5707d2d59248" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c55dfd8d1a660179b90c490e9dacc3e0" ns3:_="">
     <xsd:import namespace="4b137422-f48a-46a4-80bc-5707d2d59248"/>
@@ -2713,10 +2710,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2738,19 +2760,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C13BB71-6DFD-4F7E-B46C-ACD04A48671D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D75D9FE-CCE2-44B6-BACF-062CCDDC45C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1464" yWindow="1464" windowWidth="14400" windowHeight="7374" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="일정" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="151">
   <si>
     <t>해야할 일</t>
   </si>
@@ -644,6 +644,14 @@
   <si>
     <t>3시 COS Pro 1급
 신촌로113 YBM신촌CBT센터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁 상일동 이승배</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁 김민경?</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1280,16 +1288,18 @@
   </sheetPr>
   <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.84765625" style="4" customWidth="1"/>
-    <col min="2" max="8" width="25.59765625" style="4" customWidth="1"/>
-    <col min="9" max="12" width="8.84765625" style="4"/>
+    <col min="1" max="1" width="8.875" style="4" customWidth="1"/>
+    <col min="2" max="8" width="25.625" style="4" customWidth="1"/>
+    <col min="9" max="12" width="8.875" style="4"/>
     <col min="13" max="13" width="17" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.84765625" style="4" customWidth="1"/>
-    <col min="15" max="16384" width="8.84765625" style="4"/>
+    <col min="14" max="14" width="8.875" style="4" customWidth="1"/>
+    <col min="15" max="16384" width="8.875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="35.1" customHeight="1">
@@ -1412,7 +1422,9 @@
       <c r="C6" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="D6" s="10"/>
+      <c r="D6" s="10" t="s">
+        <v>149</v>
+      </c>
       <c r="E6" s="10" t="s">
         <v>111</v>
       </c>
@@ -1458,9 +1470,7 @@
       <c r="C9" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>92</v>
-      </c>
+      <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
@@ -1527,11 +1537,15 @@
       <c r="B13" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" s="10" t="s">
+        <v>92</v>
+      </c>
       <c r="D13" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="E13" s="10"/>
+      <c r="E13" s="10" t="s">
+        <v>150</v>
+      </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -2294,17 +2308,17 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="1.59765625" style="4" customWidth="1"/>
-    <col min="2" max="3" width="35.59765625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="1.625" style="4" customWidth="1"/>
+    <col min="2" max="3" width="35.625" style="4" customWidth="1"/>
     <col min="4" max="4" width="35.75" style="4" customWidth="1"/>
-    <col min="5" max="16" width="8.84765625" style="4"/>
+    <col min="5" max="16" width="8.875" style="4"/>
     <col min="17" max="17" width="12.25" style="4" customWidth="1"/>
-    <col min="18" max="16384" width="8.84765625" style="4"/>
+    <col min="18" max="16384" width="8.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="20.399999999999999" thickBot="1">
+    <row r="1" spans="2:17" ht="21" thickBot="1">
       <c r="B1" s="26" t="s">
         <v>0</v>
       </c>
@@ -2565,6 +2579,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F91E044E3A9D84A8197B09587594D86" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a727839579f0816cd156df87ac1abb38">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4b137422-f48a-46a4-80bc-5707d2d59248" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c55dfd8d1a660179b90c490e9dacc3e0" ns3:_="">
     <xsd:import namespace="4b137422-f48a-46a4-80bc-5707d2d59248"/>
@@ -2696,35 +2725,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2746,9 +2750,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D75D9FE-CCE2-44B6-BACF-062CCDDC45C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8598AF54-AD99-404D-BF4A-093889009094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="일정" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="142">
   <si>
     <t>해야할 일</t>
   </si>
@@ -466,18 +466,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>조가영, 강기혁 생일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>권세라 생일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>박지안, 정희재 생일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>맹문기, 김관호 생일</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -555,11 +543,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>오전 7시30분~
-LG CNS 전기차 예약(9920)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>~저녁 9시
 LG CNS 전기차 예약(9920)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -574,16 +557,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>정지수 생일
-3기신도시 고양창릉
-사전청약 발표</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20시 에어부산 김해-&gt;김포</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>고대치기공, 지산고 회비 입금</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -606,22 +579,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>조혜진 생일
-점심 이현정 친구
-괴정 캘리가든</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>장인어른 생신 (음력 1/26)
 10시 모델링 스터디(이론반)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>10시 모델링 스터디(이론반)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>영우글로벌러닝 결제</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -636,22 +599,17 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>저녁 김용태 집들이
-김세훈, 김용태, 한지연,
-강지원, 정유찬</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>3시 COS Pro 1급
 신촌로113 YBM신촌CBT센터</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>저녁 상일동 이승배</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>저녁 김민경?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁 천호 이승배
+오징어참치 - 유경참숯생고기</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1286,11 +1244,9 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:N58"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
@@ -1302,7 +1258,7 @@
     <col min="15" max="16384" width="8.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="35.1" customHeight="1">
+    <row r="1" spans="1:13" ht="35.1" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>82</v>
       </c>
@@ -1328,276 +1284,277 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="35.1" customHeight="1">
+    <row r="2" spans="1:13" ht="35.1" customHeight="1">
       <c r="A2" s="23"/>
       <c r="B2" s="8" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="50.1" customHeight="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="50.1" customHeight="1">
       <c r="A3" s="23"/>
       <c r="B3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="E3" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>109</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>134</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="50.1" customHeight="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="50.1" customHeight="1">
       <c r="A4" s="23"/>
-      <c r="B4" s="10" t="s">
-        <v>135</v>
-      </c>
+      <c r="B4" s="10"/>
       <c r="C4" s="10"/>
-      <c r="D4" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>147</v>
-      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="5" spans="1:8" ht="35.1" customHeight="1">
+      <c r="H4" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="35.1" customHeight="1">
       <c r="A5" s="23"/>
       <c r="B5" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="50.1" customHeight="1">
+        <v>88</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="1:13" ht="50.1" customHeight="1">
       <c r="A6" s="23"/>
       <c r="B6" s="10" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E6" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>112</v>
-      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
       <c r="G6" s="10"/>
-      <c r="H6" s="10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A7" s="23"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A7" s="24"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
-      <c r="H7" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A8" s="23"/>
-      <c r="B8" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A9" s="23"/>
-      <c r="B9" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A10" s="24"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A9" s="25"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A10" s="25"/>
+      <c r="B10" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>140</v>
+      </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A11" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="35.1" customHeight="1">
+    <row r="11" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A11" s="25"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:13" ht="35.1" customHeight="1">
       <c r="A12" s="25"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>82</v>
+      <c r="B12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>124</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="50.1" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="50.1" customHeight="1">
       <c r="A13" s="25"/>
-      <c r="B13" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>92</v>
-      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
       <c r="D13" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" spans="1:8" ht="50.1" customHeight="1">
+    </row>
+    <row r="14" spans="1:13" ht="50.1" customHeight="1">
       <c r="A14" s="25"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+      <c r="F14" s="10" t="s">
+        <v>137</v>
+      </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
-    </row>
-    <row r="15" spans="1:8" ht="35.1" customHeight="1">
+      <c r="M14" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="35.1" customHeight="1">
       <c r="A15" s="25"/>
       <c r="B15" s="8" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>127</v>
+        <v>67</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="50.1" customHeight="1">
+        <v>84</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="50.1" customHeight="1">
       <c r="A16" s="25"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="G16" s="10"/>
+      <c r="G16" s="10" t="s">
+        <v>116</v>
+      </c>
       <c r="H16" s="10" t="s">
-        <v>143</v>
+        <v>139</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="50.1" customHeight="1">
@@ -1606,61 +1563,55 @@
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="10" t="s">
-        <v>145</v>
-      </c>
+      <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
-      <c r="M17" s="11" t="s">
-        <v>74</v>
+      <c r="M17" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="35.1" customHeight="1">
       <c r="A18" s="25"/>
       <c r="B18" s="8" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="50.1" customHeight="1">
       <c r="A19" s="25"/>
       <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10" t="s">
+      <c r="C19" s="10" t="s">
         <v>117</v>
       </c>
+      <c r="D19" s="10"/>
       <c r="E19" s="10"/>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="G19" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>76</v>
+      <c r="M19" s="11" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="50.1" customHeight="1">
@@ -1671,56 +1622,44 @@
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
+      <c r="H20" s="10" t="s">
+        <v>136</v>
+      </c>
       <c r="M20" s="4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="35.1" customHeight="1">
       <c r="A21" s="25"/>
       <c r="B21" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="M21" s="11" t="s">
-        <v>78</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:14" ht="50.1" customHeight="1">
       <c r="A22" s="25"/>
       <c r="B22" s="10"/>
-      <c r="C22" s="10" t="s">
-        <v>120</v>
-      </c>
+      <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
-      <c r="H22" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="M22" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="50.1" customHeight="1">
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="1:14" ht="49.9" customHeight="1">
       <c r="A23" s="25"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -1728,91 +1667,96 @@
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
-      <c r="H23" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>81</v>
-      </c>
+      <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:14" ht="35.1" customHeight="1">
-      <c r="A24" s="25"/>
-      <c r="B24" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-    </row>
-    <row r="25" spans="1:14" ht="50.1" customHeight="1">
-      <c r="A25" s="25"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-    </row>
-    <row r="26" spans="1:14" ht="49.9" customHeight="1">
-      <c r="A26" s="25"/>
+      <c r="A24" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="35.1" customHeight="1">
+      <c r="A25" s="22"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="50.1" customHeight="1">
+      <c r="A26" s="23"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-    </row>
-    <row r="27" spans="1:14" ht="35.1" customHeight="1">
-      <c r="A27" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="G26" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+    </row>
+    <row r="27" spans="1:14" ht="50.1" customHeight="1">
+      <c r="A27" s="23"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:14" ht="35.1" customHeight="1">
-      <c r="A28" s="22"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="G28" s="1" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="50.1" customHeight="1">
@@ -1822,14 +1766,10 @@
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
-      <c r="G29" s="10" t="s">
-        <v>137</v>
-      </c>
+      <c r="G29" s="10"/>
       <c r="H29" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
+        <v>136</v>
+      </c>
     </row>
     <row r="30" spans="1:14" ht="50.1" customHeight="1">
       <c r="A30" s="23"/>
@@ -1844,25 +1784,25 @@
     <row r="31" spans="1:14" ht="35.1" customHeight="1">
       <c r="A31" s="23"/>
       <c r="B31" s="8" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="50.1" customHeight="1">
@@ -1873,9 +1813,7 @@
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
-      <c r="H32" s="10" t="s">
-        <v>143</v>
-      </c>
+      <c r="H32" s="10"/>
     </row>
     <row r="33" spans="1:8" ht="50.1" customHeight="1">
       <c r="A33" s="23"/>
@@ -1890,25 +1828,25 @@
     <row r="34" spans="1:8" ht="35.1" customHeight="1">
       <c r="A34" s="23"/>
       <c r="B34" s="8" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="50.1" customHeight="1">
@@ -1919,7 +1857,9 @@
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
+      <c r="H35" s="10" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="36" spans="1:8" ht="50.1" customHeight="1">
       <c r="A36" s="23"/>
@@ -1934,25 +1874,25 @@
     <row r="37" spans="1:8" ht="35.1" customHeight="1">
       <c r="A37" s="23"/>
       <c r="B37" s="8" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="50.1" customHeight="1">
@@ -1963,12 +1903,10 @@
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
-      <c r="H38" s="10" t="s">
-        <v>143</v>
-      </c>
+      <c r="H38" s="10"/>
     </row>
     <row r="39" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A39" s="23"/>
+      <c r="A39" s="24"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
@@ -1978,111 +1916,115 @@
       <c r="H39" s="10"/>
     </row>
     <row r="40" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A40" s="23"/>
-      <c r="B40" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A41" s="23"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
+      <c r="A40" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A41" s="25"/>
+      <c r="B41" s="18">
+        <v>1</v>
+      </c>
+      <c r="C41" s="19">
+        <v>2</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="42" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A42" s="24"/>
-      <c r="B42" s="10"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="10" t="s">
+        <v>130</v>
+      </c>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-    </row>
-    <row r="43" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A43" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="H42" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A43" s="25"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
     </row>
     <row r="44" spans="1:8" ht="35.1" customHeight="1">
       <c r="A44" s="25"/>
-      <c r="B44" s="18">
-        <v>1</v>
-      </c>
-      <c r="C44" s="19">
-        <v>2</v>
-      </c>
-      <c r="D44" s="16" t="s">
-        <v>102</v>
+      <c r="B44" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>128</v>
+        <v>52</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="50.1" customHeight="1">
       <c r="A45" s="25"/>
-      <c r="B45" s="10" t="s">
-        <v>136</v>
-      </c>
+      <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
+      <c r="F45" s="10" t="s">
+        <v>105</v>
+      </c>
       <c r="G45" s="10"/>
       <c r="H45" s="10" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="50.1" customHeight="1">
@@ -2098,39 +2040,41 @@
     <row r="47" spans="1:8" ht="35.1" customHeight="1">
       <c r="A47" s="25"/>
       <c r="B47" s="8" t="s">
-        <v>129</v>
+        <v>67</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="50.1" customHeight="1">
       <c r="A48" s="25"/>
       <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
+      <c r="C48" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>120</v>
+      </c>
       <c r="E48" s="10"/>
-      <c r="F48" s="10" t="s">
-        <v>105</v>
-      </c>
+      <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="10" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="50.1" customHeight="1">
@@ -2146,42 +2090,40 @@
     <row r="50" spans="1:13" ht="35.1" customHeight="1">
       <c r="A50" s="25"/>
       <c r="B50" s="8" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="50.1" customHeight="1">
       <c r="A51" s="25"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10" t="s">
+      <c r="B51" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="D51" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="E51" s="10"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
-      <c r="H51" s="10" t="s">
-        <v>143</v>
-      </c>
+      <c r="H51" s="10"/>
     </row>
     <row r="52" spans="1:13" ht="50.1" customHeight="1">
       <c r="A52" s="25"/>
@@ -2196,40 +2138,35 @@
     <row r="53" spans="1:13" ht="35.1" customHeight="1">
       <c r="A53" s="25"/>
       <c r="B53" s="8" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>88</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
     </row>
     <row r="54" spans="1:13" ht="50.1" customHeight="1">
       <c r="A54" s="25"/>
-      <c r="B54" s="10" t="s">
-        <v>124</v>
-      </c>
+      <c r="B54" s="10"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
       <c r="E54" s="10" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
+      <c r="H54" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="M54" s="4" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="55" spans="1:13" ht="50.1" customHeight="1">
       <c r="A55" s="25"/>
@@ -2239,62 +2176,19 @@
       <c r="E55" s="10"/>
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-    </row>
-    <row r="56" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A56" s="25"/>
-      <c r="B56" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-    </row>
-    <row r="57" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A57" s="25"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="M57" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A58" s="25"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="M58" s="4" t="s">
-        <v>140</v>
+      <c r="H55" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="M55" s="4" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A28:A42"/>
-    <mergeCell ref="A44:A58"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="A12:A26"/>
+    <mergeCell ref="A25:A39"/>
+    <mergeCell ref="A41:A55"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A9:A23"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2579,21 +2473,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F91E044E3A9D84A8197B09587594D86" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a727839579f0816cd156df87ac1abb38">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4b137422-f48a-46a4-80bc-5707d2d59248" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c55dfd8d1a660179b90c490e9dacc3e0" ns3:_="">
     <xsd:import namespace="4b137422-f48a-46a4-80bc-5707d2d59248"/>
@@ -2725,10 +2604,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2750,19 +2654,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8598AF54-AD99-404D-BF4A-093889009094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1A106F-7C77-4159-ACE3-E89943B9396A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="143">
   <si>
     <t>해야할 일</t>
   </si>
@@ -566,25 +566,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>수협 적금만기
-과학기술인공제회 적금시작?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>6/10 서윤식 DAP 강의개설공지?</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>8/10 휴대폰 선택약정 신청</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>장인어른 생신 (음력 1/26)
-10시 모델링 스터디(이론반)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10시 모델링 스터디(이론반)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -610,6 +596,22 @@
   <si>
     <t>저녁 천호 이승배
 오징어참치 - 유경참숯생고기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수협 적금만기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>21시5분 에어부산 김포-&gt;김해</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장인어른 생신 (음력 1/26)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>19시 에어부산 김해-&gt;김포</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1317,7 +1319,7 @@
         <v>128</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>108</v>
@@ -1325,9 +1327,11 @@
       <c r="F3" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="G3" s="10"/>
+      <c r="G3" s="10" t="s">
+        <v>140</v>
+      </c>
       <c r="H3" s="10" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="50.1" customHeight="1">
@@ -1339,7 +1343,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="35.1" customHeight="1">
@@ -1438,7 +1442,7 @@
         <v>130</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
@@ -1448,7 +1452,9 @@
       <c r="A11" s="25"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
+      <c r="D11" s="10" t="s">
+        <v>142</v>
+      </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
@@ -1483,16 +1489,14 @@
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10" t="s">
         <v>112</v>
       </c>
       <c r="G13" s="10"/>
-      <c r="H13" s="10" t="s">
-        <v>136</v>
-      </c>
+      <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:13" ht="50.1" customHeight="1">
       <c r="A14" s="25"/>
@@ -1501,7 +1505,7 @@
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -1551,7 +1555,7 @@
         <v>116</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>76</v>
@@ -1622,9 +1626,7 @@
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
-      <c r="H20" s="10" t="s">
-        <v>136</v>
-      </c>
+      <c r="H20" s="10"/>
       <c r="M20" s="4" t="s">
         <v>81</v>
       </c>
@@ -1767,9 +1769,7 @@
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
-      <c r="H29" s="10" t="s">
-        <v>136</v>
-      </c>
+      <c r="H29" s="10"/>
     </row>
     <row r="30" spans="1:14" ht="50.1" customHeight="1">
       <c r="A30" s="23"/>
@@ -1857,9 +1857,7 @@
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
-      <c r="H35" s="10" t="s">
-        <v>136</v>
-      </c>
+      <c r="H35" s="10"/>
     </row>
     <row r="36" spans="1:8" ht="50.1" customHeight="1">
       <c r="A36" s="23"/>
@@ -1975,9 +1973,7 @@
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
-      <c r="H42" s="10" t="s">
-        <v>136</v>
-      </c>
+      <c r="H42" s="10"/>
     </row>
     <row r="43" spans="1:8" ht="50.1" customHeight="1">
       <c r="A43" s="25"/>
@@ -2073,9 +2069,7 @@
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
-      <c r="H48" s="10" t="s">
-        <v>136</v>
-      </c>
+      <c r="H48" s="10"/>
     </row>
     <row r="49" spans="1:13" ht="50.1" customHeight="1">
       <c r="A49" s="25"/>
@@ -2165,7 +2159,7 @@
         <v>93</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="50.1" customHeight="1">
@@ -2180,7 +2174,7 @@
         <v>129</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1A106F-7C77-4159-ACE3-E89943B9396A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FE88F0-D2BF-4515-8A37-5D21A4BEED78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="138">
   <si>
     <t>해야할 일</t>
   </si>
@@ -396,22 +396,11 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>과학기술인공제회
-적립형공제 늘리기. 115만?
-IRP도 25만..?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>박한솔 돌 이후
 북스타트 2단계</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>과학기술인으뜸적금 가입하기
-50만원. 0.3% 청년우대 확인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -466,22 +455,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>맹문기, 김관호 생일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>조성우 생일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김현정, 문정민 생일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김윤환, 김남준 생일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>서동권 생일</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -541,15 +514,6 @@
   <si>
     <t>8 (부처님 오신날)</t>
     <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>~저녁 9시
-LG CNS 전기차 예약(9920)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>헌혈 가능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>23년 10월 엄마 회갑 경조사
@@ -594,24 +558,38 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>저녁 천호 이승배
-오징어참치 - 유경참숯생고기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수협 적금만기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>21시5분 에어부산 김포-&gt;김해</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>장인어른 생신 (음력 1/26)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>19시 에어부산 김해-&gt;김포</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고대치기공, 지산고 회비 입금
+기장 클라임타워 카페</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>과학기술인으뜸적금 가입하기
+50만원. 0.3% 청년우대 확인
+IRP도 25만..?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁 김창훈 책임님, 김도영?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7시30분 에어부산 김해-&gt;김포</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9시30분 에어부산 김포-&gt;김해</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9시5분 에어부산 김포-&gt;김해</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>21시 에어부산 김해-&gt;김포</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -841,7 +819,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -891,9 +869,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1246,7 +1221,7 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:N55"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
@@ -1262,7 +1237,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="35.1" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>43</v>
@@ -1287,91 +1262,91 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A2" s="23"/>
-      <c r="B2" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>58</v>
+      <c r="A2" s="24"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="20" t="s">
+        <v>117</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A3" s="23"/>
-      <c r="B3" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>128</v>
-      </c>
+      <c r="A3" s="24"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>109</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="F3" s="10"/>
       <c r="G3" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>141</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A4" s="23"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+      <c r="D4" s="10" t="s">
+        <v>130</v>
+      </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
-      <c r="H4" s="10" t="s">
-        <v>139</v>
-      </c>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A5" s="23"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="8" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
+        <v>50</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="6" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A6" s="23"/>
-      <c r="B6" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" s="10"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10" t="s">
+        <v>127</v>
+      </c>
       <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
+      <c r="F6" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>136</v>
+      </c>
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:13" ht="50.1" customHeight="1">
@@ -1380,246 +1355,239 @@
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
+      <c r="F7" s="10" t="s">
+        <v>126</v>
+      </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
+      <c r="M7" s="11" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="8" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A8" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A9" s="25"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>83</v>
+      <c r="A8" s="24"/>
+      <c r="B8" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A9" s="24"/>
+      <c r="B9" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A10" s="25"/>
-      <c r="B10" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>137</v>
-      </c>
+      <c r="A10" s="24"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A11" s="25"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A12" s="25"/>
-      <c r="B12" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>53</v>
+      <c r="M10" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A11" s="24"/>
+      <c r="B11" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A12" s="24"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A13" s="25"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
-      <c r="D13" s="10" t="s">
-        <v>135</v>
-      </c>
+      <c r="D13" s="10"/>
       <c r="E13" s="10"/>
-      <c r="F13" s="10" t="s">
-        <v>112</v>
-      </c>
+      <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
-    </row>
-    <row r="14" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A14" s="25"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="M14" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A15" s="25"/>
-      <c r="B15" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="M15" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A16" s="25"/>
+      <c r="M13" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A14" s="24"/>
+      <c r="B14" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A15" s="24"/>
+      <c r="B15" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:13" ht="49.9" customHeight="1">
+      <c r="A16" s="24"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="10" t="s">
-        <v>114</v>
-      </c>
+      <c r="D16" s="10"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="50.1" customHeight="1">
-      <c r="A17" s="25"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="M17" s="4" t="s">
-        <v>77</v>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:14" ht="35.1" customHeight="1">
+      <c r="A17" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="35.1" customHeight="1">
-      <c r="A18" s="25"/>
-      <c r="B18" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="A18" s="21"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
       <c r="G18" s="1" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="M18" s="11" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="50.1" customHeight="1">
-      <c r="A19" s="25"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="10"/>
-      <c r="C19" s="10" t="s">
-        <v>117</v>
-      </c>
+      <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="M19" s="11" t="s">
-        <v>73</v>
-      </c>
+      <c r="G19" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
     </row>
     <row r="20" spans="1:14" ht="50.1" customHeight="1">
-      <c r="A20" s="25"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -1627,32 +1595,33 @@
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
-      <c r="M20" s="4" t="s">
-        <v>81</v>
-      </c>
     </row>
     <row r="21" spans="1:14" ht="35.1" customHeight="1">
-      <c r="A21" s="25"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="8" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
+        <v>50</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="22" spans="1:14" ht="50.1" customHeight="1">
-      <c r="A22" s="25"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -1661,8 +1630,8 @@
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" spans="1:14" ht="49.9" customHeight="1">
-      <c r="A23" s="25"/>
+    <row r="23" spans="1:14" ht="50.1" customHeight="1">
+      <c r="A23" s="22"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
@@ -1672,97 +1641,85 @@
       <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:14" ht="35.1" customHeight="1">
-      <c r="A24" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="35.1" customHeight="1">
+      <c r="A24" s="22"/>
+      <c r="B24" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="50.1" customHeight="1">
       <c r="A25" s="22"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:14" ht="50.1" customHeight="1">
-      <c r="A26" s="23"/>
+      <c r="A26" s="22"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
-      <c r="G26" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-    </row>
-    <row r="27" spans="1:14" ht="50.1" customHeight="1">
-      <c r="A27" s="23"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-    </row>
-    <row r="28" spans="1:14" ht="35.1" customHeight="1">
-      <c r="A28" s="23"/>
-      <c r="B28" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+    </row>
+    <row r="27" spans="1:14" ht="35.1" customHeight="1">
+      <c r="A27" s="22"/>
+      <c r="B27" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="50.1" customHeight="1">
+      <c r="A28" s="22"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
     </row>
     <row r="29" spans="1:14" ht="50.1" customHeight="1">
-      <c r="A29" s="23"/>
+      <c r="A29" s="22"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
@@ -1771,39 +1728,39 @@
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
     </row>
-    <row r="30" spans="1:14" ht="50.1" customHeight="1">
-      <c r="A30" s="23"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-    </row>
-    <row r="31" spans="1:14" ht="35.1" customHeight="1">
-      <c r="A31" s="23"/>
-      <c r="B31" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>55</v>
-      </c>
+    <row r="30" spans="1:14" ht="35.1" customHeight="1">
+      <c r="A30" s="22"/>
+      <c r="B30" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="50.1" customHeight="1">
+      <c r="A31" s="22"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
     </row>
     <row r="32" spans="1:14" ht="50.1" customHeight="1">
       <c r="A32" s="23"/>
@@ -1815,43 +1772,61 @@
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
     </row>
-    <row r="33" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A33" s="23"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-    </row>
-    <row r="34" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A34" s="23"/>
-      <c r="B34" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>84</v>
+    <row r="33" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A33" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A34" s="24"/>
+      <c r="B34" s="17">
+        <v>1</v>
+      </c>
+      <c r="C34" s="18">
+        <v>2</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>100</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>69</v>
+        <v>101</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>119</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A35" s="23"/>
-      <c r="B35" s="10"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A35" s="24"/>
+      <c r="B35" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
@@ -1859,8 +1834,8 @@
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
     </row>
-    <row r="36" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A36" s="23"/>
+    <row r="36" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A36" s="24"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
@@ -1869,41 +1844,45 @@
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
     </row>
-    <row r="37" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A37" s="23"/>
+    <row r="37" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A37" s="24"/>
       <c r="B37" s="8" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A38" s="23"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A38" s="24"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
+      <c r="F38" s="10" t="s">
+        <v>103</v>
+      </c>
       <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-    </row>
-    <row r="39" spans="1:8" ht="50.1" customHeight="1">
+      <c r="H38" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="50.1" customHeight="1">
       <c r="A39" s="24"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -1913,61 +1892,47 @@
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
     </row>
-    <row r="40" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A40" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A41" s="25"/>
-      <c r="B41" s="18">
-        <v>1</v>
-      </c>
-      <c r="C41" s="19">
-        <v>2</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A42" s="25"/>
-      <c r="B42" s="10" t="s">
-        <v>130</v>
-      </c>
+    <row r="40" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A40" s="24"/>
+      <c r="B40" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A41" s="24"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+    </row>
+    <row r="42" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A42" s="24"/>
+      <c r="B42" s="10"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
@@ -1975,214 +1940,107 @@
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
     </row>
-    <row r="43" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A43" s="25"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-    </row>
-    <row r="44" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A44" s="25"/>
-      <c r="B44" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A45" s="25"/>
+    <row r="43" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A43" s="24"/>
+      <c r="B43" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A44" s="24"/>
+      <c r="B44" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+    </row>
+    <row r="45" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A45" s="24"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
-      <c r="F45" s="10" t="s">
-        <v>105</v>
-      </c>
+      <c r="F45" s="10"/>
       <c r="G45" s="10"/>
-      <c r="H45" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A46" s="25"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-    </row>
-    <row r="47" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A47" s="25"/>
-      <c r="B47" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A48" s="25"/>
+      <c r="H45" s="10"/>
+    </row>
+    <row r="46" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A46" s="24"/>
+      <c r="B46" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+    </row>
+    <row r="47" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A47" s="24"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A48" s="24"/>
       <c r="B48" s="10"/>
-      <c r="C48" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>120</v>
-      </c>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-    </row>
-    <row r="49" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A49" s="25"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-    </row>
-    <row r="50" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A50" s="25"/>
-      <c r="B50" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A51" s="25"/>
-      <c r="B51" s="10" t="s">
+      <c r="H48" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-    </row>
-    <row r="52" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A52" s="25"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-    </row>
-    <row r="53" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A53" s="25"/>
-      <c r="B53" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-    </row>
-    <row r="54" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A54" s="25"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="M54" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A55" s="25"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="M55" s="4" t="s">
-        <v>133</v>
+      <c r="M48" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A25:A39"/>
-    <mergeCell ref="A41:A55"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A9:A23"/>
+  <mergeCells count="3">
+    <mergeCell ref="A18:A32"/>
+    <mergeCell ref="A34:A48"/>
+    <mergeCell ref="A2:A16"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2207,11 +2065,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="21" thickBot="1">
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="28"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="2:17">
       <c r="D2" s="4" t="s">
@@ -2467,6 +2325,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F91E044E3A9D84A8197B09587594D86" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a727839579f0816cd156df87ac1abb38">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4b137422-f48a-46a4-80bc-5707d2d59248" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c55dfd8d1a660179b90c490e9dacc3e0" ns3:_="">
     <xsd:import namespace="4b137422-f48a-46a4-80bc-5707d2d59248"/>
@@ -2598,35 +2471,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2648,9 +2496,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FE88F0-D2BF-4515-8A37-5D21A4BEED78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09945B1-C3FD-4729-B457-93B28E321484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="142">
   <si>
     <t>해야할 일</t>
   </si>
@@ -455,10 +455,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>서동권 생일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>13 (생일)</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -554,10 +550,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>저녁 김민경?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>19시 에어부산 김해-&gt;김포</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -590,6 +582,31 @@
   </si>
   <si>
     <t>21시 에어부산 김해-&gt;김포</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁 7시 강남 김민경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서동권 생일
+오전 8시30분 인화원교육 신청</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>헌혈가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3시 헌혈버스 헌혈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나은행 청약 3월 납부완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5시 헤어로맨스 사가정점</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1223,7 +1240,9 @@
   </sheetPr>
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
@@ -1266,7 +1285,7 @@
       <c r="B2" s="13"/>
       <c r="C2" s="14"/>
       <c r="D2" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>82</v>
@@ -1286,26 +1305,30 @@
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="H3" s="10"/>
+        <v>131</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="4" spans="1:13" ht="50.1" customHeight="1">
       <c r="A4" s="24"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
+      <c r="F4" s="10" t="s">
+        <v>136</v>
+      </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
     </row>
@@ -1321,7 +1344,7 @@
         <v>51</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>66</v>
@@ -1338,14 +1361,14 @@
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H6" s="10"/>
     </row>
@@ -1356,7 +1379,7 @@
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -1367,7 +1390,7 @@
     <row r="8" spans="1:13" ht="35.1" customHeight="1">
       <c r="A8" s="24"/>
       <c r="B8" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>70</v>
@@ -1394,21 +1417,21 @@
     <row r="9" spans="1:13" ht="50.1" customHeight="1">
       <c r="A9" s="24"/>
       <c r="B9" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="G9" s="10" t="s">
-        <v>110</v>
-      </c>
       <c r="H9" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>76</v>
@@ -1458,16 +1481,16 @@
       <c r="A12" s="24"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M12" s="11" t="s">
         <v>73</v>
@@ -1480,7 +1503,9 @@
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
+      <c r="G13" s="10" t="s">
+        <v>140</v>
+      </c>
       <c r="H13" s="10"/>
       <c r="M13" s="4" t="s">
         <v>81</v>
@@ -1509,14 +1534,14 @@
     <row r="15" spans="1:13" ht="50.1" customHeight="1">
       <c r="A15" s="24"/>
       <c r="B15" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H15" s="10"/>
     </row>
@@ -1578,7 +1603,7 @@
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H19" s="10" t="s">
         <v>105</v>
@@ -1757,7 +1782,9 @@
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
+      <c r="E31" s="10" t="s">
+        <v>138</v>
+      </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
@@ -1813,7 +1840,7 @@
         <v>101</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>49</v>
@@ -1825,7 +1852,7 @@
     <row r="35" spans="1:13" ht="50.1" customHeight="1">
       <c r="A35" s="24"/>
       <c r="B35" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
@@ -1847,7 +1874,7 @@
     <row r="37" spans="1:13" ht="35.1" customHeight="1">
       <c r="A37" s="24"/>
       <c r="B37" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>68</v>
@@ -1920,10 +1947,10 @@
       <c r="A41" s="24"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D41" s="10" t="s">
         <v>113</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>114</v>
       </c>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -1967,12 +1994,12 @@
     <row r="44" spans="1:13" ht="50.1" customHeight="1">
       <c r="A44" s="24"/>
       <c r="B44" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
@@ -2010,7 +2037,7 @@
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
       <c r="E47" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
@@ -2018,7 +2045,7 @@
         <v>92</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="50.1" customHeight="1">
@@ -2030,10 +2057,10 @@
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2325,21 +2352,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F91E044E3A9D84A8197B09587594D86" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a727839579f0816cd156df87ac1abb38">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4b137422-f48a-46a4-80bc-5707d2d59248" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c55dfd8d1a660179b90c490e9dacc3e0" ns3:_="">
     <xsd:import namespace="4b137422-f48a-46a4-80bc-5707d2d59248"/>
@@ -2471,10 +2483,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2496,19 +2533,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09945B1-C3FD-4729-B457-93B28E321484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25269D89-9EA7-4461-8040-30D4F8DC9940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -585,10 +585,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>저녁 7시 강남 김민경</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>서동권 생일
 오전 8시30분 인화원교육 신청</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -606,7 +602,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>5시 헤어로맨스 사가정점</t>
+    <t>1시 청년미장원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁 7시30분 강남역 김민경</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1241,7 +1241,7 @@
   <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1308,15 +1308,15 @@
         <v>129</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F3" s="10"/>
+        <v>138</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>140</v>
+      </c>
       <c r="G3" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>141</v>
-      </c>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:13" ht="50.1" customHeight="1">
       <c r="A4" s="24"/>
@@ -1327,7 +1327,7 @@
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>134</v>
@@ -1504,7 +1504,7 @@
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H13" s="10"/>
       <c r="M13" s="4" t="s">
@@ -1783,7 +1783,7 @@
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
@@ -2352,6 +2352,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F91E044E3A9D84A8197B09587594D86" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a727839579f0816cd156df87ac1abb38">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4b137422-f48a-46a4-80bc-5707d2d59248" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c55dfd8d1a660179b90c490e9dacc3e0" ns3:_="">
     <xsd:import namespace="4b137422-f48a-46a4-80bc-5707d2d59248"/>
@@ -2483,35 +2498,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2533,9 +2523,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25269D89-9EA7-4461-8040-30D4F8DC9940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72239CA-F45F-49CA-93EE-DCE268F88C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="135">
   <si>
     <t>해야할 일</t>
   </si>
@@ -356,10 +356,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>5</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -493,10 +489,6 @@
   </si>
   <si>
     <t>이상아 생일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 (삼일절)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -550,25 +542,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>19시 에어부산 김해-&gt;김포</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>고대치기공, 지산고 회비 입금
-기장 클라임타워 카페</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>과학기술인으뜸적금 가입하기
 50만원. 0.3% 청년우대 확인
 IRP도 25만..?</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>저녁 김창훈 책임님, 김도영?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>7시30분 에어부산 김해-&gt;김포</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -578,10 +557,6 @@
   </si>
   <si>
     <t>9시5분 에어부산 김포-&gt;김해</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>21시 에어부산 김해-&gt;김포</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -594,19 +569,16 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3시 헌혈버스 헌혈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>하나은행 청약 3월 납부완료</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1시 청년미장원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>저녁 7시30분 강남역 김민경</t>
+    <t>저녁 루체브릿지?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심 김경회, 이재관?
+21시 에어부산 김해-&gt;김포</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -836,7 +808,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -895,9 +867,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1238,11 +1207,9 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:N48"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
@@ -1254,9 +1221,9 @@
     <col min="15" max="16384" width="8.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="35.1" customHeight="1">
+    <row r="1" spans="1:14" ht="35.1" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>43</v>
@@ -1280,339 +1247,321 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A2" s="24"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>82</v>
+    <row r="2" spans="1:14" ht="35.1" customHeight="1">
+      <c r="A2" s="23"/>
+      <c r="B2" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>115</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A3" s="24"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="50.1" customHeight="1">
+      <c r="A3" s="23"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>131</v>
-      </c>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A4" s="24"/>
+    <row r="4" spans="1:14" ht="50.1" customHeight="1">
+      <c r="A4" s="23"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
-      <c r="D4" s="10" t="s">
-        <v>128</v>
-      </c>
+      <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
     </row>
-    <row r="5" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A5" s="24"/>
+    <row r="5" spans="1:14" ht="35.1" customHeight="1">
+      <c r="A5" s="23"/>
       <c r="B5" s="8" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>117</v>
+        <v>67</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A6" s="24"/>
-      <c r="B6" s="10"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="50.1" customHeight="1">
+      <c r="A6" s="23"/>
+      <c r="B6" s="10" t="s">
+        <v>127</v>
+      </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A7" s="24"/>
+        <v>108</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="50.1" customHeight="1">
+      <c r="A7" s="23"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
-      <c r="F7" s="10" t="s">
-        <v>125</v>
-      </c>
+      <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
-      <c r="M7" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A8" s="24"/>
+    </row>
+    <row r="8" spans="1:14" ht="35.1" customHeight="1">
+      <c r="A8" s="23"/>
       <c r="B8" s="8" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="M8" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A9" s="24"/>
-      <c r="B9" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10" t="s">
-        <v>107</v>
-      </c>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="50.1" customHeight="1">
+      <c r="A9" s="23"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="10"/>
       <c r="E9" s="10"/>
-      <c r="F9" s="10" t="s">
-        <v>108</v>
-      </c>
+      <c r="F9" s="10"/>
       <c r="G9" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A10" s="24"/>
+        <v>128</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="50.1" customHeight="1">
+      <c r="A10" s="23"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
+      <c r="G10" s="10" t="s">
+        <v>132</v>
+      </c>
       <c r="H10" s="10"/>
-      <c r="M10" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A11" s="24"/>
+    </row>
+    <row r="11" spans="1:14" ht="35.1" customHeight="1">
+      <c r="A11" s="23"/>
       <c r="B11" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A12" s="24"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10" t="s">
-        <v>110</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:14" ht="50.1" customHeight="1">
+      <c r="A12" s="23"/>
+      <c r="B12" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="M12" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A13" s="24"/>
+        <v>126</v>
+      </c>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:14" ht="49.9" customHeight="1">
+      <c r="A13" s="23"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
-      <c r="G13" s="10" t="s">
-        <v>139</v>
-      </c>
+      <c r="G13" s="10"/>
       <c r="H13" s="10"/>
-      <c r="M13" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A14" s="24"/>
-      <c r="B14" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A15" s="24"/>
-      <c r="B15" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="1:13" ht="49.9" customHeight="1">
-      <c r="A16" s="24"/>
+    </row>
+    <row r="14" spans="1:14" ht="35.1" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="35.1" customHeight="1">
+      <c r="A15" s="20"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="50.1" customHeight="1">
+      <c r="A16" s="21"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="1:14" ht="35.1" customHeight="1">
-      <c r="A17" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="35.1" customHeight="1">
+      <c r="G16" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="M16" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="N16" s="11"/>
+    </row>
+    <row r="17" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A17" s="21"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="M17" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="35.1" customHeight="1">
       <c r="A18" s="21"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
+      <c r="B18" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="G18" s="1" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="50.1" customHeight="1">
-      <c r="A19" s="22"/>
+        <v>68</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A19" s="21"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
-      <c r="G19" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-    </row>
-    <row r="20" spans="1:14" ht="50.1" customHeight="1">
-      <c r="A20" s="22"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="M19" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A20" s="21"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -1620,43 +1569,54 @@
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
-    </row>
-    <row r="21" spans="1:14" ht="35.1" customHeight="1">
-      <c r="A21" s="22"/>
+      <c r="M20" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A21" s="21"/>
       <c r="B21" s="8" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="50.1" customHeight="1">
-      <c r="A22" s="22"/>
+        <v>55</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A22" s="21"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
+      <c r="G22" s="10" t="s">
+        <v>133</v>
+      </c>
       <c r="H22" s="10"/>
-    </row>
-    <row r="23" spans="1:14" ht="50.1" customHeight="1">
-      <c r="A23" s="22"/>
+      <c r="M22" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A23" s="21"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
@@ -1665,32 +1625,32 @@
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
     </row>
-    <row r="24" spans="1:14" ht="35.1" customHeight="1">
-      <c r="A24" s="22"/>
+    <row r="24" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A24" s="21"/>
       <c r="B24" s="8" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="50.1" customHeight="1">
-      <c r="A25" s="22"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A25" s="21"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -1699,8 +1659,8 @@
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
     </row>
-    <row r="26" spans="1:14" ht="50.1" customHeight="1">
-      <c r="A26" s="22"/>
+    <row r="26" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A26" s="21"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -1709,41 +1669,43 @@
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
     </row>
-    <row r="27" spans="1:14" ht="35.1" customHeight="1">
-      <c r="A27" s="22"/>
+    <row r="27" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A27" s="21"/>
       <c r="B27" s="8" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="50.1" customHeight="1">
-      <c r="A28" s="22"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A28" s="21"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
+      <c r="E28" s="10" t="s">
+        <v>131</v>
+      </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
     </row>
-    <row r="29" spans="1:14" ht="50.1" customHeight="1">
+    <row r="29" spans="1:13" ht="50.1" customHeight="1">
       <c r="A29" s="22"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -1753,45 +1715,61 @@
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
     </row>
-    <row r="30" spans="1:14" ht="35.1" customHeight="1">
-      <c r="A30" s="22"/>
-      <c r="B30" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="50.1" customHeight="1">
-      <c r="A31" s="22"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-    </row>
-    <row r="32" spans="1:14" ht="50.1" customHeight="1">
+    <row r="30" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A30" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A31" s="23"/>
+      <c r="B31" s="17">
+        <v>1</v>
+      </c>
+      <c r="C31" s="18">
+        <v>2</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="50.1" customHeight="1">
       <c r="A32" s="23"/>
-      <c r="B32" s="10"/>
+      <c r="B32" s="10" t="s">
+        <v>119</v>
+      </c>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
@@ -1799,70 +1777,56 @@
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
     </row>
-    <row r="33" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A33" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>48</v>
-      </c>
+    <row r="33" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A33" s="23"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
     </row>
     <row r="34" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A34" s="24"/>
-      <c r="B34" s="17">
-        <v>1</v>
-      </c>
-      <c r="C34" s="18">
-        <v>2</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>100</v>
+      <c r="A34" s="23"/>
+      <c r="B34" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>118</v>
+        <v>52</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A35" s="24"/>
-      <c r="B35" s="10" t="s">
-        <v>121</v>
-      </c>
+      <c r="A35" s="23"/>
+      <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
+      <c r="F35" s="10" t="s">
+        <v>102</v>
+      </c>
       <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
+      <c r="H35" s="10" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="36" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A36" s="24"/>
+      <c r="A36" s="23"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
@@ -1872,45 +1836,45 @@
       <c r="H36" s="10"/>
     </row>
     <row r="37" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A37" s="24"/>
+      <c r="A37" s="23"/>
       <c r="B37" s="8" t="s">
-        <v>119</v>
+        <v>67</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A38" s="24"/>
+      <c r="A38" s="23"/>
       <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
+      <c r="C38" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="E38" s="10"/>
-      <c r="F38" s="10" t="s">
-        <v>103</v>
-      </c>
+      <c r="F38" s="10"/>
       <c r="G38" s="10"/>
-      <c r="H38" s="10" t="s">
-        <v>104</v>
-      </c>
+      <c r="H38" s="10"/>
     </row>
     <row r="39" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A39" s="24"/>
+      <c r="A39" s="23"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
@@ -1920,45 +1884,45 @@
       <c r="H39" s="10"/>
     </row>
     <row r="40" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A40" s="24"/>
+      <c r="A40" s="23"/>
       <c r="B40" s="8" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A41" s="24"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D41" s="10" t="s">
+      <c r="A41" s="23"/>
+      <c r="B41" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="E41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10" t="s">
+        <v>114</v>
+      </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
     </row>
     <row r="42" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A42" s="24"/>
+      <c r="A42" s="23"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
@@ -1968,106 +1932,58 @@
       <c r="H42" s="10"/>
     </row>
     <row r="43" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A43" s="24"/>
+      <c r="A43" s="23"/>
       <c r="B43" s="8" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>88</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
     </row>
     <row r="44" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A44" s="24"/>
-      <c r="B44" s="10" t="s">
-        <v>114</v>
-      </c>
+      <c r="A44" s="23"/>
+      <c r="B44" s="10"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
+      <c r="H44" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="45" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A45" s="24"/>
+      <c r="A45" s="23"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-    </row>
-    <row r="46" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A46" s="24"/>
-      <c r="B46" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-    </row>
-    <row r="47" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A47" s="24"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="M47" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A48" s="24"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="M48" s="4" t="s">
-        <v>124</v>
+      <c r="H45" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A18:A32"/>
-    <mergeCell ref="A34:A48"/>
-    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="A15:A29"/>
+    <mergeCell ref="A31:A45"/>
+    <mergeCell ref="A2:A13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2092,11 +2008,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="21" thickBot="1">
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="27"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="2:17">
       <c r="D2" s="4" t="s">
@@ -2352,21 +2268,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F91E044E3A9D84A8197B09587594D86" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a727839579f0816cd156df87ac1abb38">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4b137422-f48a-46a4-80bc-5707d2d59248" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c55dfd8d1a660179b90c490e9dacc3e0" ns3:_="">
     <xsd:import namespace="4b137422-f48a-46a4-80bc-5707d2d59248"/>
@@ -2498,10 +2399,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2523,19 +2449,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72239CA-F45F-49CA-93EE-DCE268F88C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB793FA-FE33-429A-8156-D2F153DAC217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="330" yWindow="1740" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="일정" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="136">
   <si>
     <t>해야할 일</t>
   </si>
@@ -579,6 +579,10 @@
   <si>
     <t>점심 김경회, 이재관?
 21시 에어부산 김해-&gt;김포</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁 류재열?</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1351,7 +1355,9 @@
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
+      <c r="H7" s="10" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="8" spans="1:14" ht="35.1" customHeight="1">
       <c r="A8" s="23"/>

--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB793FA-FE33-429A-8156-D2F153DAC217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F60D089-2B51-4567-854E-C9E2CE64E56C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="1740" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="일정" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="138">
   <si>
     <t>해야할 일</t>
   </si>
@@ -532,11 +532,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>이현규 생일
-5시 이유진, 최상희, 김효영</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>3시 COS Pro 1급
 신촌로113 YBM신촌CBT센터</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -583,6 +578,19 @@
   </si>
   <si>
     <t>저녁 류재열?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>손정엽 결혼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이현규 생일
+6시 공덕 이유진,최상희,김효영</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심 해운대암소갈비집</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1213,7 +1221,9 @@
   </sheetPr>
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
@@ -1280,16 +1290,18 @@
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="H3" s="10"/>
+        <v>128</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="4" spans="1:14" ht="50.1" customHeight="1">
       <c r="A4" s="23"/>
@@ -1330,7 +1342,7 @@
     <row r="6" spans="1:14" ht="50.1" customHeight="1">
       <c r="A6" s="23"/>
       <c r="B6" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10" t="s">
@@ -1344,7 +1356,7 @@
         <v>108</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="50.1" customHeight="1">
@@ -1356,7 +1368,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="35.1" customHeight="1">
@@ -1393,7 +1405,7 @@
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H9" s="19" t="s">
         <v>110</v>
@@ -1407,9 +1419,11 @@
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="H10" s="10"/>
+        <v>131</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="11" spans="1:14" ht="35.1" customHeight="1">
       <c r="A11" s="23"/>
@@ -1434,14 +1448,14 @@
     <row r="12" spans="1:14" ht="50.1" customHeight="1">
       <c r="A12" s="23"/>
       <c r="B12" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H12" s="10"/>
     </row>
@@ -1614,7 +1628,7 @@
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H22" s="10"/>
       <c r="M22" s="4" t="s">
@@ -1705,7 +1719,7 @@
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>

--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F60D089-2B51-4567-854E-C9E2CE64E56C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C632809D-3382-4DE8-88F0-5FF6EF17A24A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="140">
   <si>
     <t>해야할 일</t>
   </si>
@@ -585,12 +585,22 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>점심 해운대암소갈비집</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>이현규 생일
-6시 공덕 이유진,최상희,김효영</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>점심 해운대암소갈비집</t>
+6시 공덕 이유진, 최상희,
+김효영, 김진혜, 이안제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아침 공덕 양지설렁탕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공덕 계고기 - 김효영집
+마포웰츠타워 102동 2001호</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1222,7 +1232,7 @@
   <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1290,9 +1300,11 @@
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" s="10"/>
+        <v>137</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>138</v>
+      </c>
       <c r="F3" s="10" t="s">
         <v>129</v>
       </c>
@@ -1300,14 +1312,16 @@
         <v>128</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="50.1" customHeight="1">
       <c r="A4" s="23"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+      <c r="D4" s="10" t="s">
+        <v>139</v>
+      </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10" t="s">
         <v>123</v>

--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C632809D-3382-4DE8-88F0-5FF6EF17A24A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCB9579-E434-46AA-9E60-3FD8C630B4A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="130">
   <si>
     <t>해야할 일</t>
   </si>
@@ -451,27 +451,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>13 (생일)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>정보혜 생일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>박진열 생일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>안이레 생일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>왕건 생일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이현정 생일</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -492,10 +472,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>9 (대통령 선거)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>5 (어린이날)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -523,17 +499,6 @@
   </si>
   <si>
     <t>8/10 휴대폰 선택약정 신청</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>오전 10시~ TCT COS Pro
-개발언어 신청
-3/25, 4/14 맨 앞 2개 신청하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3시 COS Pro 1급
-신촌로113 YBM신촌CBT센터</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -543,64 +508,57 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>7시30분 에어부산 김해-&gt;김포</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>9시30분 에어부산 김포-&gt;김해</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>9시5분 에어부산 김포-&gt;김해</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>서동권 생일
-오전 8시30분 인화원교육 신청</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>헌혈가능</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>하나은행 청약 3월 납부완료</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>저녁 루체브릿지?</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>점심 김경회, 이재관?
+    <t>손정엽 결혼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15시~ TCT 개발언어 시험</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10시~ TCT 개발언어 시험</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인화원 MVP교육</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>웨스턴 조선호텔 부산 셔블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11시30분 
+웨스턴 조선호텔 셔블 예약
+7월 2일 점심</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁 DMC역
+김건우, 이승근, 이소은</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심 김경회, 이재관
 21시 에어부산 김해-&gt;김포</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>저녁 류재열?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>손정엽 결혼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>점심 해운대암소갈비집</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이현규 생일
-6시 공덕 이유진, 최상희,
-김효영, 김진혜, 이안제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>아침 공덕 양지설렁탕</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공덕 계고기 - 김효영집
-마포웰츠타워 102동 2001호</t>
+    <t>이현정 생일
+점심 암소갈비 - 셔블 -
+신세계백화점</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1229,11 +1187,9 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:N45"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
@@ -1274,106 +1230,94 @@
     <row r="2" spans="1:14" ht="35.1" customHeight="1">
       <c r="A2" s="23"/>
       <c r="B2" s="8" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>115</v>
+        <v>58</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="50.1" customHeight="1">
       <c r="A3" s="23"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>138</v>
-      </c>
+      <c r="B3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
       <c r="F3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="H3" s="19" t="s">
         <v>129</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="50.1" customHeight="1">
       <c r="A4" s="23"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
-      <c r="D4" s="10" t="s">
-        <v>139</v>
-      </c>
+      <c r="D4" s="10"/>
       <c r="E4" s="10"/>
-      <c r="F4" s="10" t="s">
-        <v>123</v>
-      </c>
+      <c r="F4" s="10"/>
       <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
+      <c r="H4" s="10" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="5" spans="1:14" ht="35.1" customHeight="1">
       <c r="A5" s="23"/>
       <c r="B5" s="8" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>83</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
     </row>
     <row r="6" spans="1:14" ht="50.1" customHeight="1">
       <c r="A6" s="23"/>
       <c r="B6" s="10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="10" t="s">
-        <v>106</v>
-      </c>
+      <c r="D6" s="10"/>
       <c r="E6" s="10"/>
-      <c r="F6" s="10" t="s">
-        <v>107</v>
-      </c>
+      <c r="F6" s="10"/>
       <c r="G6" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="50.1" customHeight="1">
+        <v>117</v>
+      </c>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:14" ht="49.9" customHeight="1">
       <c r="A7" s="23"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -1381,100 +1325,110 @@
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
-      <c r="H7" s="10" t="s">
-        <v>134</v>
-      </c>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:14" ht="35.1" customHeight="1">
-      <c r="A8" s="23"/>
-      <c r="B8" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="50.1" customHeight="1">
-      <c r="A9" s="23"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>110</v>
+      <c r="A8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="35.1" customHeight="1">
+      <c r="A9" s="20"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="50.1" customHeight="1">
-      <c r="A10" s="23"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="35.1" customHeight="1">
-      <c r="A11" s="23"/>
-      <c r="B11" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:14" ht="50.1" customHeight="1">
-      <c r="A12" s="23"/>
-      <c r="B12" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="1:14" ht="49.9" customHeight="1">
-      <c r="A13" s="23"/>
+        <v>104</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="N10" s="11"/>
+    </row>
+    <row r="11" spans="1:14" ht="50.1" customHeight="1">
+      <c r="A11" s="21"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="M11" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="35.1" customHeight="1">
+      <c r="A12" s="21"/>
+      <c r="B12" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="50.1" customHeight="1">
+      <c r="A13" s="21"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -1482,45 +1436,48 @@
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
-    </row>
-    <row r="14" spans="1:14" ht="35.1" customHeight="1">
-      <c r="A14" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>48</v>
+      <c r="M13" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="50.1" customHeight="1">
+      <c r="A14" s="21"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="M14" s="11" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="35.1" customHeight="1">
-      <c r="A15" s="20"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="G15" s="1" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>93</v>
+        <v>55</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="50.1" customHeight="1">
@@ -1529,19 +1486,18 @@
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
+      <c r="F16" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="G16" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="H16" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="M16" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="N16" s="11"/>
-    </row>
-    <row r="17" spans="1:13" ht="50.1" customHeight="1">
+      <c r="H16" s="10"/>
+      <c r="M16" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="50.1" customHeight="1">
       <c r="A17" s="21"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -1550,51 +1506,46 @@
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
-      <c r="M17" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="35.1" customHeight="1">
+    </row>
+    <row r="18" spans="1:8" ht="35.1" customHeight="1">
       <c r="A18" s="21"/>
       <c r="B18" s="8" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="50.1" customHeight="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="50.1" customHeight="1">
       <c r="A19" s="21"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
+      <c r="E19" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>124</v>
+      </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
-      <c r="M19" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="50.1" customHeight="1">
+    </row>
+    <row r="20" spans="1:8" ht="50.1" customHeight="1">
       <c r="A20" s="21"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -1603,54 +1554,47 @@
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
-      <c r="M20" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="35.1" customHeight="1">
+    </row>
+    <row r="21" spans="1:8" ht="35.1" customHeight="1">
       <c r="A21" s="21"/>
       <c r="B21" s="8" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M21" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="50.1" customHeight="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="50.1" customHeight="1">
       <c r="A22" s="21"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10" t="s">
-        <v>132</v>
-      </c>
+      <c r="E22" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="G22" s="10"/>
       <c r="H22" s="10"/>
-      <c r="M22" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A23" s="21"/>
+    </row>
+    <row r="23" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A23" s="22"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
@@ -1659,43 +1603,61 @@
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
     </row>
-    <row r="24" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A24" s="21"/>
-      <c r="B24" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A25" s="21"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-    </row>
-    <row r="26" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A26" s="21"/>
-      <c r="B26" s="10"/>
+    <row r="24" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A24" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A25" s="23"/>
+      <c r="B25" s="17">
+        <v>1</v>
+      </c>
+      <c r="C25" s="18">
+        <v>2</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A26" s="23"/>
+      <c r="B26" s="10" t="s">
+        <v>113</v>
+      </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
@@ -1703,109 +1665,97 @@
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
     </row>
-    <row r="27" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A27" s="21"/>
-      <c r="B27" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A28" s="21"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-    </row>
-    <row r="29" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A29" s="22"/>
+    <row r="27" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A27" s="23"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+    </row>
+    <row r="28" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A28" s="23"/>
+      <c r="B28" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A29" s="23"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
+      <c r="F29" s="10" t="s">
+        <v>102</v>
+      </c>
       <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-    </row>
-    <row r="30" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A30" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="35.1" customHeight="1">
+      <c r="H29" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A30" s="23"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+    </row>
+    <row r="31" spans="1:8" ht="35.1" customHeight="1">
       <c r="A31" s="23"/>
-      <c r="B31" s="17">
-        <v>1</v>
-      </c>
-      <c r="C31" s="18">
-        <v>2</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>99</v>
+      <c r="B31" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>116</v>
+        <v>57</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="50.1" customHeight="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="50.1" customHeight="1">
       <c r="A32" s="23"/>
-      <c r="B32" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>107</v>
+      </c>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
@@ -1824,47 +1774,49 @@
     <row r="34" spans="1:13" ht="35.1" customHeight="1">
       <c r="A34" s="23"/>
       <c r="B34" s="8" t="s">
-        <v>117</v>
+        <v>58</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="50.1" customHeight="1">
       <c r="A35" s="23"/>
-      <c r="B35" s="10"/>
+      <c r="B35" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10" t="s">
-        <v>102</v>
-      </c>
+      <c r="E35" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F35" s="10"/>
       <c r="G35" s="10"/>
-      <c r="H35" s="10" t="s">
-        <v>103</v>
-      </c>
+      <c r="H35" s="10"/>
     </row>
     <row r="36" spans="1:13" ht="50.1" customHeight="1">
       <c r="A36" s="23"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
+      <c r="E36" s="10" t="s">
+        <v>124</v>
+      </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
@@ -1872,40 +1824,35 @@
     <row r="37" spans="1:13" ht="35.1" customHeight="1">
       <c r="A37" s="23"/>
       <c r="B37" s="8" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>69</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
     </row>
     <row r="38" spans="1:13" ht="50.1" customHeight="1">
       <c r="A38" s="23"/>
       <c r="B38" s="10"/>
-      <c r="C38" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="E38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10" t="s">
+        <v>113</v>
+      </c>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
+      <c r="H38" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="39" spans="1:13" ht="50.1" customHeight="1">
       <c r="A39" s="23"/>
@@ -1915,109 +1862,18 @@
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-    </row>
-    <row r="40" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A40" s="23"/>
-      <c r="B40" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A41" s="23"/>
-      <c r="B41" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-    </row>
-    <row r="42" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A42" s="23"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-    </row>
-    <row r="43" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A43" s="23"/>
-      <c r="B43" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-    </row>
-    <row r="44" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A44" s="23"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="M44" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A45" s="23"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="M45" s="4" t="s">
-        <v>122</v>
+      <c r="H39" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A15:A29"/>
-    <mergeCell ref="A31:A45"/>
-    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="A9:A23"/>
+    <mergeCell ref="A25:A39"/>
+    <mergeCell ref="A2:A7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2302,6 +2158,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F91E044E3A9D84A8197B09587594D86" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a727839579f0816cd156df87ac1abb38">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4b137422-f48a-46a4-80bc-5707d2d59248" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c55dfd8d1a660179b90c490e9dacc3e0" ns3:_="">
     <xsd:import namespace="4b137422-f48a-46a4-80bc-5707d2d59248"/>
@@ -2433,35 +2304,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2483,9 +2329,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCB9579-E434-46AA-9E60-3FD8C630B4A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D14E76A-7673-4A3C-9D45-323496E68434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -540,12 +540,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>11시30분 
-웨스턴 조선호텔 셔블 예약
-7월 2일 점심</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>저녁 DMC역
 김건우, 이승근, 이소은</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -559,6 +553,12 @@
     <t>이현정 생일
 점심 암소갈비 - 셔블 -
 신세계백화점</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11시30분 
+웨스턴 조선호텔 셔블 예약
+7월 2일 저녁</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1262,13 +1262,13 @@
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>118</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="50.1" customHeight="1">
@@ -1306,7 +1306,7 @@
     <row r="6" spans="1:14" ht="50.1" customHeight="1">
       <c r="A6" s="23"/>
       <c r="B6" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -1393,7 +1393,7 @@
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H11" s="10"/>
       <c r="M11" s="11" t="s">
@@ -2158,21 +2158,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F91E044E3A9D84A8197B09587594D86" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a727839579f0816cd156df87ac1abb38">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4b137422-f48a-46a4-80bc-5707d2d59248" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c55dfd8d1a660179b90c490e9dacc3e0" ns3:_="">
     <xsd:import namespace="4b137422-f48a-46a4-80bc-5707d2d59248"/>
@@ -2304,10 +2289,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2329,19 +2339,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D14E76A-7673-4A3C-9D45-323496E68434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B8851B-D941-4329-8C3F-C003E7011F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="131">
   <si>
     <t>해야할 일</t>
   </si>
@@ -520,10 +520,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>손정엽 결혼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>15시~ TCT 개발언어 시험</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -537,11 +533,6 @@
   </si>
   <si>
     <t>웨스턴 조선호텔 부산 셔블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>저녁 DMC역
-김건우, 이승근, 이소은</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -559,6 +550,21 @@
     <t>11시30분 
 웨스턴 조선호텔 셔블 예약
 7월 2일 저녁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7월 미구위 박한솔생일 3만원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁 7시 DMC역
+김건우, 이승근, 이소은</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2시 손정엽 결혼 더펄웨딩홀
+2시 마경도 선임 결혼
+보테가마지오 지하2층</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1254,7 +1260,7 @@
     <row r="3" spans="1:14" ht="50.1" customHeight="1">
       <c r="A3" s="23"/>
       <c r="B3" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>105</v>
@@ -1262,13 +1268,13 @@
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>118</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="50.1" customHeight="1">
@@ -1280,7 +1286,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="35.1" customHeight="1">
@@ -1306,15 +1312,13 @@
     <row r="6" spans="1:14" ht="50.1" customHeight="1">
       <c r="A6" s="23"/>
       <c r="B6" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="10" t="s">
-        <v>117</v>
-      </c>
+      <c r="G6" s="10"/>
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:14" ht="49.9" customHeight="1">
@@ -1373,7 +1377,9 @@
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+      <c r="F10" s="10" t="s">
+        <v>117</v>
+      </c>
       <c r="G10" s="10" t="s">
         <v>114</v>
       </c>
@@ -1393,7 +1399,7 @@
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H11" s="10"/>
       <c r="M11" s="11" t="s">
@@ -1487,7 +1493,7 @@
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>120</v>
@@ -1537,10 +1543,10 @@
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
@@ -1588,7 +1594,7 @@
         <v>119</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
@@ -1815,7 +1821,7 @@
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
       <c r="E36" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
@@ -1836,6 +1842,9 @@
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
+      <c r="M37" s="4" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="38" spans="1:13" ht="50.1" customHeight="1">
       <c r="A38" s="23"/>

--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B8851B-D941-4329-8C3F-C003E7011F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5EA9900-A2E1-4FF4-988F-1D0FFBE72ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="137">
   <si>
     <t>해야할 일</t>
   </si>
@@ -494,10 +494,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>6/10 서윤식 DAP 강의개설공지?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>8/10 휴대폰 선택약정 신청</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -557,14 +553,44 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>저녁 7시 DMC역
-김건우, 이승근, 이소은</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2시 손정엽 결혼 더펄웨딩홀
 2시 마경도 선임 결혼
 보테가마지오 지하2층</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6/10 서윤식
+DAP 강의개설공지?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁 7시 DMC역
+김건우, 이승근
+새벽돼지 - 이자카야..</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCT - 주스킬</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1193,9 +1219,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:N90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
@@ -1260,7 +1288,7 @@
     <row r="3" spans="1:14" ht="50.1" customHeight="1">
       <c r="A3" s="23"/>
       <c r="B3" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>105</v>
@@ -1268,13 +1296,13 @@
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="50.1" customHeight="1">
@@ -1286,7 +1314,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="35.1" customHeight="1">
@@ -1312,7 +1340,7 @@
     <row r="6" spans="1:14" ht="50.1" customHeight="1">
       <c r="A6" s="23"/>
       <c r="B6" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -1378,7 +1406,7 @@
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>114</v>
@@ -1399,7 +1427,7 @@
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H11" s="10"/>
       <c r="M11" s="11" t="s">
@@ -1493,10 +1521,10 @@
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H16" s="10"/>
       <c r="M16" s="4" t="s">
@@ -1543,10 +1571,10 @@
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
@@ -1591,10 +1619,10 @@
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
@@ -1767,7 +1795,7 @@
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
     </row>
-    <row r="33" spans="1:13" ht="50.1" customHeight="1">
+    <row r="33" spans="1:8" ht="50.1" customHeight="1">
       <c r="A33" s="23"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -1777,7 +1805,7 @@
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
     </row>
-    <row r="34" spans="1:13" ht="35.1" customHeight="1">
+    <row r="34" spans="1:8" ht="35.1" customHeight="1">
       <c r="A34" s="23"/>
       <c r="B34" s="8" t="s">
         <v>58</v>
@@ -1801,7 +1829,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="50.1" customHeight="1">
+    <row r="35" spans="1:8" ht="50.1" customHeight="1">
       <c r="A35" s="23"/>
       <c r="B35" s="10" t="s">
         <v>108</v>
@@ -1815,19 +1843,19 @@
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
     </row>
-    <row r="36" spans="1:13" ht="50.1" customHeight="1">
+    <row r="36" spans="1:8" ht="50.1" customHeight="1">
       <c r="A36" s="23"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
       <c r="E36" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
     </row>
-    <row r="37" spans="1:13" ht="35.1" customHeight="1">
+    <row r="37" spans="1:8" ht="35.1" customHeight="1">
       <c r="A37" s="23"/>
       <c r="B37" s="8" t="s">
         <v>90</v>
@@ -1842,11 +1870,8 @@
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
-      <c r="M37" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="50.1" customHeight="1">
+    </row>
+    <row r="38" spans="1:8" ht="50.1" customHeight="1">
       <c r="A38" s="23"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -1859,11 +1884,8 @@
       <c r="H38" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="M38" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="50.1" customHeight="1">
+    </row>
+    <row r="39" spans="1:8" ht="50.1" customHeight="1">
       <c r="A39" s="23"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -1874,15 +1896,767 @@
       <c r="H39" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="M39" s="4" t="s">
-        <v>116</v>
-      </c>
+    </row>
+    <row r="40" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A40" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A41" s="20"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A42" s="21"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+    </row>
+    <row r="43" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A43" s="21"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+    </row>
+    <row r="44" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A44" s="21"/>
+      <c r="B44" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A45" s="21"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="H45" s="10"/>
+    </row>
+    <row r="46" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A46" s="21"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+    </row>
+    <row r="47" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A47" s="21"/>
+      <c r="B47" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A48" s="21"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+    </row>
+    <row r="49" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A49" s="21"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+    </row>
+    <row r="50" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A50" s="21"/>
+      <c r="B50" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A51" s="21"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+    </row>
+    <row r="52" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A52" s="21"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+    </row>
+    <row r="53" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A53" s="21"/>
+      <c r="B53" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+    </row>
+    <row r="54" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A54" s="21"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+    </row>
+    <row r="55" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A55" s="22"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+    </row>
+    <row r="56" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A56" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A57" s="23"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A58" s="23"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+    </row>
+    <row r="59" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A59" s="23"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+    </row>
+    <row r="60" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A60" s="23"/>
+      <c r="B60" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A61" s="23"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+    </row>
+    <row r="62" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A62" s="23"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+    </row>
+    <row r="63" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A63" s="23"/>
+      <c r="B63" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A64" s="23"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+    </row>
+    <row r="65" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A65" s="23"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+    </row>
+    <row r="66" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A66" s="23"/>
+      <c r="B66" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A67" s="23"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+    </row>
+    <row r="68" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A68" s="23"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+    </row>
+    <row r="69" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A69" s="23"/>
+      <c r="B69" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A70" s="23"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+    </row>
+    <row r="71" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A71" s="23"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+    </row>
+    <row r="72" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A72" s="23"/>
+      <c r="B72" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+    </row>
+    <row r="73" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A73" s="23"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
+    </row>
+    <row r="74" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A74" s="23"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+    </row>
+    <row r="75" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A75" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A76" s="23"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="18">
+        <v>1</v>
+      </c>
+      <c r="D76" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A77" s="23"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+    </row>
+    <row r="78" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A78" s="23"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
+    </row>
+    <row r="79" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A79" s="23"/>
+      <c r="B79" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A80" s="23"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
+    </row>
+    <row r="81" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A81" s="23"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
+    </row>
+    <row r="82" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A82" s="23"/>
+      <c r="B82" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A83" s="23"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="10"/>
+    </row>
+    <row r="84" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A84" s="23"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="10"/>
+    </row>
+    <row r="85" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A85" s="23"/>
+      <c r="B85" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A86" s="23"/>
+      <c r="B86" s="10"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="10"/>
+    </row>
+    <row r="87" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A87" s="23"/>
+      <c r="B87" s="10"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="10"/>
+    </row>
+    <row r="88" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A88" s="23"/>
+      <c r="B88" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F88" s="12"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="12"/>
+    </row>
+    <row r="89" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A89" s="23"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10"/>
+    </row>
+    <row r="90" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A90" s="23"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="A76:A90"/>
     <mergeCell ref="A9:A23"/>
     <mergeCell ref="A25:A39"/>
     <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A41:A55"/>
+    <mergeCell ref="A57:A74"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2167,6 +2941,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F91E044E3A9D84A8197B09587594D86" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a727839579f0816cd156df87ac1abb38">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4b137422-f48a-46a4-80bc-5707d2d59248" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c55dfd8d1a660179b90c490e9dacc3e0" ns3:_="">
     <xsd:import namespace="4b137422-f48a-46a4-80bc-5707d2d59248"/>
@@ -2298,35 +3087,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2348,9 +3112,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5EA9900-A2E1-4FF4-988F-1D0FFBE72ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81AA0B6-E55D-4BFD-97ED-7D047D2EA7B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="135">
   <si>
     <t>해야할 일</t>
   </si>
@@ -442,19 +442,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>김경회 결혼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>박한솔 건강검진 시작
 일상폴더 210803 검색</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>왕건 생일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>장모님 생신
 (음력 4/16)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -486,11 +478,6 @@
   </si>
   <si>
     <t>고대치기공, 지산고 회비 입금</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>정봉현, 노숙진 생일
-고대치기공, 지산고 회비 입금</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -504,10 +491,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>9시30분 에어부산 김포-&gt;김해</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>헌혈가능</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -525,21 +508,6 @@
   </si>
   <si>
     <t>인화원 MVP교육</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>웨스턴 조선호텔 부산 셔블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>점심 김경회, 이재관
-21시 에어부산 김해-&gt;김포</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이현정 생일
-점심 암소갈비 - 셔블 -
-신세계백화점</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -553,12 +521,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2시 손정엽 결혼 더펄웨딩홀
-2시 마경도 선임 결혼
-보테가마지오 지하2층</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -584,13 +546,44 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>저녁 7시 DMC역
-김건우, 이승근
-새벽돼지 - 이자카야..</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>TCT - 주스킬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>21시 에어부산 김해-&gt;김포</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심 12시 김경회, 이재관
+303일상 - 할리스 금강식물원 -
+양산 토곡요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한화리조트 경주콘도
+예약번호 9295</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11시 김경회 결혼
+엑소21컨벤션 3층
+이현정, 이재관</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>icst 모임??
+20시반 에어부산 김포-&gt;김해</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정봉현, 노숙진 생일
+고대치기공, 지산고 회비 입금
+7시반 사당 류재열</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5시 E13 Future Lounge
+IAU 신규 전입자 간담회</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -820,7 +813,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -878,8 +871,8 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -888,9 +881,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1219,7 +1209,7 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:N90"/>
+  <dimension ref="A1:N87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
@@ -1262,141 +1252,140 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="35.1" customHeight="1">
-      <c r="A2" s="23"/>
+      <c r="A2" s="19"/>
       <c r="B2" s="8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>85</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:14" ht="50.1" customHeight="1">
-      <c r="A3" s="23"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="D3" s="10"/>
+        <v>129</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10" t="s">
+        <v>134</v>
+      </c>
       <c r="E3" s="10"/>
-      <c r="F3" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="50.1" customHeight="1">
-      <c r="A4" s="23"/>
-      <c r="B4" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:14" ht="49.9" customHeight="1">
+      <c r="A4" s="19"/>
+      <c r="B4" s="10" t="s">
+        <v>128</v>
+      </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
-      <c r="H4" s="10" t="s">
-        <v>128</v>
-      </c>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:14" ht="35.1" customHeight="1">
-      <c r="A5" s="23"/>
-      <c r="B5" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="6" spans="1:14" ht="50.1" customHeight="1">
-      <c r="A6" s="23"/>
-      <c r="B6" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" spans="1:14" ht="49.9" customHeight="1">
-      <c r="A7" s="23"/>
+      <c r="A5" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="35.1" customHeight="1">
+      <c r="A6" s="20"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="50.1" customHeight="1">
+      <c r="A7" s="21"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:14" ht="35.1" customHeight="1">
-      <c r="A8" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="G7" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="N7" s="11"/>
+    </row>
+    <row r="8" spans="1:14" ht="50.1" customHeight="1">
+      <c r="A8" s="21"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:14" ht="35.1" customHeight="1">
-      <c r="A9" s="20"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="G9" s="1" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="50.1" customHeight="1">
@@ -1406,18 +1395,12 @@
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="N10" s="11"/>
+        <v>130</v>
+      </c>
+      <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:14" ht="50.1" customHeight="1">
       <c r="A11" s="21"/>
@@ -1426,53 +1409,48 @@
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
-      <c r="G11" s="10" t="s">
-        <v>126</v>
-      </c>
+      <c r="G11" s="10"/>
       <c r="H11" s="10"/>
-      <c r="M11" s="11" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="12" spans="1:14" ht="35.1" customHeight="1">
       <c r="A12" s="21"/>
       <c r="B12" s="8" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="50.1" customHeight="1">
       <c r="A13" s="21"/>
-      <c r="B13" s="10"/>
+      <c r="B13" s="10" t="s">
+        <v>128</v>
+      </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
+      <c r="F13" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>115</v>
+      </c>
       <c r="H13" s="10"/>
-      <c r="M13" s="4" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="14" spans="1:14" ht="50.1" customHeight="1">
       <c r="A14" s="21"/>
@@ -1483,55 +1461,48 @@
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
-      <c r="M14" s="11" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="15" spans="1:14" ht="35.1" customHeight="1">
       <c r="A15" s="21"/>
       <c r="B15" s="8" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M15" s="11" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="50.1" customHeight="1">
       <c r="A16" s="21"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
+      <c r="D16" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>118</v>
+      </c>
       <c r="F16" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>119</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G16" s="10"/>
       <c r="H16" s="10"/>
-      <c r="M16" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="50.1" customHeight="1">
+    </row>
+    <row r="17" spans="1:13" ht="50.1" customHeight="1">
       <c r="A17" s="21"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -1540,47 +1511,56 @@
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="1:8" ht="35.1" customHeight="1">
+      <c r="M17" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="35.1" customHeight="1">
       <c r="A18" s="21"/>
       <c r="B18" s="8" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="50.1" customHeight="1">
+        <v>88</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="50.1" customHeight="1">
       <c r="A19" s="21"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
-    </row>
-    <row r="20" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A20" s="21"/>
+      <c r="M19" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A20" s="22"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -1588,119 +1568,131 @@
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
-    </row>
-    <row r="21" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A21" s="21"/>
-      <c r="B21" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A22" s="21"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-    </row>
-    <row r="23" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A23" s="22"/>
-      <c r="B23" s="10"/>
+      <c r="M20" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A21" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A22" s="19"/>
+      <c r="B22" s="17">
+        <v>1</v>
+      </c>
+      <c r="C22" s="18">
+        <v>2</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A23" s="19"/>
+      <c r="B23" s="10" t="s">
+        <v>111</v>
+      </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
-    </row>
-    <row r="24" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A24" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A25" s="23"/>
-      <c r="B25" s="17">
-        <v>1</v>
-      </c>
-      <c r="C25" s="18">
-        <v>2</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>99</v>
+      <c r="M23" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A24" s="19"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+    </row>
+    <row r="25" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A25" s="19"/>
+      <c r="B25" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>110</v>
+        <v>52</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A26" s="23"/>
-      <c r="B26" s="10" t="s">
-        <v>113</v>
-      </c>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A26" s="19"/>
+      <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
+      <c r="F26" s="10" t="s">
+        <v>102</v>
+      </c>
       <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-    </row>
-    <row r="27" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A27" s="23"/>
+      <c r="H26" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A27" s="19"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -1709,46 +1701,46 @@
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
     </row>
-    <row r="28" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A28" s="23"/>
+    <row r="28" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A28" s="19"/>
       <c r="B28" s="8" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A29" s="23"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A29" s="19"/>
       <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
+      <c r="C29" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>105</v>
+      </c>
       <c r="E29" s="10"/>
-      <c r="F29" s="10" t="s">
-        <v>102</v>
-      </c>
+      <c r="F29" s="10"/>
       <c r="G29" s="10"/>
-      <c r="H29" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A30" s="23"/>
+      <c r="H29" s="10"/>
+    </row>
+    <row r="30" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A30" s="19"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -1757,188 +1749,184 @@
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
     </row>
-    <row r="31" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A31" s="23"/>
+    <row r="31" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A31" s="19"/>
       <c r="B31" s="8" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A32" s="23"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A32" s="19"/>
+      <c r="B32" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="E32" s="10"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
     </row>
     <row r="33" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A33" s="23"/>
+      <c r="A33" s="19"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
+      <c r="E33" s="10" t="s">
+        <v>118</v>
+      </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
     </row>
     <row r="34" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A34" s="23"/>
+      <c r="A34" s="19"/>
       <c r="B34" s="8" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>87</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
     </row>
     <row r="35" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A35" s="23"/>
-      <c r="B35" s="10" t="s">
-        <v>108</v>
-      </c>
+      <c r="A35" s="19"/>
+      <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
+      <c r="H35" s="10" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="36" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A36" s="23"/>
+      <c r="A36" s="19"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
-      <c r="E36" s="10" t="s">
-        <v>122</v>
-      </c>
+      <c r="E36" s="10"/>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
+      <c r="H36" s="10" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="37" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A37" s="23"/>
-      <c r="B37" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-    </row>
-    <row r="38" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A38" s="23"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10" t="s">
-        <v>91</v>
+      <c r="A37" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A38" s="20"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A39" s="23"/>
+      <c r="A39" s="21"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
-      <c r="H39" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A40" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="H39" s="10"/>
+    </row>
+    <row r="40" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A40" s="21"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
     </row>
     <row r="41" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A41" s="20"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="15"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="E41" s="1" t="s">
-        <v>129</v>
+        <v>51</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="50.1" customHeight="1">
@@ -1948,7 +1936,9 @@
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
+      <c r="G42" s="10" t="s">
+        <v>126</v>
+      </c>
       <c r="H42" s="10"/>
     </row>
     <row r="43" spans="1:8" ht="50.1" customHeight="1">
@@ -1964,25 +1954,25 @@
     <row r="44" spans="1:8" ht="35.1" customHeight="1">
       <c r="A44" s="21"/>
       <c r="B44" s="8" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="50.1" customHeight="1">
@@ -1990,11 +1980,11 @@
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
+      <c r="E45" s="10" t="s">
+        <v>127</v>
+      </c>
       <c r="F45" s="10"/>
-      <c r="G45" s="10" t="s">
-        <v>134</v>
-      </c>
+      <c r="G45" s="10"/>
       <c r="H45" s="10"/>
     </row>
     <row r="46" spans="1:8" ht="50.1" customHeight="1">
@@ -2010,25 +2000,25 @@
     <row r="47" spans="1:8" ht="35.1" customHeight="1">
       <c r="A47" s="21"/>
       <c r="B47" s="8" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="50.1" customHeight="1">
@@ -2036,9 +2026,7 @@
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
-      <c r="E48" s="10" t="s">
-        <v>136</v>
-      </c>
+      <c r="E48" s="10"/>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
@@ -2056,26 +2044,22 @@
     <row r="50" spans="1:8" ht="35.1" customHeight="1">
       <c r="A50" s="21"/>
       <c r="B50" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>60</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
     </row>
     <row r="51" spans="1:8" ht="50.1" customHeight="1">
       <c r="A51" s="21"/>
@@ -2088,7 +2072,7 @@
       <c r="H51" s="10"/>
     </row>
     <row r="52" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A52" s="21"/>
+      <c r="A52" s="22"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
@@ -2098,99 +2082,103 @@
       <c r="H52" s="10"/>
     </row>
     <row r="53" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A53" s="21"/>
-      <c r="B53" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-    </row>
-    <row r="54" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A54" s="21"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
+      <c r="A53" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A54" s="19"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="55" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A55" s="22"/>
+      <c r="A55" s="19"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
+      <c r="F55" s="10" t="s">
+        <v>120</v>
+      </c>
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
     </row>
-    <row r="56" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A56" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>48</v>
-      </c>
+    <row r="56" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A56" s="19"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
     </row>
     <row r="57" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A57" s="23"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
+      <c r="A57" s="19"/>
+      <c r="B57" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A58" s="23"/>
+      <c r="A58" s="19"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
       <c r="E58" s="10"/>
-      <c r="F58" s="10" t="s">
-        <v>127</v>
-      </c>
+      <c r="F58" s="10"/>
       <c r="G58" s="10"/>
       <c r="H58" s="10"/>
     </row>
     <row r="59" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A59" s="23"/>
+      <c r="A59" s="19"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
@@ -2200,41 +2188,43 @@
       <c r="H59" s="10"/>
     </row>
     <row r="60" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A60" s="23"/>
+      <c r="A60" s="19"/>
       <c r="B60" s="8" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A61" s="23"/>
+      <c r="A61" s="19"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
+      <c r="E61" s="10" t="s">
+        <v>127</v>
+      </c>
       <c r="F61" s="10"/>
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
     </row>
     <row r="62" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A62" s="23"/>
+      <c r="A62" s="19"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
@@ -2244,43 +2234,41 @@
       <c r="H62" s="10"/>
     </row>
     <row r="63" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A63" s="23"/>
+      <c r="A63" s="19"/>
       <c r="B63" s="8" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A64" s="23"/>
+      <c r="A64" s="19"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
-      <c r="E64" s="10" t="s">
-        <v>136</v>
-      </c>
+      <c r="E64" s="10"/>
       <c r="F64" s="10"/>
       <c r="G64" s="10"/>
       <c r="H64" s="10"/>
     </row>
     <row r="65" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A65" s="23"/>
+      <c r="A65" s="19"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
@@ -2290,31 +2278,31 @@
       <c r="H65" s="10"/>
     </row>
     <row r="66" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A66" s="23"/>
+      <c r="A66" s="19"/>
       <c r="B66" s="8" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A67" s="23"/>
+      <c r="A67" s="19"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
@@ -2324,7 +2312,7 @@
       <c r="H67" s="10"/>
     </row>
     <row r="68" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A68" s="23"/>
+      <c r="A68" s="19"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
@@ -2334,31 +2322,19 @@
       <c r="H68" s="10"/>
     </row>
     <row r="69" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A69" s="23"/>
+      <c r="A69" s="19"/>
       <c r="B69" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>88</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
     </row>
     <row r="70" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A70" s="23"/>
+      <c r="A70" s="19"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
@@ -2368,7 +2344,7 @@
       <c r="H70" s="10"/>
     </row>
     <row r="71" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A71" s="23"/>
+      <c r="A71" s="19"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
       <c r="D71" s="10"/>
@@ -2378,29 +2354,55 @@
       <c r="H71" s="10"/>
     </row>
     <row r="72" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A72" s="23"/>
-      <c r="B72" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="12"/>
-    </row>
-    <row r="73" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A73" s="23"/>
-      <c r="B73" s="10"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10"/>
-      <c r="G73" s="10"/>
-      <c r="H73" s="10"/>
+      <c r="A72" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A73" s="19"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="18">
+        <v>1</v>
+      </c>
+      <c r="D73" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="74" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A74" s="23"/>
+      <c r="A74" s="19"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
       <c r="D74" s="10"/>
@@ -2409,66 +2411,54 @@
       <c r="G74" s="10"/>
       <c r="H74" s="10"/>
     </row>
-    <row r="75" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A75" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H75" s="3" t="s">
-        <v>48</v>
-      </c>
+    <row r="75" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A75" s="19"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
     </row>
     <row r="76" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A76" s="23"/>
-      <c r="B76" s="13"/>
-      <c r="C76" s="18">
-        <v>1</v>
-      </c>
-      <c r="D76" s="16" t="s">
-        <v>130</v>
+      <c r="A76" s="19"/>
+      <c r="B76" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A77" s="23"/>
+      <c r="A77" s="19"/>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
       <c r="D77" s="10"/>
-      <c r="E77" s="10"/>
+      <c r="E77" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="F77" s="10"/>
       <c r="G77" s="10"/>
       <c r="H77" s="10"/>
     </row>
     <row r="78" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A78" s="23"/>
+      <c r="A78" s="19"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
@@ -2478,43 +2468,41 @@
       <c r="H78" s="10"/>
     </row>
     <row r="79" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A79" s="23"/>
+      <c r="A79" s="19"/>
       <c r="B79" s="8" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A80" s="23"/>
+      <c r="A80" s="19"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
       <c r="D80" s="10"/>
-      <c r="E80" s="10" t="s">
-        <v>115</v>
-      </c>
+      <c r="E80" s="10"/>
       <c r="F80" s="10"/>
       <c r="G80" s="10"/>
       <c r="H80" s="10"/>
     </row>
     <row r="81" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A81" s="23"/>
+      <c r="A81" s="19"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
       <c r="D81" s="10"/>
@@ -2524,31 +2512,31 @@
       <c r="H81" s="10"/>
     </row>
     <row r="82" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A82" s="23"/>
+      <c r="A82" s="19"/>
       <c r="B82" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A83" s="23"/>
+      <c r="A83" s="19"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
       <c r="D83" s="10"/>
@@ -2558,7 +2546,7 @@
       <c r="H83" s="10"/>
     </row>
     <row r="84" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A84" s="23"/>
+      <c r="A84" s="19"/>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
       <c r="D84" s="10"/>
@@ -2568,31 +2556,25 @@
       <c r="H84" s="10"/>
     </row>
     <row r="85" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A85" s="23"/>
+      <c r="A85" s="19"/>
       <c r="B85" s="8" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>86</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="F85" s="12"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="12"/>
     </row>
     <row r="86" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A86" s="23"/>
+      <c r="A86" s="19"/>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
       <c r="D86" s="10"/>
@@ -2602,7 +2584,7 @@
       <c r="H86" s="10"/>
     </row>
     <row r="87" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A87" s="23"/>
+      <c r="A87" s="19"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
       <c r="D87" s="10"/>
@@ -2611,52 +2593,14 @@
       <c r="G87" s="10"/>
       <c r="H87" s="10"/>
     </row>
-    <row r="88" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A88" s="23"/>
-      <c r="B88" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F88" s="12"/>
-      <c r="G88" s="12"/>
-      <c r="H88" s="12"/>
-    </row>
-    <row r="89" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A89" s="23"/>
-      <c r="B89" s="10"/>
-      <c r="C89" s="10"/>
-      <c r="D89" s="10"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="10"/>
-      <c r="G89" s="10"/>
-      <c r="H89" s="10"/>
-    </row>
-    <row r="90" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A90" s="23"/>
-      <c r="B90" s="10"/>
-      <c r="C90" s="10"/>
-      <c r="D90" s="10"/>
-      <c r="E90" s="10"/>
-      <c r="F90" s="10"/>
-      <c r="G90" s="10"/>
-      <c r="H90" s="10"/>
-    </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A76:A90"/>
-    <mergeCell ref="A9:A23"/>
-    <mergeCell ref="A25:A39"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A41:A55"/>
-    <mergeCell ref="A57:A74"/>
+    <mergeCell ref="A73:A87"/>
+    <mergeCell ref="A6:A20"/>
+    <mergeCell ref="A22:A36"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A38:A52"/>
+    <mergeCell ref="A54:A71"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2681,11 +2625,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="21" thickBot="1">
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="2:17">
       <c r="D2" s="4" t="s">

--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81AA0B6-E55D-4BFD-97ED-7D047D2EA7B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACD2B9C-C12E-403E-8174-895A110AC2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="137">
   <si>
     <t>해야할 일</t>
   </si>
@@ -511,12 +511,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>11시30분 
-웨스턴 조선호텔 셔블 예약
-7월 2일 저녁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>7월 미구위 박한솔생일 3만원</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -551,12 +545,6 @@
   </si>
   <si>
     <t>21시 에어부산 김해-&gt;김포</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>점심 12시 김경회, 이재관
-303일상 - 할리스 금강식물원 -
-양산 토곡요</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -578,12 +566,32 @@
   <si>
     <t>정봉현, 노숙진 생일
 고대치기공, 지산고 회비 입금
-7시반 사당 류재열</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5시 E13 Future Lounge
-IAU 신규 전입자 간담회</t>
+7시반 신논현 류재열, 이승배</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>송포갈비 - 혜장국
+11시30분
+웨스턴 조선호텔 셔블 예약</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>웨스틴 조선 부산 셔블
+박한솔 돌잔치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁 6시 혜화 박용현, 윤석원
+도토리편백집-이마쇼쿠-
+리춘시장-노원 용현이형 집</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신의주 순대국 - 메가커피</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강신구 형님 교정과 오픈</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1209,10 +1217,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:N87"/>
+  <dimension ref="A1:N83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1227,7 +1235,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="35.1" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>43</v>
@@ -1252,90 +1260,87 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="35.1" customHeight="1">
-      <c r="A2" s="19"/>
-      <c r="B2" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="3" spans="1:14" ht="50.1" customHeight="1">
-      <c r="A3" s="19"/>
-      <c r="B3" s="10" t="s">
-        <v>129</v>
-      </c>
+      <c r="A3" s="21"/>
+      <c r="B3" s="10"/>
       <c r="C3" s="10"/>
-      <c r="D3" s="10" t="s">
-        <v>134</v>
-      </c>
+      <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-    </row>
-    <row r="4" spans="1:14" ht="49.9" customHeight="1">
-      <c r="A4" s="19"/>
-      <c r="B4" s="10" t="s">
-        <v>128</v>
-      </c>
+      <c r="G3" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="N3" s="11"/>
+    </row>
+    <row r="4" spans="1:14" ht="50.1" customHeight="1">
+      <c r="A4" s="21"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
+      <c r="G4" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="5" spans="1:14" ht="35.1" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="35.1" customHeight="1">
-      <c r="A6" s="20"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="A5" s="21"/>
+      <c r="B5" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="50.1" customHeight="1">
+      <c r="A6" s="21"/>
+      <c r="B6" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:14" ht="50.1" customHeight="1">
       <c r="A7" s="21"/>
@@ -1344,49 +1349,48 @@
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="N7" s="11"/>
-    </row>
-    <row r="8" spans="1:14" ht="50.1" customHeight="1">
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:14" ht="35.1" customHeight="1">
       <c r="A8" s="21"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="1:14" ht="35.1" customHeight="1">
+      <c r="B8" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="50.1" customHeight="1">
       <c r="A9" s="21"/>
-      <c r="B9" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="B9" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:14" ht="50.1" customHeight="1">
       <c r="A10" s="21"/>
@@ -1394,173 +1398,195 @@
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
-      <c r="F10" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>130</v>
-      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:14" ht="50.1" customHeight="1">
+    <row r="11" spans="1:14" ht="35.1" customHeight="1">
       <c r="A11" s="21"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="1:14" ht="35.1" customHeight="1">
+      <c r="B11" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="50.1" customHeight="1">
       <c r="A12" s="21"/>
-      <c r="B12" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:14" ht="50.1" customHeight="1">
       <c r="A13" s="21"/>
-      <c r="B13" s="10" t="s">
-        <v>128</v>
-      </c>
+      <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
-      <c r="F13" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>115</v>
-      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
       <c r="H13" s="10"/>
-    </row>
-    <row r="14" spans="1:14" ht="50.1" customHeight="1">
+      <c r="M13" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="35.1" customHeight="1">
       <c r="A14" s="21"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" spans="1:14" ht="35.1" customHeight="1">
+      <c r="B14" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="50.1" customHeight="1">
       <c r="A15" s="21"/>
-      <c r="B15" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>59</v>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="M15" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="50.1" customHeight="1">
-      <c r="A16" s="21"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>118</v>
-      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A17" s="21"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
+      <c r="M16" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A17" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="M17" s="11" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A18" s="21"/>
-      <c r="B18" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>94</v>
+      <c r="A18" s="19"/>
+      <c r="B18" s="17">
+        <v>1</v>
+      </c>
+      <c r="C18" s="18">
+        <v>2</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>99</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A19" s="21"/>
-      <c r="B19" s="10"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="10" t="s">
+        <v>111</v>
+      </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
-      <c r="E19" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>117</v>
-      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="M19" s="4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A20" s="22"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -1568,114 +1594,92 @@
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
-      <c r="M20" s="4" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="21" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A21" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="M21" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A21" s="19"/>
+      <c r="B21" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="50.1" customHeight="1">
       <c r="A22" s="19"/>
-      <c r="B22" s="17">
-        <v>1</v>
-      </c>
-      <c r="C22" s="18">
-        <v>2</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M22" s="11" t="s">
-        <v>73</v>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="50.1" customHeight="1">
       <c r="A23" s="19"/>
-      <c r="B23" s="10" t="s">
-        <v>111</v>
-      </c>
+      <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
-      <c r="M23" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="50.1" customHeight="1">
+    </row>
+    <row r="24" spans="1:13" ht="35.1" customHeight="1">
       <c r="A24" s="19"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-    </row>
-    <row r="25" spans="1:13" ht="35.1" customHeight="1">
+      <c r="B24" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="50.1" customHeight="1">
       <c r="A25" s="19"/>
-      <c r="B25" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:13" ht="50.1" customHeight="1">
       <c r="A26" s="19"/>
@@ -1683,207 +1687,201 @@
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
-      <c r="F26" s="10" t="s">
-        <v>102</v>
-      </c>
+      <c r="F26" s="10"/>
       <c r="G26" s="10"/>
-      <c r="H26" s="10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="50.1" customHeight="1">
+      <c r="H26" s="10"/>
+    </row>
+    <row r="27" spans="1:13" ht="35.1" customHeight="1">
       <c r="A27" s="19"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-    </row>
-    <row r="28" spans="1:13" ht="35.1" customHeight="1">
+      <c r="B27" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="50.1" customHeight="1">
       <c r="A28" s="19"/>
-      <c r="B28" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="B28" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
     </row>
     <row r="29" spans="1:13" ht="50.1" customHeight="1">
       <c r="A29" s="19"/>
       <c r="B29" s="10"/>
-      <c r="C29" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10" t="s">
+        <v>118</v>
+      </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
     </row>
-    <row r="30" spans="1:13" ht="50.1" customHeight="1">
+    <row r="30" spans="1:13" ht="35.1" customHeight="1">
       <c r="A30" s="19"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-    </row>
-    <row r="31" spans="1:13" ht="35.1" customHeight="1">
+      <c r="B30" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+    </row>
+    <row r="31" spans="1:13" ht="50.1" customHeight="1">
       <c r="A31" s="19"/>
-      <c r="B31" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>87</v>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="50.1" customHeight="1">
       <c r="A32" s="19"/>
-      <c r="B32" s="10" t="s">
-        <v>106</v>
-      </c>
+      <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
-      <c r="E32" s="10" t="s">
-        <v>107</v>
-      </c>
+      <c r="E32" s="10"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-    </row>
-    <row r="33" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A33" s="19"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
+      <c r="H32" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A33" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="34" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A34" s="19"/>
-      <c r="B34" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="35" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A35" s="19"/>
+      <c r="A35" s="21"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
-      <c r="E35" s="10" t="s">
-        <v>111</v>
-      </c>
+      <c r="E35" s="10"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
-      <c r="H35" s="10" t="s">
-        <v>91</v>
-      </c>
+      <c r="H35" s="10"/>
     </row>
     <row r="36" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A36" s="19"/>
+      <c r="A36" s="21"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
-      <c r="H36" s="10" t="s">
-        <v>110</v>
-      </c>
+      <c r="H36" s="10"/>
     </row>
     <row r="37" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A37" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A38" s="20"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="A37" s="21"/>
+      <c r="B37" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A38" s="21"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H38" s="10"/>
     </row>
     <row r="39" spans="1:8" ht="50.1" customHeight="1">
       <c r="A39" s="21"/>
@@ -1895,39 +1893,41 @@
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
     </row>
-    <row r="40" spans="1:8" ht="50.1" customHeight="1">
+    <row r="40" spans="1:8" ht="35.1" customHeight="1">
       <c r="A40" s="21"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-    </row>
-    <row r="41" spans="1:8" ht="35.1" customHeight="1">
+      <c r="B40" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="50.1" customHeight="1">
       <c r="A41" s="21"/>
-      <c r="B41" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
     </row>
     <row r="42" spans="1:8" ht="50.1" customHeight="1">
       <c r="A42" s="21"/>
@@ -1936,93 +1936,85 @@
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
-      <c r="G42" s="10" t="s">
-        <v>126</v>
-      </c>
+      <c r="G42" s="10"/>
       <c r="H42" s="10"/>
     </row>
-    <row r="43" spans="1:8" ht="50.1" customHeight="1">
+    <row r="43" spans="1:8" ht="35.1" customHeight="1">
       <c r="A43" s="21"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-    </row>
-    <row r="44" spans="1:8" ht="35.1" customHeight="1">
+      <c r="B43" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="50.1" customHeight="1">
       <c r="A44" s="21"/>
-      <c r="B44" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
     </row>
     <row r="45" spans="1:8" ht="50.1" customHeight="1">
       <c r="A45" s="21"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
-      <c r="E45" s="10" t="s">
-        <v>127</v>
-      </c>
+      <c r="E45" s="10"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
     </row>
-    <row r="46" spans="1:8" ht="50.1" customHeight="1">
+    <row r="46" spans="1:8" ht="35.1" customHeight="1">
       <c r="A46" s="21"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-    </row>
-    <row r="47" spans="1:8" ht="35.1" customHeight="1">
+      <c r="B46" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+    </row>
+    <row r="47" spans="1:8" ht="50.1" customHeight="1">
       <c r="A47" s="21"/>
-      <c r="B47" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
     </row>
     <row r="48" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A48" s="21"/>
+      <c r="A48" s="22"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
@@ -2031,48 +2023,62 @@
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
     </row>
-    <row r="49" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A49" s="21"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
+    <row r="49" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A49" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="50" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A50" s="21"/>
-      <c r="B50" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
+      <c r="A50" s="19"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="51" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A51" s="21"/>
+      <c r="A51" s="19"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
+      <c r="F51" s="10" t="s">
+        <v>119</v>
+      </c>
       <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
+      <c r="H51" s="10" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="52" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A52" s="22"/>
+      <c r="A52" s="19"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
@@ -2082,44 +2088,38 @@
       <c r="H52" s="10"/>
     </row>
     <row r="53" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A53" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A53" s="19"/>
+      <c r="B53" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="50.1" customHeight="1">
       <c r="A54" s="19"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
     </row>
     <row r="55" spans="1:8" ht="50.1" customHeight="1">
       <c r="A55" s="19"/>
@@ -2127,45 +2127,45 @@
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
-      <c r="F55" s="10" t="s">
-        <v>120</v>
-      </c>
+      <c r="F55" s="10"/>
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
     </row>
-    <row r="56" spans="1:8" ht="50.1" customHeight="1">
+    <row r="56" spans="1:8" ht="35.1" customHeight="1">
       <c r="A56" s="19"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-    </row>
-    <row r="57" spans="1:8" ht="35.1" customHeight="1">
+      <c r="B56" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="50.1" customHeight="1">
       <c r="A57" s="19"/>
-      <c r="B57" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
     </row>
     <row r="58" spans="1:8" ht="50.1" customHeight="1">
       <c r="A58" s="19"/>
@@ -2177,85 +2177,83 @@
       <c r="G58" s="10"/>
       <c r="H58" s="10"/>
     </row>
-    <row r="59" spans="1:8" ht="50.1" customHeight="1">
+    <row r="59" spans="1:8" ht="35.1" customHeight="1">
       <c r="A59" s="19"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-    </row>
-    <row r="60" spans="1:8" ht="35.1" customHeight="1">
+      <c r="B59" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="50.1" customHeight="1">
       <c r="A60" s="19"/>
-      <c r="B60" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
     </row>
     <row r="61" spans="1:8" ht="50.1" customHeight="1">
       <c r="A61" s="19"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
-      <c r="E61" s="10" t="s">
-        <v>127</v>
-      </c>
+      <c r="E61" s="10"/>
       <c r="F61" s="10"/>
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
     </row>
-    <row r="62" spans="1:8" ht="50.1" customHeight="1">
+    <row r="62" spans="1:8" ht="35.1" customHeight="1">
       <c r="A62" s="19"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="10"/>
-    </row>
-    <row r="63" spans="1:8" ht="35.1" customHeight="1">
+      <c r="B62" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="50.1" customHeight="1">
       <c r="A63" s="19"/>
-      <c r="B63" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
     </row>
     <row r="64" spans="1:8" ht="50.1" customHeight="1">
       <c r="A64" s="19"/>
@@ -2267,39 +2265,27 @@
       <c r="G64" s="10"/>
       <c r="H64" s="10"/>
     </row>
-    <row r="65" spans="1:8" ht="50.1" customHeight="1">
+    <row r="65" spans="1:8" ht="35.1" customHeight="1">
       <c r="A65" s="19"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
-    </row>
-    <row r="66" spans="1:8" ht="35.1" customHeight="1">
+      <c r="B65" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+    </row>
+    <row r="66" spans="1:8" ht="50.1" customHeight="1">
       <c r="A66" s="19"/>
-      <c r="B66" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
     </row>
     <row r="67" spans="1:8" ht="50.1" customHeight="1">
       <c r="A67" s="19"/>
@@ -2311,27 +2297,53 @@
       <c r="G67" s="10"/>
       <c r="H67" s="10"/>
     </row>
-    <row r="68" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A68" s="19"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="10"/>
+    <row r="68" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A68" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="69" spans="1:8" ht="35.1" customHeight="1">
       <c r="A69" s="19"/>
-      <c r="B69" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="12"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="18">
+        <v>1</v>
+      </c>
+      <c r="D69" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="70" spans="1:8" ht="50.1" customHeight="1">
       <c r="A70" s="19"/>
@@ -2354,52 +2366,40 @@
       <c r="H71" s="10"/>
     </row>
     <row r="72" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A72" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A72" s="19"/>
+      <c r="B72" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="50.1" customHeight="1">
       <c r="A73" s="19"/>
-      <c r="B73" s="13"/>
-      <c r="C73" s="18">
-        <v>1</v>
-      </c>
-      <c r="D73" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
     </row>
     <row r="74" spans="1:8" ht="50.1" customHeight="1">
       <c r="A74" s="19"/>
@@ -2411,85 +2411,83 @@
       <c r="G74" s="10"/>
       <c r="H74" s="10"/>
     </row>
-    <row r="75" spans="1:8" ht="50.1" customHeight="1">
+    <row r="75" spans="1:8" ht="35.1" customHeight="1">
       <c r="A75" s="19"/>
-      <c r="B75" s="10"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="10"/>
-    </row>
-    <row r="76" spans="1:8" ht="35.1" customHeight="1">
+      <c r="B75" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="50.1" customHeight="1">
       <c r="A76" s="19"/>
-      <c r="B76" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
     </row>
     <row r="77" spans="1:8" ht="50.1" customHeight="1">
       <c r="A77" s="19"/>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
       <c r="D77" s="10"/>
-      <c r="E77" s="10" t="s">
-        <v>112</v>
-      </c>
+      <c r="E77" s="10"/>
       <c r="F77" s="10"/>
       <c r="G77" s="10"/>
       <c r="H77" s="10"/>
     </row>
-    <row r="78" spans="1:8" ht="50.1" customHeight="1">
+    <row r="78" spans="1:8" ht="35.1" customHeight="1">
       <c r="A78" s="19"/>
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="10"/>
-    </row>
-    <row r="79" spans="1:8" ht="35.1" customHeight="1">
+      <c r="B78" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="50.1" customHeight="1">
       <c r="A79" s="19"/>
-      <c r="B79" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
     </row>
     <row r="80" spans="1:8" ht="50.1" customHeight="1">
       <c r="A80" s="19"/>
@@ -2501,39 +2499,33 @@
       <c r="G80" s="10"/>
       <c r="H80" s="10"/>
     </row>
-    <row r="81" spans="1:8" ht="50.1" customHeight="1">
+    <row r="81" spans="1:8" ht="35.1" customHeight="1">
       <c r="A81" s="19"/>
-      <c r="B81" s="10"/>
-      <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10"/>
-      <c r="G81" s="10"/>
-      <c r="H81" s="10"/>
-    </row>
-    <row r="82" spans="1:8" ht="35.1" customHeight="1">
+      <c r="B81" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12"/>
+    </row>
+    <row r="82" spans="1:8" ht="50.1" customHeight="1">
       <c r="A82" s="19"/>
-      <c r="B82" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
     </row>
     <row r="83" spans="1:8" ht="50.1" customHeight="1">
       <c r="A83" s="19"/>
@@ -2545,62 +2537,13 @@
       <c r="G83" s="10"/>
       <c r="H83" s="10"/>
     </row>
-    <row r="84" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A84" s="19"/>
-      <c r="B84" s="10"/>
-      <c r="C84" s="10"/>
-      <c r="D84" s="10"/>
-      <c r="E84" s="10"/>
-      <c r="F84" s="10"/>
-      <c r="G84" s="10"/>
-      <c r="H84" s="10"/>
-    </row>
-    <row r="85" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A85" s="19"/>
-      <c r="B85" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F85" s="12"/>
-      <c r="G85" s="12"/>
-      <c r="H85" s="12"/>
-    </row>
-    <row r="86" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A86" s="19"/>
-      <c r="B86" s="10"/>
-      <c r="C86" s="10"/>
-      <c r="D86" s="10"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="10"/>
-      <c r="G86" s="10"/>
-      <c r="H86" s="10"/>
-    </row>
-    <row r="87" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A87" s="19"/>
-      <c r="B87" s="10"/>
-      <c r="C87" s="10"/>
-      <c r="D87" s="10"/>
-      <c r="E87" s="10"/>
-      <c r="F87" s="10"/>
-      <c r="G87" s="10"/>
-      <c r="H87" s="10"/>
-    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A73:A87"/>
-    <mergeCell ref="A6:A20"/>
-    <mergeCell ref="A22:A36"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A38:A52"/>
-    <mergeCell ref="A54:A71"/>
+  <mergeCells count="5">
+    <mergeCell ref="A69:A83"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="A18:A32"/>
+    <mergeCell ref="A34:A48"/>
+    <mergeCell ref="A50:A67"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2885,21 +2828,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F91E044E3A9D84A8197B09587594D86" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a727839579f0816cd156df87ac1abb38">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4b137422-f48a-46a4-80bc-5707d2d59248" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c55dfd8d1a660179b90c490e9dacc3e0" ns3:_="">
     <xsd:import namespace="4b137422-f48a-46a4-80bc-5707d2d59248"/>
@@ -3031,10 +2959,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3056,19 +3009,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACD2B9C-C12E-403E-8174-895A110AC2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4703A09-00DC-46F2-AB23-58E0725DE5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -559,11 +559,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>icst 모임??
-20시반 에어부산 김포-&gt;김해</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>정봉현, 노숙진 생일
 고대치기공, 지산고 회비 입금
 7시반 신논현 류재열, 이승배</t>
@@ -592,6 +587,11 @@
   </si>
   <si>
     <t>강신구 형님 교정과 오픈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>19시 마곡나루 icst 모임
+20시반 에어부산 김포-&gt;김해</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1219,9 +1219,7 @@
   </sheetPr>
   <dimension ref="A1:N83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
@@ -1281,7 +1279,7 @@
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>103</v>
@@ -1296,10 +1294,10 @@
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="35.1" customHeight="1">
@@ -1329,13 +1327,13 @@
     <row r="6" spans="1:14" ht="50.1" customHeight="1">
       <c r="A6" s="21"/>
       <c r="B6" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>128</v>
@@ -1384,9 +1382,7 @@
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
-      <c r="F9" s="10" t="s">
-        <v>116</v>
-      </c>
+      <c r="F9" s="10"/>
       <c r="G9" s="10" t="s">
         <v>115</v>
       </c>
@@ -1430,7 +1426,7 @@
       <c r="A12" s="21"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>113</v>
@@ -1679,7 +1675,9 @@
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
+      <c r="H25" s="10" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="26" spans="1:13" ht="50.1" customHeight="1">
       <c r="A26" s="19"/>
@@ -2074,7 +2072,7 @@
       </c>
       <c r="G51" s="10"/>
       <c r="H51" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="50.1" customHeight="1">
@@ -2828,6 +2826,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F91E044E3A9D84A8197B09587594D86" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a727839579f0816cd156df87ac1abb38">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4b137422-f48a-46a4-80bc-5707d2d59248" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c55dfd8d1a660179b90c490e9dacc3e0" ns3:_="">
     <xsd:import namespace="4b137422-f48a-46a4-80bc-5707d2d59248"/>
@@ -2959,35 +2972,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3009,9 +2997,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4703A09-00DC-46F2-AB23-58E0725DE5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA67CFDD-9275-4D12-91B2-B7542C49DA37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="142">
   <si>
     <t>해야할 일</t>
   </si>
@@ -495,10 +495,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>저녁 루체브릿지?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>15시~ TCT 개발언어 시험</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -541,15 +537,6 @@
   </si>
   <si>
     <t>TCT - 주스킬</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>21시 에어부산 김해-&gt;김포</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>한화리조트 경주콘도
-예약번호 9295</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -590,8 +577,51 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>3시30분? 박한솔 돌사진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>19시 마곡나루 icst 모임
+크라운호프
 20시반 에어부산 김포-&gt;김해</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경주 교리김밥 - 페이지나인 -
+한화리조트 경주콘도
+예약번호 9295</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오스테리아밀즈 - 월정교 -
+한화리조트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보문호 산책 - 라한셀렉트 -
+경주 원조콩국 - 장전동 집 -
+영남식육식당</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>선두구동 주민센터 -
+대우아파트 - 동래롯데백화점-
+21시 에어부산 김해-&gt;김포</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가족 시민공원??</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산 샘플, 스프레이 가져가기
+21시반 에어부산 김포-&gt;김해
+저녁 루체브릿지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오전 할머니, 점심 암소갈비??
+20시 에어부산 김해-&gt;김포</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1219,7 +1249,9 @@
   </sheetPr>
   <dimension ref="A1:N83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
@@ -1279,7 +1311,7 @@
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>103</v>
@@ -1294,10 +1326,10 @@
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="35.1" customHeight="1">
@@ -1327,18 +1359,20 @@
     <row r="6" spans="1:14" ht="50.1" customHeight="1">
       <c r="A6" s="21"/>
       <c r="B6" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="H6" s="10"/>
+        <v>135</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="7" spans="1:14" ht="50.1" customHeight="1">
       <c r="A7" s="21"/>
@@ -1347,7 +1381,9 @@
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
+      <c r="G7" s="10" t="s">
+        <v>136</v>
+      </c>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:14" ht="35.1" customHeight="1">
@@ -1377,16 +1413,18 @@
     <row r="9" spans="1:14" ht="50.1" customHeight="1">
       <c r="A9" s="21"/>
       <c r="B9" s="10" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="H9" s="10"/>
+        <v>140</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="10" spans="1:14" ht="50.1" customHeight="1">
       <c r="A10" s="21"/>
@@ -1424,18 +1462,20 @@
     </row>
     <row r="12" spans="1:14" ht="50.1" customHeight="1">
       <c r="A12" s="21"/>
-      <c r="B12" s="10"/>
+      <c r="B12" s="10" t="s">
+        <v>141</v>
+      </c>
       <c r="C12" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>113</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -1489,9 +1529,11 @@
         <v>114</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="G15" s="10"/>
+        <v>116</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>133</v>
+      </c>
       <c r="H15" s="10"/>
       <c r="M15" s="4" t="s">
         <v>76</v>
@@ -1626,7 +1668,7 @@
       </c>
       <c r="G22" s="10"/>
       <c r="H22" s="10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="50.1" customHeight="1">
@@ -1676,7 +1718,7 @@
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="50.1" customHeight="1">
@@ -1733,7 +1775,7 @@
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
@@ -1783,7 +1825,7 @@
     </row>
     <row r="33" spans="1:8" ht="35.1" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>43</v>
@@ -1813,10 +1855,10 @@
       <c r="C34" s="14"/>
       <c r="D34" s="15"/>
       <c r="E34" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>79</v>
@@ -1877,7 +1919,7 @@
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
       <c r="G38" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H38" s="10"/>
     </row>
@@ -1921,7 +1963,7 @@
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
       <c r="E41" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
@@ -2023,7 +2065,7 @@
     </row>
     <row r="49" spans="1:8" ht="35.1" customHeight="1">
       <c r="A49" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>43</v>
@@ -2068,11 +2110,11 @@
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G51" s="10"/>
       <c r="H51" s="10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="50.1" customHeight="1">
@@ -2159,7 +2201,7 @@
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
       <c r="E57" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F57" s="10"/>
       <c r="G57" s="10"/>
@@ -2297,7 +2339,7 @@
     </row>
     <row r="68" spans="1:8" ht="35.1" customHeight="1">
       <c r="A68" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B68" s="9" t="s">
         <v>43</v>
@@ -2328,7 +2370,7 @@
         <v>1</v>
       </c>
       <c r="D69" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>99</v>
@@ -2826,21 +2868,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F91E044E3A9D84A8197B09587594D86" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a727839579f0816cd156df87ac1abb38">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4b137422-f48a-46a4-80bc-5707d2d59248" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c55dfd8d1a660179b90c490e9dacc3e0" ns3:_="">
     <xsd:import namespace="4b137422-f48a-46a4-80bc-5707d2d59248"/>
@@ -2972,10 +2999,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2997,19 +3049,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA67CFDD-9275-4D12-91B2-B7542C49DA37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534A2BFC-CA9A-4110-9D7F-87AC3F1E1F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="135">
   <si>
     <t>해야할 일</t>
   </si>
@@ -442,11 +442,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>박한솔 건강검진 시작
-일상폴더 210803 검색</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>장모님 생신
 (음력 4/16)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -546,61 +541,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>정봉현, 노숙진 생일
-고대치기공, 지산고 회비 입금
-7시반 신논현 류재열, 이승배</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>송포갈비 - 혜장국
-11시30분
-웨스턴 조선호텔 셔블 예약</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>웨스틴 조선 부산 셔블
 박한솔 돌잔치</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>저녁 6시 혜화 박용현, 윤석원
-도토리편백집-이마쇼쿠-
-리춘시장-노원 용현이형 집</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신의주 순대국 - 메가커피</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>강신구 형님 교정과 오픈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>3시30분? 박한솔 돌사진</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>19시 마곡나루 icst 모임
-크라운호프
-20시반 에어부산 김포-&gt;김해</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>경주 교리김밥 - 페이지나인 -
-한화리조트 경주콘도
-예약번호 9295</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>오스테리아밀즈 - 월정교 -
-한화리조트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보문호 산책 - 라한셀렉트 -
-경주 원조콩국 - 장전동 집 -
-영남식육식당</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -622,6 +568,20 @@
   <si>
     <t>오전 할머니, 점심 암소갈비??
 20시 에어부산 김해-&gt;김포</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>과학기술인공제회 적금 입금
+고대치기공, 지산고 회비 입금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상암 U+ 통합아키 철수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강신구 형님 교정과 오픈
+LG 에너지솔루션 투입</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -912,13 +872,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1247,10 +1207,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:N83"/>
+  <dimension ref="A1:M77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1263,7 +1223,7 @@
     <col min="15" max="16384" width="8.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="35.1" customHeight="1">
+    <row r="1" spans="1:13" ht="35.1" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>100</v>
       </c>
@@ -1289,144 +1249,162 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="35.1" customHeight="1">
+    <row r="2" spans="1:13" ht="35.1" customHeight="1">
       <c r="A2" s="20"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="B2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="G2" s="1" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="50.1" customHeight="1">
-      <c r="A3" s="21"/>
-      <c r="B3" s="10"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A3" s="20"/>
+      <c r="B3" s="10" t="s">
+        <v>128</v>
+      </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="N3" s="11"/>
-    </row>
-    <row r="4" spans="1:14" ht="50.1" customHeight="1">
-      <c r="A4" s="21"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A4" s="20"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="35.1" customHeight="1">
-      <c r="A5" s="21"/>
+        <v>133</v>
+      </c>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A5" s="20"/>
       <c r="B5" s="8" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="50.1" customHeight="1">
-      <c r="A6" s="21"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A6" s="20"/>
       <c r="B6" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
+      <c r="C6" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>116</v>
+      </c>
       <c r="F6" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="50.1" customHeight="1">
-      <c r="A7" s="21"/>
+        <v>116</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A7" s="20"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="10" t="s">
-        <v>136</v>
-      </c>
+      <c r="G7" s="10"/>
       <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:14" ht="35.1" customHeight="1">
-      <c r="A8" s="21"/>
+      <c r="M7" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A8" s="20"/>
       <c r="B8" s="8" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="50.1" customHeight="1">
-      <c r="A9" s="21"/>
-      <c r="B9" s="10" t="s">
-        <v>138</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A9" s="20"/>
+      <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
+      <c r="E9" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>115</v>
+      </c>
       <c r="G9" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="50.1" customHeight="1">
+        <v>127</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="M9" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="50.1" customHeight="1">
       <c r="A10" s="21"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -1435,195 +1413,180 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="1:14" ht="35.1" customHeight="1">
-      <c r="A11" s="21"/>
-      <c r="B11" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="50.1" customHeight="1">
-      <c r="A12" s="21"/>
-      <c r="B12" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C12" s="10" t="s">
+      <c r="M10" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A12" s="19"/>
+      <c r="B12" s="17">
+        <v>1</v>
+      </c>
+      <c r="C12" s="18">
+        <v>2</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A13" s="19"/>
+      <c r="B13" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="1:14" ht="50.1" customHeight="1">
-      <c r="A13" s="21"/>
-      <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
-      <c r="M13" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="35.1" customHeight="1">
-      <c r="A14" s="21"/>
-      <c r="B14" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="M14" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="50.1" customHeight="1">
-      <c r="A15" s="21"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="H15" s="10"/>
-      <c r="M15" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="50.1" customHeight="1">
-      <c r="A16" s="22"/>
+      <c r="M13" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A14" s="19"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A15" s="19"/>
+      <c r="B15" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A16" s="19"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
+      <c r="F16" s="10" t="s">
+        <v>102</v>
+      </c>
       <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="M16" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A17" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="M17" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="35.1" customHeight="1">
+      <c r="H16" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A17" s="19"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" ht="35.1" customHeight="1">
       <c r="A18" s="19"/>
-      <c r="B18" s="17">
-        <v>1</v>
-      </c>
-      <c r="C18" s="18">
-        <v>2</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>99</v>
+      <c r="B18" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>108</v>
+        <v>57</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M18" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="50.1" customHeight="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="50.1" customHeight="1">
       <c r="A19" s="19"/>
-      <c r="B19" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>104</v>
+      </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="M19" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="50.1" customHeight="1">
+      <c r="H19" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="50.1" customHeight="1">
       <c r="A20" s="19"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -1633,95 +1596,87 @@
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
     </row>
-    <row r="21" spans="1:13" ht="35.1" customHeight="1">
+    <row r="21" spans="1:8" ht="35.1" customHeight="1">
       <c r="A21" s="19"/>
       <c r="B21" s="8" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="50.1" customHeight="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="50.1" customHeight="1">
       <c r="A22" s="19"/>
-      <c r="B22" s="10"/>
+      <c r="B22" s="10" t="s">
+        <v>105</v>
+      </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10" t="s">
-        <v>102</v>
-      </c>
+      <c r="E22" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" s="10"/>
       <c r="G22" s="10"/>
-      <c r="H22" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="50.1" customHeight="1">
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="1:8" ht="50.1" customHeight="1">
       <c r="A23" s="19"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
+      <c r="E23" s="10" t="s">
+        <v>116</v>
+      </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
     </row>
-    <row r="24" spans="1:13" ht="35.1" customHeight="1">
+    <row r="24" spans="1:8" ht="35.1" customHeight="1">
       <c r="A24" s="19"/>
       <c r="B24" s="8" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="50.1" customHeight="1">
+        <v>98</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+    </row>
+    <row r="25" spans="1:8" ht="50.1" customHeight="1">
       <c r="A25" s="19"/>
       <c r="B25" s="10"/>
-      <c r="C25" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10" t="s">
+        <v>110</v>
+      </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="50.1" customHeight="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="50.1" customHeight="1">
       <c r="A26" s="19"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -1729,156 +1684,160 @@
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-    </row>
-    <row r="27" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A27" s="19"/>
-      <c r="B27" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A28" s="19"/>
-      <c r="B28" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-    </row>
-    <row r="29" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A29" s="19"/>
+      <c r="H26" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A27" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A28" s="22"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A29" s="20"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
     </row>
-    <row r="30" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A30" s="19"/>
-      <c r="B30" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-    </row>
-    <row r="31" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A31" s="19"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A32" s="19"/>
+    <row r="30" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A30" s="20"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+    </row>
+    <row r="31" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A31" s="20"/>
+      <c r="B31" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A32" s="20"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A33" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="G32" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="H32" s="10"/>
+    </row>
+    <row r="33" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A33" s="20"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
     </row>
     <row r="34" spans="1:8" ht="35.1" customHeight="1">
       <c r="A34" s="20"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="15"/>
+      <c r="B34" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="E34" s="1" t="s">
-        <v>119</v>
+        <v>67</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A35" s="21"/>
+      <c r="A35" s="20"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
+      <c r="E35" s="10" t="s">
+        <v>124</v>
+      </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
     </row>
     <row r="36" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A36" s="21"/>
+      <c r="A36" s="20"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
@@ -1888,43 +1847,41 @@
       <c r="H36" s="10"/>
     </row>
     <row r="37" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A37" s="21"/>
+      <c r="A37" s="20"/>
       <c r="B37" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A38" s="21"/>
+      <c r="A38" s="20"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
-      <c r="G38" s="10" t="s">
-        <v>124</v>
-      </c>
+      <c r="G38" s="10"/>
       <c r="H38" s="10"/>
     </row>
     <row r="39" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A39" s="21"/>
+      <c r="A39" s="20"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
@@ -1934,37 +1891,31 @@
       <c r="H39" s="10"/>
     </row>
     <row r="40" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A40" s="21"/>
+      <c r="A40" s="20"/>
       <c r="B40" s="8" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>57</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
     </row>
     <row r="41" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A41" s="21"/>
+      <c r="A41" s="20"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
-      <c r="E41" s="10" t="s">
-        <v>125</v>
-      </c>
+      <c r="E41" s="10"/>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
@@ -1980,81 +1931,97 @@
       <c r="H42" s="10"/>
     </row>
     <row r="43" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A43" s="21"/>
-      <c r="B43" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A44" s="21"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
+      <c r="A43" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A44" s="19"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="45" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A45" s="21"/>
+      <c r="A45" s="19"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-    </row>
-    <row r="46" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A46" s="21"/>
-      <c r="B46" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-    </row>
-    <row r="47" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A47" s="21"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
+      <c r="F45" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A46" s="19"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+    </row>
+    <row r="47" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A47" s="19"/>
+      <c r="B47" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="48" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A48" s="22"/>
+      <c r="A48" s="19"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
@@ -2063,44 +2030,38 @@
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
     </row>
-    <row r="49" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A49" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>48</v>
-      </c>
+    <row r="49" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A49" s="19"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
     </row>
     <row r="50" spans="1:8" ht="35.1" customHeight="1">
       <c r="A50" s="19"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
+      <c r="B50" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="G50" s="1" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="50.1" customHeight="1">
@@ -2108,14 +2069,12 @@
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10" t="s">
-        <v>118</v>
-      </c>
+      <c r="E51" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="F51" s="10"/>
       <c r="G51" s="10"/>
-      <c r="H51" s="10" t="s">
-        <v>129</v>
-      </c>
+      <c r="H51" s="10"/>
     </row>
     <row r="52" spans="1:8" ht="50.1" customHeight="1">
       <c r="A52" s="19"/>
@@ -2130,25 +2089,25 @@
     <row r="53" spans="1:8" ht="35.1" customHeight="1">
       <c r="A53" s="19"/>
       <c r="B53" s="8" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="50.1" customHeight="1">
@@ -2174,25 +2133,25 @@
     <row r="56" spans="1:8" ht="35.1" customHeight="1">
       <c r="A56" s="19"/>
       <c r="B56" s="8" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="50.1" customHeight="1">
@@ -2200,9 +2159,7 @@
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
-      <c r="E57" s="10" t="s">
-        <v>125</v>
-      </c>
+      <c r="E57" s="10"/>
       <c r="F57" s="10"/>
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
@@ -2220,26 +2177,14 @@
     <row r="59" spans="1:8" ht="35.1" customHeight="1">
       <c r="A59" s="19"/>
       <c r="B59" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
     </row>
     <row r="60" spans="1:8" ht="50.1" customHeight="1">
       <c r="A60" s="19"/>
@@ -2262,127 +2207,143 @@
       <c r="H61" s="10"/>
     </row>
     <row r="62" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A62" s="19"/>
-      <c r="B62" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A62" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="35.1" customHeight="1">
       <c r="A63" s="19"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="18">
+        <v>1</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="64" spans="1:8" ht="50.1" customHeight="1">
       <c r="A64" s="19"/>
       <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
+      <c r="C64" s="10" t="s">
+        <v>132</v>
+      </c>
       <c r="D64" s="10"/>
       <c r="E64" s="10"/>
       <c r="F64" s="10"/>
       <c r="G64" s="10"/>
       <c r="H64" s="10"/>
     </row>
-    <row r="65" spans="1:8" ht="35.1" customHeight="1">
+    <row r="65" spans="1:8" ht="50.1" customHeight="1">
       <c r="A65" s="19"/>
-      <c r="B65" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12"/>
-      <c r="G65" s="12"/>
-      <c r="H65" s="12"/>
-    </row>
-    <row r="66" spans="1:8" ht="50.1" customHeight="1">
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+    </row>
+    <row r="66" spans="1:8" ht="35.1" customHeight="1">
       <c r="A66" s="19"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="10"/>
+      <c r="B66" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="67" spans="1:8" ht="50.1" customHeight="1">
       <c r="A67" s="19"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
+      <c r="E67" s="10" t="s">
+        <v>111</v>
+      </c>
       <c r="F67" s="10"/>
       <c r="G67" s="10"/>
       <c r="H67" s="10"/>
     </row>
-    <row r="68" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A68" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>48</v>
-      </c>
+    <row r="68" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A68" s="19"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
     </row>
     <row r="69" spans="1:8" ht="35.1" customHeight="1">
       <c r="A69" s="19"/>
-      <c r="B69" s="13"/>
-      <c r="C69" s="18">
-        <v>1</v>
-      </c>
-      <c r="D69" s="16" t="s">
-        <v>120</v>
+      <c r="B69" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="50.1" customHeight="1">
@@ -2408,25 +2369,25 @@
     <row r="72" spans="1:8" ht="35.1" customHeight="1">
       <c r="A72" s="19"/>
       <c r="B72" s="8" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="50.1" customHeight="1">
@@ -2434,9 +2395,7 @@
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
       <c r="D73" s="10"/>
-      <c r="E73" s="10" t="s">
-        <v>112</v>
-      </c>
+      <c r="E73" s="10"/>
       <c r="F73" s="10"/>
       <c r="G73" s="10"/>
       <c r="H73" s="10"/>
@@ -2454,26 +2413,20 @@
     <row r="75" spans="1:8" ht="35.1" customHeight="1">
       <c r="A75" s="19"/>
       <c r="B75" s="8" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>84</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
     </row>
     <row r="76" spans="1:8" ht="50.1" customHeight="1">
       <c r="A76" s="19"/>
@@ -2495,95 +2448,13 @@
       <c r="G77" s="10"/>
       <c r="H77" s="10"/>
     </row>
-    <row r="78" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A78" s="19"/>
-      <c r="B78" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A79" s="19"/>
-      <c r="B79" s="10"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="10"/>
-      <c r="G79" s="10"/>
-      <c r="H79" s="10"/>
-    </row>
-    <row r="80" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A80" s="19"/>
-      <c r="B80" s="10"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="10"/>
-      <c r="G80" s="10"/>
-      <c r="H80" s="10"/>
-    </row>
-    <row r="81" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A81" s="19"/>
-      <c r="B81" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F81" s="12"/>
-      <c r="G81" s="12"/>
-      <c r="H81" s="12"/>
-    </row>
-    <row r="82" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A82" s="19"/>
-      <c r="B82" s="10"/>
-      <c r="C82" s="10"/>
-      <c r="D82" s="10"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
-      <c r="G82" s="10"/>
-      <c r="H82" s="10"/>
-    </row>
-    <row r="83" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A83" s="19"/>
-      <c r="B83" s="10"/>
-      <c r="C83" s="10"/>
-      <c r="D83" s="10"/>
-      <c r="E83" s="10"/>
-      <c r="F83" s="10"/>
-      <c r="G83" s="10"/>
-      <c r="H83" s="10"/>
-    </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A69:A83"/>
-    <mergeCell ref="A2:A16"/>
-    <mergeCell ref="A18:A32"/>
-    <mergeCell ref="A34:A48"/>
-    <mergeCell ref="A50:A67"/>
+    <mergeCell ref="A63:A77"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A12:A26"/>
+    <mergeCell ref="A28:A42"/>
+    <mergeCell ref="A44:A61"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2868,6 +2739,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F91E044E3A9D84A8197B09587594D86" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a727839579f0816cd156df87ac1abb38">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4b137422-f48a-46a4-80bc-5707d2d59248" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c55dfd8d1a660179b90c490e9dacc3e0" ns3:_="">
     <xsd:import namespace="4b137422-f48a-46a4-80bc-5707d2d59248"/>
@@ -2999,35 +2885,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3049,9 +2910,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534A2BFC-CA9A-4110-9D7F-87AC3F1E1F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F344F0-D88E-4874-B119-3BB0833CDBEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="330" yWindow="1740" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="일정" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="137">
   <si>
     <t>해야할 일</t>
   </si>
@@ -582,6 +582,14 @@
   <si>
     <t>강신구 형님 교정과 오픈
 LG 에너지솔루션 투입</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이재관 조카 돌잔치 물어보기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COS PRO 1급 자바 강의 종료</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1531,7 +1539,9 @@
       <c r="F16" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="G16" s="10"/>
+      <c r="G16" s="10" t="s">
+        <v>136</v>
+      </c>
       <c r="H16" s="10" t="s">
         <v>125</v>
       </c>
@@ -1544,7 +1554,9 @@
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
+      <c r="H17" s="10" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="35.1" customHeight="1">
       <c r="A18" s="19"/>

--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F344F0-D88E-4874-B119-3BB0833CDBEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CDC8544-6766-4E37-8A46-56F8A7C434F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="1740" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="일정" sheetId="1" r:id="rId1"/>
@@ -560,36 +560,36 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>오전 할머니, 점심 암소갈비??
+20시 에어부산 김해-&gt;김포</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>과학기술인공제회 적금 입금
+고대치기공, 지산고 회비 입금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상암 U+ 통합아키 철수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강신구 형님 교정과 오픈
+LG 에너지솔루션 투입</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이재관 조카 돌잔치 물어보기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COS PRO 1급 자바 강의 종료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>부산 샘플, 스프레이 가져가기
 21시반 에어부산 김포-&gt;김해
-저녁 루체브릿지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>오전 할머니, 점심 암소갈비??
-20시 에어부산 김해-&gt;김포</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>과학기술인공제회 적금 입금
-고대치기공, 지산고 회비 입금</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상암 U+ 통합아키 철수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>강신구 형님 교정과 오픈
-LG 에너지솔루션 투입</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이재관 조카 돌잔치 물어보기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>COS PRO 1급 자바 강의 종료</t>
+7시 루체브릿지 발산 원당곱창</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1217,9 +1217,7 @@
   </sheetPr>
   <dimension ref="A1:M77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
@@ -1291,7 +1289,7 @@
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>129</v>
@@ -1305,7 +1303,7 @@
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H4" s="10"/>
     </row>
@@ -1336,10 +1334,10 @@
     <row r="6" spans="1:13" ht="50.1" customHeight="1">
       <c r="A6" s="20"/>
       <c r="B6" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>112</v>
@@ -1484,7 +1482,7 @@
     <row r="13" spans="1:13" ht="50.1" customHeight="1">
       <c r="A13" s="19"/>
       <c r="B13" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -1540,7 +1538,7 @@
         <v>102</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H16" s="10" t="s">
         <v>125</v>
@@ -1555,7 +1553,7 @@
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="35.1" customHeight="1">
@@ -1750,7 +1748,7 @@
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
@@ -1992,7 +1990,7 @@
         <v>117</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H45" s="10" t="s">
         <v>126</v>
@@ -2270,7 +2268,7 @@
       <c r="A64" s="19"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D64" s="10"/>
       <c r="E64" s="10"/>
@@ -2751,21 +2749,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F91E044E3A9D84A8197B09587594D86" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a727839579f0816cd156df87ac1abb38">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4b137422-f48a-46a4-80bc-5707d2d59248" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c55dfd8d1a660179b90c490e9dacc3e0" ns3:_="">
     <xsd:import namespace="4b137422-f48a-46a4-80bc-5707d2d59248"/>
@@ -2897,10 +2880,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2922,19 +2930,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CDC8544-6766-4E37-8A46-56F8A7C434F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52D6D89-759D-449B-99B7-35A13C916948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="129">
   <si>
     <t>해야할 일</t>
   </si>
@@ -451,10 +451,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>조영민 생일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>이상아 생일</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -472,17 +468,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>고대치기공, 지산고 회비 입금</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>8/10 휴대폰 선택약정 신청</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>과학기술인으뜸적금 가입하기
-50만원. 0.3% 청년우대 확인
-IRP도 25만..?</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -550,46 +536,24 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>선두구동 주민센터 -
-대우아파트 - 동래롯데백화점-
-21시 에어부산 김해-&gt;김포</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가족 시민공원??</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>오전 할머니, 점심 암소갈비??
-20시 에어부산 김해-&gt;김포</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>과학기술인공제회 적금 입금
 고대치기공, 지산고 회비 입금</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>상암 U+ 통합아키 철수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>강신구 형님 교정과 오픈
-LG 에너지솔루션 투입</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>이재관 조카 돌잔치 물어보기</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>COS PRO 1급 자바 강의 종료</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>부산 샘플, 스프레이 가져가기
-21시반 에어부산 김포-&gt;김해
-7시 루체브릿지 발산 원당곱창</t>
+    <t>조영민 생일
+12시20분 이효림 결혼
+센텀사이언스파크 별관4층</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COS PRO 1급 자바 강의 종료
+일시정지로 미뤄짐
+확인해봐야함</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1215,9 +1179,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
@@ -1229,7 +1195,7 @@
     <col min="15" max="16384" width="8.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="35.1" customHeight="1">
+    <row r="1" spans="1:13" ht="34.5" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>100</v>
       </c>
@@ -1258,240 +1224,218 @@
     <row r="2" spans="1:13" ht="35.1" customHeight="1">
       <c r="A2" s="20"/>
       <c r="B2" s="8" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="50.1" customHeight="1">
       <c r="A3" s="20"/>
-      <c r="B3" s="10" t="s">
-        <v>128</v>
-      </c>
+      <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
+      <c r="E3" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="G3" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>129</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A4" s="20"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
-      <c r="G4" s="10" t="s">
-        <v>132</v>
-      </c>
+      <c r="G4" s="10"/>
       <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A5" s="20"/>
-      <c r="B5" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A6" s="20"/>
-      <c r="B6" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
+      <c r="A5" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A6" s="19"/>
+      <c r="B6" s="17">
+        <v>1</v>
+      </c>
+      <c r="C6" s="18">
+        <v>2</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="7" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A7" s="20"/>
-      <c r="B7" s="10"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="10" t="s">
+        <v>125</v>
+      </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
-      <c r="M7" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A8" s="20"/>
-      <c r="B8" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="M8" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A9" s="20"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="H9" s="10"/>
-      <c r="M9" s="4" t="s">
-        <v>76</v>
+    </row>
+    <row r="8" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A8" s="19"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A9" s="19"/>
+      <c r="B9" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A10" s="21"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="M10" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A11" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>78</v>
+      <c r="F10" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A11" s="19"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="35.1" customHeight="1">
       <c r="A12" s="19"/>
-      <c r="B12" s="17">
-        <v>1</v>
-      </c>
-      <c r="C12" s="18">
-        <v>2</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>99</v>
+      <c r="B12" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>107</v>
+        <v>57</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M12" s="11" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="50.1" customHeight="1">
       <c r="A13" s="19"/>
-      <c r="B13" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>104</v>
+      </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="M13" s="4" t="s">
-        <v>81</v>
+      <c r="H13" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="50.1" customHeight="1">
@@ -1503,100 +1447,106 @@
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
+      <c r="M14" s="11" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="15" spans="1:13" ht="35.1" customHeight="1">
       <c r="A15" s="19"/>
       <c r="B15" s="8" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>70</v>
+        <v>87</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="50.1" customHeight="1">
       <c r="A16" s="19"/>
-      <c r="B16" s="10"/>
+      <c r="B16" s="10" t="s">
+        <v>127</v>
+      </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="50.1" customHeight="1">
+      <c r="E16" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="M16" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="50.1" customHeight="1">
       <c r="A17" s="19"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
+      <c r="E17" s="10" t="s">
+        <v>113</v>
+      </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="35.1" customHeight="1">
+      <c r="H17" s="10"/>
+      <c r="M17" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="35.1" customHeight="1">
       <c r="A18" s="19"/>
       <c r="B18" s="8" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="50.1" customHeight="1">
+        <v>98</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="M18" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="50.1" customHeight="1">
       <c r="A19" s="19"/>
       <c r="B19" s="10"/>
-      <c r="C19" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10" t="s">
+        <v>125</v>
+      </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="50.1" customHeight="1">
+        <v>91</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="50.1" customHeight="1">
       <c r="A20" s="19"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -1604,157 +1554,159 @@
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-    </row>
-    <row r="21" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A21" s="19"/>
-      <c r="B21" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A22" s="19"/>
-      <c r="B22" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-    </row>
-    <row r="23" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A23" s="19"/>
+      <c r="H20" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A21" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A22" s="22"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A23" s="20"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
     </row>
-    <row r="24" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A24" s="19"/>
-      <c r="B24" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-    </row>
-    <row r="25" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A25" s="19"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A26" s="19"/>
+    <row r="24" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A24" s="20"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+    </row>
+    <row r="25" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A25" s="20"/>
+      <c r="B25" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A26" s="20"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A27" s="2" t="s">
+      <c r="G26" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A28" s="22"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="15"/>
+      <c r="H26" s="10"/>
+    </row>
+    <row r="27" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A27" s="20"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+    </row>
+    <row r="28" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A28" s="20"/>
+      <c r="B28" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="E28" s="1" t="s">
-        <v>118</v>
+        <v>67</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>119</v>
+        <v>55</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="50.1" customHeight="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="50.1" customHeight="1">
       <c r="A29" s="20"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
     </row>
-    <row r="30" spans="1:8" ht="50.1" customHeight="1">
+    <row r="30" spans="1:13" ht="50.1" customHeight="1">
       <c r="A30" s="20"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -1764,40 +1716,38 @@
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
     </row>
-    <row r="31" spans="1:8" ht="35.1" customHeight="1">
+    <row r="31" spans="1:13" ht="35.1" customHeight="1">
       <c r="A31" s="20"/>
       <c r="B31" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="50.1" customHeight="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="50.1" customHeight="1">
       <c r="A32" s="20"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="10" t="s">
-        <v>123</v>
-      </c>
+      <c r="G32" s="10"/>
       <c r="H32" s="10"/>
     </row>
     <row r="33" spans="1:8" ht="50.1" customHeight="1">
@@ -1813,41 +1763,35 @@
     <row r="34" spans="1:8" ht="35.1" customHeight="1">
       <c r="A34" s="20"/>
       <c r="B34" s="8" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>57</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
     </row>
     <row r="35" spans="1:8" ht="50.1" customHeight="1">
       <c r="A35" s="20"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
-      <c r="E35" s="10" t="s">
-        <v>124</v>
-      </c>
+      <c r="E35" s="10"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
     </row>
     <row r="36" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A36" s="20"/>
+      <c r="A36" s="21"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
@@ -1857,81 +1801,97 @@
       <c r="H36" s="10"/>
     </row>
     <row r="37" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A37" s="20"/>
-      <c r="B37" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A38" s="20"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
+      <c r="A37" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A38" s="19"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="39" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A39" s="20"/>
+      <c r="A39" s="19"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-    </row>
-    <row r="40" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A40" s="20"/>
-      <c r="B40" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-    </row>
-    <row r="41" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A41" s="20"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
+      <c r="F39" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A40" s="19"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+    </row>
+    <row r="41" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A41" s="19"/>
+      <c r="B41" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="42" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A42" s="21"/>
+      <c r="A42" s="19"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
@@ -1940,44 +1900,38 @@
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
     </row>
-    <row r="43" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A43" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>48</v>
-      </c>
+    <row r="43" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A43" s="19"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
     </row>
     <row r="44" spans="1:8" ht="35.1" customHeight="1">
       <c r="A44" s="19"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
+      <c r="B44" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="G44" s="1" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="50.1" customHeight="1">
@@ -1985,16 +1939,12 @@
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="H45" s="10" t="s">
-        <v>126</v>
-      </c>
+      <c r="E45" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
     </row>
     <row r="46" spans="1:8" ht="50.1" customHeight="1">
       <c r="A46" s="19"/>
@@ -2009,25 +1959,25 @@
     <row r="47" spans="1:8" ht="35.1" customHeight="1">
       <c r="A47" s="19"/>
       <c r="B47" s="8" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="50.1" customHeight="1">
@@ -2053,25 +2003,25 @@
     <row r="50" spans="1:8" ht="35.1" customHeight="1">
       <c r="A50" s="19"/>
       <c r="B50" s="8" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="50.1" customHeight="1">
@@ -2079,9 +2029,7 @@
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
-      <c r="E51" s="10" t="s">
-        <v>124</v>
-      </c>
+      <c r="E51" s="10"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
@@ -2099,26 +2047,14 @@
     <row r="53" spans="1:8" ht="35.1" customHeight="1">
       <c r="A53" s="19"/>
       <c r="B53" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
     </row>
     <row r="54" spans="1:8" ht="50.1" customHeight="1">
       <c r="A54" s="19"/>
@@ -2141,135 +2077,149 @@
       <c r="H55" s="10"/>
     </row>
     <row r="56" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A56" s="19"/>
-      <c r="B56" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A56" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="35.1" customHeight="1">
       <c r="A57" s="19"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="18">
+        <v>1</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="58" spans="1:8" ht="50.1" customHeight="1">
       <c r="A58" s="19"/>
       <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
+      <c r="C58" s="10" t="s">
+        <v>125</v>
+      </c>
       <c r="D58" s="10"/>
       <c r="E58" s="10"/>
       <c r="F58" s="10"/>
       <c r="G58" s="10"/>
       <c r="H58" s="10"/>
     </row>
-    <row r="59" spans="1:8" ht="35.1" customHeight="1">
+    <row r="59" spans="1:8" ht="50.1" customHeight="1">
       <c r="A59" s="19"/>
-      <c r="B59" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
-    </row>
-    <row r="60" spans="1:8" ht="50.1" customHeight="1">
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+    </row>
+    <row r="60" spans="1:8" ht="35.1" customHeight="1">
       <c r="A60" s="19"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
+      <c r="B60" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="61" spans="1:8" ht="50.1" customHeight="1">
       <c r="A61" s="19"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
+      <c r="E61" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="F61" s="10"/>
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
     </row>
-    <row r="62" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A62" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>48</v>
-      </c>
+    <row r="62" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A62" s="19"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
     </row>
     <row r="63" spans="1:8" ht="35.1" customHeight="1">
       <c r="A63" s="19"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="18">
-        <v>1</v>
-      </c>
-      <c r="D63" s="16" t="s">
-        <v>119</v>
+      <c r="B63" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="50.1" customHeight="1">
       <c r="A64" s="19"/>
       <c r="B64" s="10"/>
-      <c r="C64" s="10" t="s">
-        <v>131</v>
-      </c>
+      <c r="C64" s="10"/>
       <c r="D64" s="10"/>
       <c r="E64" s="10"/>
       <c r="F64" s="10"/>
@@ -2289,25 +2239,25 @@
     <row r="66" spans="1:8" ht="35.1" customHeight="1">
       <c r="A66" s="19"/>
       <c r="B66" s="8" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="50.1" customHeight="1">
@@ -2315,9 +2265,7 @@
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
-      <c r="E67" s="10" t="s">
-        <v>111</v>
-      </c>
+      <c r="E67" s="10"/>
       <c r="F67" s="10"/>
       <c r="G67" s="10"/>
       <c r="H67" s="10"/>
@@ -2335,26 +2283,20 @@
     <row r="69" spans="1:8" ht="35.1" customHeight="1">
       <c r="A69" s="19"/>
       <c r="B69" s="8" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>84</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
     </row>
     <row r="70" spans="1:8" ht="50.1" customHeight="1">
       <c r="A70" s="19"/>
@@ -2376,95 +2318,13 @@
       <c r="G71" s="10"/>
       <c r="H71" s="10"/>
     </row>
-    <row r="72" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A72" s="19"/>
-      <c r="B72" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A73" s="19"/>
-      <c r="B73" s="10"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10"/>
-      <c r="G73" s="10"/>
-      <c r="H73" s="10"/>
-    </row>
-    <row r="74" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A74" s="19"/>
-      <c r="B74" s="10"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
-      <c r="H74" s="10"/>
-    </row>
-    <row r="75" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A75" s="19"/>
-      <c r="B75" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F75" s="12"/>
-      <c r="G75" s="12"/>
-      <c r="H75" s="12"/>
-    </row>
-    <row r="76" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A76" s="19"/>
-      <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
-    </row>
-    <row r="77" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A77" s="19"/>
-      <c r="B77" s="10"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="10"/>
-      <c r="H77" s="10"/>
-    </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A63:A77"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="A12:A26"/>
-    <mergeCell ref="A28:A42"/>
-    <mergeCell ref="A44:A61"/>
+    <mergeCell ref="A57:A71"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A6:A20"/>
+    <mergeCell ref="A22:A36"/>
+    <mergeCell ref="A38:A55"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2749,6 +2609,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F91E044E3A9D84A8197B09587594D86" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a727839579f0816cd156df87ac1abb38">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4b137422-f48a-46a4-80bc-5707d2d59248" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c55dfd8d1a660179b90c490e9dacc3e0" ns3:_="">
     <xsd:import namespace="4b137422-f48a-46a4-80bc-5707d2d59248"/>
@@ -2880,35 +2755,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2930,9 +2780,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52D6D89-759D-449B-99B7-35A13C916948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FA463C-9BD4-4FA0-A780-DFAA0D5AC838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1182,7 +1182,7 @@
   <dimension ref="A1:M71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -2609,21 +2609,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F91E044E3A9D84A8197B09587594D86" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a727839579f0816cd156df87ac1abb38">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4b137422-f48a-46a4-80bc-5707d2d59248" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c55dfd8d1a660179b90c490e9dacc3e0" ns3:_="">
     <xsd:import namespace="4b137422-f48a-46a4-80bc-5707d2d59248"/>
@@ -2755,10 +2740,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2780,19 +2790,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FA463C-9BD4-4FA0-A780-DFAA0D5AC838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8056EA-DCD1-4E7E-9595-F0682BE79A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="130">
   <si>
     <t>해야할 일</t>
   </si>
@@ -451,10 +451,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>이상아 생일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>5 (어린이날)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -532,10 +528,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3시30분? 박한솔 돌사진</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>과학기술인공제회 적금 입금
 고대치기공, 지산고 회비 입금</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -554,6 +546,22 @@
     <t>COS PRO 1급 자바 강의 종료
 일시정지로 미뤄짐
 확인해봐야함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12시반 에어부산 김포-&gt;김해
+3시30분? 박한솔 돌사진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심 조선화, 배건원
+9시반 에어부산 김해-&gt;김포</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11시30분 박한솔 영유아검진
+금정소아청소년과의원
+이상아 생일</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1182,7 +1190,7 @@
   <dimension ref="A1:M71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1250,14 +1258,12 @@
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
-      <c r="E3" s="10" t="s">
-        <v>110</v>
-      </c>
+      <c r="E3" s="10"/>
       <c r="F3" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H3" s="10"/>
     </row>
@@ -1312,7 +1318,7 @@
         <v>100</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>49</v>
@@ -1324,18 +1330,22 @@
     <row r="7" spans="1:13" ht="50.1" customHeight="1">
       <c r="A7" s="19"/>
       <c r="B7" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
+      <c r="G7" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:13" ht="50.1" customHeight="1">
       <c r="A8" s="19"/>
-      <c r="B8" s="10"/>
+      <c r="B8" s="10" t="s">
+        <v>128</v>
+      </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
@@ -1346,7 +1356,7 @@
     <row r="9" spans="1:13" ht="35.1" customHeight="1">
       <c r="A9" s="19"/>
       <c r="B9" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>68</v>
@@ -1377,10 +1387,10 @@
         <v>102</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="50.1" customHeight="1">
@@ -1392,7 +1402,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="35.1" customHeight="1">
@@ -1432,7 +1442,7 @@
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M13" s="11" t="s">
         <v>74</v>
@@ -1481,12 +1491,12 @@
     <row r="16" spans="1:13" ht="50.1" customHeight="1">
       <c r="A16" s="19"/>
       <c r="B16" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
@@ -1501,7 +1511,7 @@
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
@@ -1535,7 +1545,7 @@
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
@@ -1555,12 +1565,12 @@
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="35.1" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>43</v>
@@ -1590,10 +1600,10 @@
       <c r="C22" s="14"/>
       <c r="D22" s="15"/>
       <c r="E22" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>79</v>
@@ -1608,7 +1618,7 @@
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
@@ -1656,7 +1666,7 @@
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
       <c r="G26" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H26" s="10"/>
     </row>
@@ -1700,7 +1710,7 @@
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
@@ -1802,7 +1812,7 @@
     </row>
     <row r="37" spans="1:8" ht="35.1" customHeight="1">
       <c r="A37" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>43</v>
@@ -1847,13 +1857,13 @@
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="50.1" customHeight="1">
@@ -1940,7 +1950,7 @@
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
       <c r="E45" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
@@ -2078,7 +2088,7 @@
     </row>
     <row r="56" spans="1:8" ht="35.1" customHeight="1">
       <c r="A56" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>43</v>
@@ -2109,7 +2119,7 @@
         <v>1</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>99</v>
@@ -2128,7 +2138,7 @@
       <c r="A58" s="19"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D58" s="10"/>
       <c r="E58" s="10"/>
@@ -2176,7 +2186,7 @@
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
       <c r="E61" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F61" s="10"/>
       <c r="G61" s="10"/>
@@ -2609,6 +2619,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F91E044E3A9D84A8197B09587594D86" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a727839579f0816cd156df87ac1abb38">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4b137422-f48a-46a4-80bc-5707d2d59248" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c55dfd8d1a660179b90c490e9dacc3e0" ns3:_="">
     <xsd:import namespace="4b137422-f48a-46a4-80bc-5707d2d59248"/>
@@ -2740,35 +2765,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2790,9 +2790,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8056EA-DCD1-4E7E-9595-F0682BE79A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4153F482-B8E1-45AC-BE9E-C690727A0594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="131">
   <si>
     <t>해야할 일</t>
   </si>
@@ -562,6 +562,10 @@
     <t>11시30분 박한솔 영유아검진
 금정소아청소년과의원
 이상아 생일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에어부산 스탬프 사용하기</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1190,7 +1194,7 @@
   <dimension ref="A1:M71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1400,7 +1404,9 @@
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
+      <c r="G11" s="10" t="s">
+        <v>130</v>
+      </c>
       <c r="H11" s="10" t="s">
         <v>124</v>
       </c>

--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4153F482-B8E1-45AC-BE9E-C690727A0594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC8CADF-4F4D-4589-9F8B-6E3FEEF380F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="136">
   <si>
     <t>해야할 일</t>
   </si>
@@ -405,10 +405,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>26</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>27</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -468,15 +464,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>헌혈가능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>15시~ TCT 개발언어 시험</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10시~ TCT 개발언어 시험</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -543,29 +531,65 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>COS PRO 1급 자바 강의 종료
-일시정지로 미뤄짐
-확인해봐야함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12시반 에어부산 김포-&gt;김해
-3시30분? 박한솔 돌사진</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>점심 조선화, 배건원
-9시반 에어부산 김해-&gt;김포</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>11시30분 박한솔 영유아검진
 금정소아청소년과의원
 이상아 생일</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>에어부산 스탬프 사용하기</t>
+    <t>과학기술인공제회 적금 입금
+고대치기공, 지산고 회비 입금
+선두구동 주민센터 -</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심 금정산성 다목적광장
+조선화, 배건원 - 가야밀면
+9시반 에어부산 김해-&gt;김포</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COS PRO 1급 자바 강의 종료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>21시반 에어부산 김포-&gt;김해</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5시 경기떡집
+2색이티, 완두시루떡
+18시반 에어부산 김포-&gt;김해</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>21시 에어부산 김해-&gt;김포</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5시 우정갈비 어버이날</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장전동.. 어버이날?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁 김정모, 김재경, 송성윤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심 장모님 생신잔치
+7시35분 에어부산 김해-&gt;김포</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁 송성윤
+반샤쿠 - 꼬지사께 영등포점</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12시 헌혈의집 영등포센터</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -856,13 +880,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1191,10 +1215,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:M71"/>
+  <dimension ref="A1:M67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1207,7 +1231,7 @@
     <col min="15" max="16384" width="8.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="34.5" customHeight="1">
+    <row r="1" spans="1:8" ht="35.1" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>100</v>
       </c>
@@ -1233,531 +1257,521 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A2" s="20"/>
-      <c r="B2" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>94</v>
+    <row r="2" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A2" s="19"/>
+      <c r="B2" s="17">
+        <v>1</v>
+      </c>
+      <c r="C2" s="18">
+        <v>2</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>98</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>104</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A3" s="20"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A3" s="19"/>
+      <c r="B3" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>134</v>
+      </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
-      <c r="F3" s="10" t="s">
-        <v>111</v>
-      </c>
+      <c r="F3" s="10"/>
       <c r="G3" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="H3" s="10"/>
-    </row>
-    <row r="4" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A4" s="21"/>
-      <c r="B4" s="10"/>
+        <v>135</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A4" s="19"/>
+      <c r="B4" s="10" t="s">
+        <v>125</v>
+      </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
+      <c r="G4" s="10" t="s">
+        <v>128</v>
+      </c>
       <c r="H4" s="10"/>
     </row>
-    <row r="5" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A5" s="19"/>
+      <c r="B5" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A6" s="19"/>
+      <c r="B6" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A6" s="19"/>
-      <c r="B6" s="17">
-        <v>1</v>
-      </c>
-      <c r="C6" s="18">
-        <v>2</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="50.1" customHeight="1">
+      <c r="G6" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="50.1" customHeight="1">
       <c r="A7" s="19"/>
       <c r="B7" s="10" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:13" ht="50.1" customHeight="1">
+      <c r="G7" s="10"/>
+      <c r="H7" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="35.1" customHeight="1">
       <c r="A8" s="19"/>
-      <c r="B8" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="1:13" ht="35.1" customHeight="1">
+      <c r="B8" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="50.1" customHeight="1">
       <c r="A9" s="19"/>
-      <c r="B9" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="50.1" customHeight="1">
+      <c r="B9" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="50.1" customHeight="1">
       <c r="A10" s="19"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
-      <c r="F10" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="G10" s="10" t="s">
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A11" s="19"/>
+      <c r="B11" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A12" s="19"/>
+      <c r="B12" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="H10" s="10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A11" s="19"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A12" s="19"/>
-      <c r="B12" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="50.1" customHeight="1">
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" ht="50.1" customHeight="1">
       <c r="A13" s="19"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
-      <c r="H13" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="M13" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="50.1" customHeight="1">
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" ht="35.1" customHeight="1">
       <c r="A14" s="19"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="M14" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="35.1" customHeight="1">
+      <c r="B14" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="1:8" ht="50.1" customHeight="1">
       <c r="A15" s="19"/>
-      <c r="B15" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="50.1" customHeight="1">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="50.1" customHeight="1">
       <c r="A16" s="19"/>
-      <c r="B16" s="10" t="s">
-        <v>125</v>
-      </c>
+      <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
-      <c r="E16" s="10" t="s">
-        <v>129</v>
-      </c>
+      <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="M16" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A17" s="19"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10" t="s">
+      <c r="H16" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A17" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A18" s="20"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="M17" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A18" s="19"/>
-      <c r="B18" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="M18" s="11" t="s">
-        <v>73</v>
+      <c r="G18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A19" s="19"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
-      <c r="H19" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>81</v>
+      <c r="H19" s="10"/>
+      <c r="M19" s="11" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A20" s="19"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
-      <c r="H20" s="10" t="s">
-        <v>107</v>
+      <c r="H20" s="10"/>
+      <c r="M20" s="11" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="21"/>
+      <c r="B21" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A22" s="21"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A22" s="22"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>72</v>
+      <c r="H22" s="10"/>
+      <c r="M22" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A23" s="20"/>
+      <c r="A23" s="21"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
-      <c r="E23" s="10" t="s">
-        <v>123</v>
-      </c>
+      <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
-    </row>
-    <row r="24" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A24" s="20"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-    </row>
-    <row r="25" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A25" s="20"/>
-      <c r="B25" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>52</v>
+      <c r="M23" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A24" s="21"/>
+      <c r="B24" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M24" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A25" s="21"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="M25" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A26" s="20"/>
+      <c r="A26" s="21"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
-      <c r="G26" s="10" t="s">
-        <v>119</v>
-      </c>
+      <c r="G26" s="10"/>
       <c r="H26" s="10"/>
     </row>
-    <row r="27" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A27" s="20"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-    </row>
-    <row r="28" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A28" s="20"/>
-      <c r="B28" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>57</v>
-      </c>
+    <row r="27" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A27" s="21"/>
+      <c r="B27" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A28" s="21"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
     </row>
     <row r="29" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A29" s="20"/>
+      <c r="A29" s="21"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
-      <c r="E29" s="10" t="s">
-        <v>120</v>
-      </c>
+      <c r="E29" s="10"/>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
     </row>
-    <row r="30" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A30" s="20"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-    </row>
-    <row r="31" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A31" s="20"/>
-      <c r="B31" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>60</v>
-      </c>
+    <row r="30" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A30" s="21"/>
+      <c r="B30" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+    </row>
+    <row r="31" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A31" s="21"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
     </row>
     <row r="32" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A32" s="20"/>
+      <c r="A32" s="22"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
@@ -1766,48 +1780,64 @@
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
     </row>
-    <row r="33" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A33" s="20"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
+    <row r="33" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A33" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="34" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A34" s="20"/>
-      <c r="B34" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="35" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A35" s="20"/>
+      <c r="A35" s="19"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
+      <c r="F35" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="36" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A36" s="21"/>
+      <c r="A36" s="19"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
@@ -1817,44 +1847,38 @@
       <c r="H36" s="10"/>
     </row>
     <row r="37" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A37" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A37" s="19"/>
+      <c r="B37" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="50.1" customHeight="1">
       <c r="A38" s="19"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
     </row>
     <row r="39" spans="1:8" ht="50.1" customHeight="1">
       <c r="A39" s="19"/>
@@ -1862,49 +1886,45 @@
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
-      <c r="F39" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="H39" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="50.1" customHeight="1">
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+    </row>
+    <row r="40" spans="1:8" ht="35.1" customHeight="1">
       <c r="A40" s="19"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-    </row>
-    <row r="41" spans="1:8" ht="35.1" customHeight="1">
+      <c r="B40" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="50.1" customHeight="1">
       <c r="A41" s="19"/>
-      <c r="B41" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
     </row>
     <row r="42" spans="1:8" ht="50.1" customHeight="1">
       <c r="A42" s="19"/>
@@ -1916,85 +1936,83 @@
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
     </row>
-    <row r="43" spans="1:8" ht="50.1" customHeight="1">
+    <row r="43" spans="1:8" ht="35.1" customHeight="1">
       <c r="A43" s="19"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-    </row>
-    <row r="44" spans="1:8" ht="35.1" customHeight="1">
+      <c r="B43" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="50.1" customHeight="1">
       <c r="A44" s="19"/>
-      <c r="B44" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
     </row>
     <row r="45" spans="1:8" ht="50.1" customHeight="1">
       <c r="A45" s="19"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
-      <c r="E45" s="10" t="s">
-        <v>120</v>
-      </c>
+      <c r="E45" s="10"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
     </row>
-    <row r="46" spans="1:8" ht="50.1" customHeight="1">
+    <row r="46" spans="1:8" ht="35.1" customHeight="1">
       <c r="A46" s="19"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-    </row>
-    <row r="47" spans="1:8" ht="35.1" customHeight="1">
+      <c r="B46" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="50.1" customHeight="1">
       <c r="A47" s="19"/>
-      <c r="B47" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
     </row>
     <row r="48" spans="1:8" ht="50.1" customHeight="1">
       <c r="A48" s="19"/>
@@ -2006,39 +2024,27 @@
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
     </row>
-    <row r="49" spans="1:8" ht="50.1" customHeight="1">
+    <row r="49" spans="1:8" ht="35.1" customHeight="1">
       <c r="A49" s="19"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-    </row>
-    <row r="50" spans="1:8" ht="35.1" customHeight="1">
+      <c r="B49" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+    </row>
+    <row r="50" spans="1:8" ht="50.1" customHeight="1">
       <c r="A50" s="19"/>
-      <c r="B50" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
     </row>
     <row r="51" spans="1:8" ht="50.1" customHeight="1">
       <c r="A51" s="19"/>
@@ -2050,32 +2056,60 @@
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
     </row>
-    <row r="52" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A52" s="19"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
+    <row r="52" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A52" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="53" spans="1:8" ht="35.1" customHeight="1">
       <c r="A53" s="19"/>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="13"/>
+      <c r="C53" s="18">
+        <v>1</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
+      <c r="F53" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="54" spans="1:8" ht="50.1" customHeight="1">
       <c r="A54" s="19"/>
       <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
+      <c r="C54" s="10" t="s">
+        <v>120</v>
+      </c>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
@@ -2093,144 +2127,128 @@
       <c r="H55" s="10"/>
     </row>
     <row r="56" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A56" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A56" s="19"/>
+      <c r="B56" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="50.1" customHeight="1">
       <c r="A57" s="19"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="18">
-        <v>1</v>
-      </c>
-      <c r="D57" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
     </row>
     <row r="58" spans="1:8" ht="50.1" customHeight="1">
       <c r="A58" s="19"/>
       <c r="B58" s="10"/>
-      <c r="C58" s="10" t="s">
-        <v>123</v>
-      </c>
+      <c r="C58" s="10"/>
       <c r="D58" s="10"/>
       <c r="E58" s="10"/>
       <c r="F58" s="10"/>
       <c r="G58" s="10"/>
       <c r="H58" s="10"/>
     </row>
-    <row r="59" spans="1:8" ht="50.1" customHeight="1">
+    <row r="59" spans="1:8" ht="35.1" customHeight="1">
       <c r="A59" s="19"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-    </row>
-    <row r="60" spans="1:8" ht="35.1" customHeight="1">
+      <c r="B59" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="50.1" customHeight="1">
       <c r="A60" s="19"/>
-      <c r="B60" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
     </row>
     <row r="61" spans="1:8" ht="50.1" customHeight="1">
       <c r="A61" s="19"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
-      <c r="E61" s="10" t="s">
-        <v>108</v>
-      </c>
+      <c r="E61" s="10"/>
       <c r="F61" s="10"/>
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
     </row>
-    <row r="62" spans="1:8" ht="50.1" customHeight="1">
+    <row r="62" spans="1:8" ht="35.1" customHeight="1">
       <c r="A62" s="19"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="10"/>
-    </row>
-    <row r="63" spans="1:8" ht="35.1" customHeight="1">
+      <c r="B62" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="50.1" customHeight="1">
       <c r="A63" s="19"/>
-      <c r="B63" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
     </row>
     <row r="64" spans="1:8" ht="50.1" customHeight="1">
       <c r="A64" s="19"/>
@@ -2242,39 +2260,33 @@
       <c r="G64" s="10"/>
       <c r="H64" s="10"/>
     </row>
-    <row r="65" spans="1:8" ht="50.1" customHeight="1">
+    <row r="65" spans="1:8" ht="35.1" customHeight="1">
       <c r="A65" s="19"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
-    </row>
-    <row r="66" spans="1:8" ht="35.1" customHeight="1">
+      <c r="B65" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+    </row>
+    <row r="66" spans="1:8" ht="50.1" customHeight="1">
       <c r="A66" s="19"/>
-      <c r="B66" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
     </row>
     <row r="67" spans="1:8" ht="50.1" customHeight="1">
       <c r="A67" s="19"/>
@@ -2286,61 +2298,12 @@
       <c r="G67" s="10"/>
       <c r="H67" s="10"/>
     </row>
-    <row r="68" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A68" s="19"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="10"/>
-    </row>
-    <row r="69" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A69" s="19"/>
-      <c r="B69" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="12"/>
-    </row>
-    <row r="70" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A70" s="19"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="10"/>
-    </row>
-    <row r="71" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A71" s="19"/>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
-      <c r="H71" s="10"/>
-    </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A57:A71"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A6:A20"/>
-    <mergeCell ref="A22:A36"/>
-    <mergeCell ref="A38:A55"/>
+  <mergeCells count="4">
+    <mergeCell ref="A53:A67"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="A18:A32"/>
+    <mergeCell ref="A34:A51"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC8CADF-4F4D-4589-9F8B-6E3FEEF380F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE35DF7F-B9CA-4ECF-B77A-A8FB2866EAFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1218,7 +1218,7 @@
   <dimension ref="A1:M67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -2588,21 +2588,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F91E044E3A9D84A8197B09587594D86" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a727839579f0816cd156df87ac1abb38">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4b137422-f48a-46a4-80bc-5707d2d59248" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c55dfd8d1a660179b90c490e9dacc3e0" ns3:_="">
     <xsd:import namespace="4b137422-f48a-46a4-80bc-5707d2d59248"/>
@@ -2734,10 +2719,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2759,19 +2769,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE35DF7F-B9CA-4ECF-B77A-A8FB2866EAFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C7351E-3AAD-41D4-BD14-03327B8F599C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="142">
   <si>
     <t>해야할 일</t>
   </si>
@@ -455,11 +455,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>23년 10월 엄마 회갑 경조사
-6월 챔프스터디 연장하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>8/10 휴대폰 선택약정 신청</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -557,30 +552,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>5시 경기떡집
-2색이티, 완두시루떡
-18시반 에어부산 김포-&gt;김해</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>21시 에어부산 김해-&gt;김포</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>5시 우정갈비 어버이날</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>장전동.. 어버이날?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>저녁 김정모, 김재경, 송성윤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>점심 장모님 생신잔치
-7시35분 에어부산 김해-&gt;김포</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -589,7 +565,64 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>12시 헌혈의집 영등포센터</t>
+    <t>DAsP 공부순서
+가이드 장 요약 - 한권 끝내기 이론 - 공식 문제집 풀이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15시 헌혈의집 영등포센터
+5시 경기떡집 환불됨
+2색이티, 완두시루떡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심 장모님 생신잔치
+19시35분 에어부산 김해-&gt;김포</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18시반 에어부산 김포-&gt;김해
+21시 배건원, 신용두
+호맥 구서쌍용예가점</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10시30분 두실 이현정 머리
+14시20분 베이비파스텔
+15시 꽃보다 부산대</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5시 우정갈비 어버이날
+파스쿠찌 부산남산점</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유정1995 카페 -
+저녁 마파람해물찜 구서본점</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAsP 시험
+이현정 식구 1박2일?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이현정 식구
+1박 2일?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박한솔 베이비파스텔
+사진 액자 찾으러 가야함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>23년 10월 엄마 회갑 경조사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6월 챔프스터디 연장하기</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1218,13 +1251,13 @@
   <dimension ref="A1:M67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="8.875" style="4" customWidth="1"/>
-    <col min="2" max="8" width="25.625" style="4" customWidth="1"/>
+    <col min="2" max="8" width="26.625" style="4" customWidth="1"/>
     <col min="9" max="12" width="8.875" style="4"/>
     <col min="13" max="13" width="17" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.875" style="4" customWidth="1"/>
@@ -1284,34 +1317,36 @@
     <row r="3" spans="1:8" ht="50.1" customHeight="1">
       <c r="A3" s="19"/>
       <c r="B3" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="50.1" customHeight="1">
       <c r="A4" s="19"/>
       <c r="B4" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="H4" s="10"/>
+        <v>133</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="35.1" customHeight="1">
       <c r="A5" s="19"/>
@@ -1340,27 +1375,27 @@
     <row r="6" spans="1:8" ht="50.1" customHeight="1">
       <c r="A6" s="19"/>
       <c r="B6" s="10" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10" t="s">
         <v>101</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="50.1" customHeight="1">
       <c r="A7" s="19"/>
       <c r="B7" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -1368,7 +1403,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="35.1" customHeight="1">
@@ -1398,7 +1433,7 @@
     <row r="9" spans="1:8" ht="50.1" customHeight="1">
       <c r="A9" s="19"/>
       <c r="B9" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>102</v>
@@ -1410,7 +1445,7 @@
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="50.1" customHeight="1">
@@ -1421,7 +1456,9 @@
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
+      <c r="H10" s="10" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="35.1" customHeight="1">
       <c r="A11" s="19"/>
@@ -1450,16 +1487,16 @@
     <row r="12" spans="1:8" ht="50.1" customHeight="1">
       <c r="A12" s="19"/>
       <c r="B12" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H12" s="10"/>
     </row>
@@ -1469,7 +1506,7 @@
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -1496,14 +1533,10 @@
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
-      <c r="E15" s="10" t="s">
-        <v>120</v>
-      </c>
+      <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
-      <c r="H15" s="10" t="s">
-        <v>91</v>
-      </c>
+      <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" ht="50.1" customHeight="1">
       <c r="A16" s="19"/>
@@ -1513,13 +1546,11 @@
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="10" t="s">
-        <v>106</v>
-      </c>
+      <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:13" ht="35.1" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>43</v>
@@ -1549,10 +1580,10 @@
       <c r="C18" s="14"/>
       <c r="D18" s="15"/>
       <c r="E18" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>79</v>
@@ -1567,11 +1598,13 @@
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
+      <c r="H19" s="10" t="s">
+        <v>137</v>
+      </c>
       <c r="M19" s="11" t="s">
         <v>74</v>
       </c>
@@ -1581,7 +1614,9 @@
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
+      <c r="E20" s="10" t="s">
+        <v>141</v>
+      </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
@@ -1618,13 +1653,15 @@
     </row>
     <row r="22" spans="1:13" ht="50.1" customHeight="1">
       <c r="A22" s="21"/>
-      <c r="B22" s="10"/>
+      <c r="B22" s="10" t="s">
+        <v>138</v>
+      </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H22" s="10"/>
       <c r="M22" s="4" t="s">
@@ -1677,7 +1714,7 @@
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
@@ -1728,7 +1765,9 @@
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
+      <c r="H28" s="10" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="29" spans="1:13" ht="50.1" customHeight="1">
       <c r="A29" s="21"/>
@@ -1782,7 +1821,7 @@
     </row>
     <row r="33" spans="1:8" ht="35.1" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>43</v>
@@ -1827,13 +1866,13 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="50.1" customHeight="1">
@@ -1842,7 +1881,9 @@
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
+      <c r="F36" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
     </row>
@@ -1920,7 +1961,7 @@
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
       <c r="E41" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
@@ -2058,7 +2099,7 @@
     </row>
     <row r="52" spans="1:8" ht="35.1" customHeight="1">
       <c r="A52" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>43</v>
@@ -2089,7 +2130,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>98</v>
@@ -2108,7 +2149,7 @@
       <c r="A54" s="19"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
@@ -2156,7 +2197,7 @@
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
       <c r="E57" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F57" s="10"/>
       <c r="G57" s="10"/>
@@ -2284,8 +2325,12 @@
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
       <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
+      <c r="F66" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>140</v>
+      </c>
       <c r="H66" s="10"/>
     </row>
     <row r="67" spans="1:8" ht="50.1" customHeight="1">

--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C7351E-3AAD-41D4-BD14-03327B8F599C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60873490-D49B-4A04-B783-A356952D951C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="해야할 일" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="144">
   <si>
     <t>해야할 일</t>
   </si>
@@ -443,10 +444,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>윤석원 생일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>5 (어린이날)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -556,10 +553,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>저녁 김정모, 김재경, 송성윤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>저녁 송성윤
 반샤쿠 - 꼬지사께 영등포점</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -623,6 +616,25 @@
   </si>
   <si>
     <t>6월 챔프스터디 연장하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8시 강남 김민경
+가르고뜨 - 이케맨 이자카야</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁 7시 영등포 김정모, 송성윤
+초장집 - 리춘시장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤석원 생일
+저녁 icsb?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁 김정모, 박시원</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1251,7 +1263,7 @@
   <dimension ref="A1:M67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1305,7 +1317,7 @@
         <v>99</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>49</v>
@@ -1317,41 +1329,41 @@
     <row r="3" spans="1:8" ht="50.1" customHeight="1">
       <c r="A3" s="19"/>
       <c r="B3" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="50.1" customHeight="1">
       <c r="A4" s="19"/>
       <c r="B4" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>133</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="35.1" customHeight="1">
       <c r="A5" s="19"/>
       <c r="B5" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -1375,27 +1387,29 @@
     <row r="6" spans="1:8" ht="50.1" customHeight="1">
       <c r="A6" s="19"/>
       <c r="B6" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C6" s="10"/>
+        <v>134</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>140</v>
+      </c>
       <c r="D6" s="10" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10" t="s">
         <v>101</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="50.1" customHeight="1">
       <c r="A7" s="19"/>
       <c r="B7" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -1403,7 +1417,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="35.1" customHeight="1">
@@ -1433,19 +1447,21 @@
     <row r="9" spans="1:8" ht="50.1" customHeight="1">
       <c r="A9" s="19"/>
       <c r="B9" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>102</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="E9" s="10"/>
+        <v>142</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>143</v>
+      </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="50.1" customHeight="1">
@@ -1457,7 +1473,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="35.1" customHeight="1">
@@ -1487,16 +1503,16 @@
     <row r="12" spans="1:8" ht="50.1" customHeight="1">
       <c r="A12" s="19"/>
       <c r="B12" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H12" s="10"/>
     </row>
@@ -1506,7 +1522,7 @@
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -1550,7 +1566,7 @@
     </row>
     <row r="17" spans="1:13" ht="35.1" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>43</v>
@@ -1580,10 +1596,10 @@
       <c r="C18" s="14"/>
       <c r="D18" s="15"/>
       <c r="E18" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>79</v>
@@ -1598,12 +1614,12 @@
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M19" s="11" t="s">
         <v>74</v>
@@ -1615,7 +1631,7 @@
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
@@ -1654,14 +1670,14 @@
     <row r="22" spans="1:13" ht="50.1" customHeight="1">
       <c r="A22" s="21"/>
       <c r="B22" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H22" s="10"/>
       <c r="M22" s="4" t="s">
@@ -1714,7 +1730,7 @@
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
@@ -1766,7 +1782,7 @@
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
       <c r="H28" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="50.1" customHeight="1">
@@ -1821,7 +1837,7 @@
     </row>
     <row r="33" spans="1:8" ht="35.1" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>43</v>
@@ -1866,13 +1882,13 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="50.1" customHeight="1">
@@ -1961,7 +1977,7 @@
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
       <c r="E41" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
@@ -2099,7 +2115,7 @@
     </row>
     <row r="52" spans="1:8" ht="35.1" customHeight="1">
       <c r="A52" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>43</v>
@@ -2130,7 +2146,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>98</v>
@@ -2149,7 +2165,7 @@
       <c r="A54" s="19"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
@@ -2197,7 +2213,7 @@
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
       <c r="E57" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F57" s="10"/>
       <c r="G57" s="10"/>
@@ -2326,10 +2342,10 @@
       <c r="D66" s="10"/>
       <c r="E66" s="10"/>
       <c r="F66" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H66" s="10"/>
     </row>

--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60873490-D49B-4A04-B783-A356952D951C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB10EF56-CCCF-4E8F-806B-DF0F88FF49E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="해야할 일" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -456,10 +455,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>15시~ TCT 개발언어 시험</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>인화원 MVP교육</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -635,6 +630,11 @@
   </si>
   <si>
     <t>저녁 김정모, 박시원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11월 지니뮤직 재결제
+재결제 이벤트 확인</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1263,7 +1263,7 @@
   <dimension ref="A1:M67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1329,35 +1329,35 @@
     <row r="3" spans="1:8" ht="50.1" customHeight="1">
       <c r="A3" s="19"/>
       <c r="B3" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="50.1" customHeight="1">
       <c r="A4" s="19"/>
       <c r="B4" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="35.1" customHeight="1">
@@ -1387,29 +1387,29 @@
     <row r="6" spans="1:8" ht="50.1" customHeight="1">
       <c r="A6" s="19"/>
       <c r="B6" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C6" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>140</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>141</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10" t="s">
         <v>101</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="50.1" customHeight="1">
       <c r="A7" s="19"/>
       <c r="B7" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -1417,7 +1417,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="35.1" customHeight="1">
@@ -1447,22 +1447,20 @@
     <row r="9" spans="1:8" ht="50.1" customHeight="1">
       <c r="A9" s="19"/>
       <c r="B9" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>102</v>
       </c>
       <c r="D9" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>142</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>143</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
-      <c r="H9" s="10" t="s">
-        <v>106</v>
-      </c>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" ht="50.1" customHeight="1">
       <c r="A10" s="19"/>
@@ -1473,7 +1471,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="35.1" customHeight="1">
@@ -1503,16 +1501,16 @@
     <row r="12" spans="1:8" ht="50.1" customHeight="1">
       <c r="A12" s="19"/>
       <c r="B12" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H12" s="10"/>
     </row>
@@ -1522,7 +1520,7 @@
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -1566,7 +1564,7 @@
     </row>
     <row r="17" spans="1:13" ht="35.1" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>43</v>
@@ -1596,10 +1594,10 @@
       <c r="C18" s="14"/>
       <c r="D18" s="15"/>
       <c r="E18" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>79</v>
@@ -1614,12 +1612,12 @@
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M19" s="11" t="s">
         <v>74</v>
@@ -1631,7 +1629,7 @@
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
@@ -1670,14 +1668,14 @@
     <row r="22" spans="1:13" ht="50.1" customHeight="1">
       <c r="A22" s="21"/>
       <c r="B22" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H22" s="10"/>
       <c r="M22" s="4" t="s">
@@ -1730,7 +1728,7 @@
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
@@ -1782,7 +1780,7 @@
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
       <c r="H28" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="50.1" customHeight="1">
@@ -1837,7 +1835,7 @@
     </row>
     <row r="33" spans="1:8" ht="35.1" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>43</v>
@@ -1882,13 +1880,13 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="50.1" customHeight="1">
@@ -1977,7 +1975,7 @@
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
       <c r="E41" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
@@ -2115,7 +2113,7 @@
     </row>
     <row r="52" spans="1:8" ht="35.1" customHeight="1">
       <c r="A52" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>43</v>
@@ -2146,7 +2144,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>98</v>
@@ -2165,7 +2163,7 @@
       <c r="A54" s="19"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
@@ -2342,10 +2340,10 @@
       <c r="D66" s="10"/>
       <c r="E66" s="10"/>
       <c r="F66" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H66" s="10"/>
     </row>
@@ -2356,7 +2354,9 @@
       <c r="D67" s="10"/>
       <c r="E67" s="10"/>
       <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
+      <c r="G67" s="10" t="s">
+        <v>143</v>
+      </c>
       <c r="H67" s="10"/>
     </row>
   </sheetData>
@@ -2649,6 +2649,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F91E044E3A9D84A8197B09587594D86" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a727839579f0816cd156df87ac1abb38">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4b137422-f48a-46a4-80bc-5707d2d59248" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c55dfd8d1a660179b90c490e9dacc3e0" ns3:_="">
     <xsd:import namespace="4b137422-f48a-46a4-80bc-5707d2d59248"/>
@@ -2780,35 +2795,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2830,9 +2820,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB10EF56-CCCF-4E8F-806B-DF0F88FF49E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE97308C-76E8-4529-9F0C-AC35BC234D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="145">
   <si>
     <t>해야할 일</t>
   </si>
@@ -508,22 +508,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>이재관 조카 돌잔치 물어보기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>조영민 생일
 12시20분 이효림 결혼
 센텀사이언스파크 별관4층</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>11시30분 박한솔 영유아검진
-금정소아청소년과의원
-이상아 생일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>과학기술인공제회 적금 입금
 고대치기공, 지산고 회비 입금
 선두구동 주민센터 -</t>
@@ -564,11 +554,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>점심 장모님 생신잔치
-19시35분 에어부산 김해-&gt;김포</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>18시반 에어부산 김포-&gt;김해
 21시 배건원, 신용두
 호맥 구서쌍용예가점</t>
@@ -624,17 +609,36 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>윤석원 생일
-저녁 icsb?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>저녁 김정모, 박시원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>11월 지니뮤직 재결제
 재결제 이벤트 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 신세계 백화점 센텀시티점</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심 장모님 생신잔치
+12시 아난티 힐튼 다모임
+19시35분 에어부산 김해-&gt;김포</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤석원 생일
+저녁 icsb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심 박시원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상아 생일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11시30분 박한솔 영유아검진
+금정소아청소년과의원</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1263,7 +1267,7 @@
   <dimension ref="A1:M67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1329,35 +1333,35 @@
     <row r="3" spans="1:8" ht="50.1" customHeight="1">
       <c r="A3" s="19"/>
       <c r="B3" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>128</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="50.1" customHeight="1">
       <c r="A4" s="19"/>
       <c r="B4" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="35.1" customHeight="1">
@@ -1387,20 +1391,20 @@
     <row r="6" spans="1:8" ht="50.1" customHeight="1">
       <c r="A6" s="19"/>
       <c r="B6" s="10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10" t="s">
         <v>101</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>115</v>
@@ -1409,7 +1413,7 @@
     <row r="7" spans="1:8" ht="50.1" customHeight="1">
       <c r="A7" s="19"/>
       <c r="B7" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -1417,7 +1421,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="35.1" customHeight="1">
@@ -1447,7 +1451,7 @@
     <row r="9" spans="1:8" ht="50.1" customHeight="1">
       <c r="A9" s="19"/>
       <c r="B9" s="10" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>102</v>
@@ -1455,10 +1459,10 @@
       <c r="D9" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="10"/>
+      <c r="F9" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
@@ -1468,10 +1472,12 @@
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+      <c r="F10" s="10" t="s">
+        <v>144</v>
+      </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="35.1" customHeight="1">
@@ -1501,16 +1507,16 @@
     <row r="12" spans="1:8" ht="50.1" customHeight="1">
       <c r="A12" s="19"/>
       <c r="B12" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H12" s="10"/>
     </row>
@@ -1617,7 +1623,7 @@
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M19" s="11" t="s">
         <v>74</v>
@@ -1629,7 +1635,7 @@
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
@@ -1668,7 +1674,7 @@
     <row r="22" spans="1:13" ht="50.1" customHeight="1">
       <c r="A22" s="21"/>
       <c r="B22" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -1780,7 +1786,7 @@
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
       <c r="H28" s="10" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="50.1" customHeight="1">
@@ -2343,7 +2349,7 @@
         <v>117</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H66" s="10"/>
     </row>
@@ -2355,7 +2361,7 @@
       <c r="E67" s="10"/>
       <c r="F67" s="10"/>
       <c r="G67" s="10" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H67" s="10"/>
     </row>
@@ -2649,21 +2655,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F91E044E3A9D84A8197B09587594D86" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a727839579f0816cd156df87ac1abb38">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4b137422-f48a-46a4-80bc-5707d2d59248" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c55dfd8d1a660179b90c490e9dacc3e0" ns3:_="">
     <xsd:import namespace="4b137422-f48a-46a4-80bc-5707d2d59248"/>
@@ -2795,10 +2786,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2820,19 +2836,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE97308C-76E8-4529-9F0C-AC35BC234D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5243F0-8B22-482E-8BE2-FFD526994B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="131">
   <si>
     <t>해야할 일</t>
   </si>
@@ -433,24 +433,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>지니뮤직 재결제
-재결제 이벤트 확인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>장모님 생신
 (음력 4/16)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>5 (어린이날)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8 (부처님 오신날)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>8/10 휴대폰 선택약정 신청</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -489,12 +476,6 @@
   </si>
   <si>
     <t>TCT - 주스킬</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>11시 김경회 결혼
-엑소21컨벤션 3층
-이현정, 이재관</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -514,32 +495,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>과학기술인공제회 적금 입금
-고대치기공, 지산고 회비 입금
-선두구동 주민센터 -</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>점심 금정산성 다목적광장
-조선화, 배건원 - 가야밀면
-9시반 에어부산 김해-&gt;김포</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>COS PRO 1급 자바 강의 종료</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>21시반 에어부산 김포-&gt;김해</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>21시 에어부산 김해-&gt;김포</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>저녁 송성윤
-반샤쿠 - 꼬지사께 영등포점</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -548,34 +504,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>15시 헌혈의집 영등포센터
-5시 경기떡집 환불됨
-2색이티, 완두시루떡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>18시반 에어부산 김포-&gt;김해
-21시 배건원, 신용두
-호맥 구서쌍용예가점</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10시30분 두실 이현정 머리
-14시20분 베이비파스텔
-15시 꽃보다 부산대</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5시 우정갈비 어버이날
-파스쿠찌 부산남산점</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>유정1995 카페 -
-저녁 마파람해물찜 구서본점</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>DAsP 시험
 이현정 식구 1박2일?</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -599,22 +527,8 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>8시 강남 김민경
-가르고뜨 - 이케맨 이자카야</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>저녁 7시 영등포 김정모, 송성윤
-초장집 - 리춘시장</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>11월 지니뮤직 재결제
 재결제 이벤트 확인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 신세계 백화점 센텀시티점</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -624,21 +538,34 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>윤석원 생일
-저녁 icsb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>점심 박시원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>이상아 생일</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>11시30분 박한솔 영유아검진
 금정소아청소년과의원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤석원 생일
+저녁 icsb 합정
+미미본관 - 보그노래연습장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김세훈, 한지연, 이현호, 최재혁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁? 박시원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10시반 에어부산 김포-&gt;김해</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>21시30분 에어부산 김해-&gt;김포</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -868,7 +795,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -919,9 +846,6 @@
     </xf>
     <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1264,23 +1188,23 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:M67"/>
+  <dimension ref="A1:M61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="8.875" style="4" customWidth="1"/>
-    <col min="2" max="8" width="26.625" style="4" customWidth="1"/>
+    <col min="2" max="8" width="27.625" style="4" customWidth="1"/>
     <col min="9" max="12" width="8.875" style="4"/>
     <col min="13" max="13" width="17" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.875" style="4" customWidth="1"/>
     <col min="15" max="16384" width="8.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="35.1" customHeight="1">
+    <row r="1" spans="1:13" ht="35.1" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>100</v>
       </c>
@@ -1306,390 +1230,379 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A2" s="19"/>
-      <c r="B2" s="17">
-        <v>1</v>
-      </c>
-      <c r="C2" s="18">
-        <v>2</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>98</v>
+    <row r="2" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A2" s="18"/>
+      <c r="B2" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>103</v>
+        <v>57</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A3" s="19"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A3" s="18"/>
       <c r="B3" s="10" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="D3" s="10"/>
+        <v>101</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>126</v>
+      </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="G3" s="10" t="s">
-        <v>126</v>
-      </c>
+      <c r="G3" s="10"/>
       <c r="H3" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A4" s="18"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A5" s="18"/>
+      <c r="B5" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A6" s="18"/>
+      <c r="B6" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A4" s="19"/>
-      <c r="B4" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A5" s="19"/>
-      <c r="B5" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A6" s="19"/>
-      <c r="B6" s="10" t="s">
+      <c r="E6" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A7" s="18"/>
+      <c r="B7" s="10" t="s">
         <v>130</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A7" s="19"/>
-      <c r="B7" s="10" t="s">
-        <v>123</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
+      <c r="E7" s="10" t="s">
+        <v>103</v>
+      </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
-      <c r="H7" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A8" s="19"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A8" s="18"/>
       <c r="B8" s="8" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A9" s="19"/>
-      <c r="B9" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>141</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A9" s="18"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
       <c r="E9" s="10"/>
-      <c r="F9" s="10" t="s">
-        <v>142</v>
-      </c>
+      <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A10" s="19"/>
+    <row r="10" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A10" s="18"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
-      <c r="F10" s="10" t="s">
-        <v>144</v>
-      </c>
+      <c r="F10" s="10"/>
       <c r="G10" s="10"/>
-      <c r="H10" s="10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A11" s="19"/>
-      <c r="B11" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="50.1" customHeight="1">
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="35.1" customHeight="1">
       <c r="A12" s="19"/>
-      <c r="B12" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A13" s="19"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A13" s="20"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A14" s="19"/>
-      <c r="B14" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A15" s="19"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A16" s="19"/>
-      <c r="B16" s="10"/>
+      <c r="H13" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A14" s="20"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="M14" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A15" s="20"/>
+      <c r="B15" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A16" s="20"/>
+      <c r="B16" s="10" t="s">
+        <v>118</v>
+      </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
+      <c r="G16" s="10" t="s">
+        <v>110</v>
+      </c>
       <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A17" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>48</v>
+      <c r="M16" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A17" s="20"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="M17" s="11" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="35.1" customHeight="1">
       <c r="A18" s="20"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="15"/>
+      <c r="B18" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="E18" s="1" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>72</v>
+        <v>57</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A19" s="21"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
-      <c r="H19" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="M19" s="11" t="s">
-        <v>74</v>
+      <c r="H19" s="10"/>
+      <c r="M19" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A20" s="21"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
-      <c r="E20" s="10" t="s">
-        <v>135</v>
-      </c>
+      <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
-      <c r="M20" s="11" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="21" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A21" s="21"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A22" s="21"/>
-      <c r="B22" s="10" t="s">
-        <v>132</v>
-      </c>
+      <c r="A22" s="20"/>
+      <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
-      <c r="G22" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="H22" s="10"/>
-      <c r="M22" s="4" t="s">
-        <v>77</v>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A23" s="21"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
@@ -1697,51 +1610,36 @@
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
-      <c r="M23" s="11" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="24" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A24" s="21"/>
+      <c r="A24" s="20"/>
       <c r="B24" s="8" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M24" s="11" t="s">
-        <v>73</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
     </row>
     <row r="25" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A25" s="21"/>
+      <c r="A25" s="20"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
-      <c r="E25" s="10" t="s">
-        <v>114</v>
-      </c>
+      <c r="E25" s="10"/>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
-      <c r="M25" s="4" t="s">
-        <v>81</v>
-      </c>
     </row>
     <row r="26" spans="1:13" ht="50.1" customHeight="1">
       <c r="A26" s="21"/>
@@ -1754,83 +1652,99 @@
       <c r="H26" s="10"/>
     </row>
     <row r="27" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A27" s="21"/>
-      <c r="B27" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A28" s="21"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10" t="s">
-        <v>133</v>
+      <c r="A27" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A28" s="18"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A29" s="21"/>
+      <c r="A29" s="18"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-    </row>
-    <row r="30" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A30" s="21"/>
-      <c r="B30" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-    </row>
-    <row r="31" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A31" s="21"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
+      <c r="F29" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A30" s="18"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+    </row>
+    <row r="31" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A31" s="18"/>
+      <c r="B31" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="32" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A32" s="22"/>
+      <c r="A32" s="18"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
@@ -1839,100 +1753,88 @@
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
     </row>
-    <row r="33" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A33" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>48</v>
-      </c>
+    <row r="33" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A33" s="18"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
     </row>
     <row r="34" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A34" s="19"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
+      <c r="A34" s="18"/>
+      <c r="B34" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="G34" s="1" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A35" s="19"/>
+      <c r="A35" s="18"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>116</v>
-      </c>
+      <c r="E35" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
     </row>
     <row r="36" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A36" s="19"/>
+      <c r="A36" s="18"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
-      <c r="F36" s="10" t="s">
-        <v>91</v>
-      </c>
+      <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
     </row>
     <row r="37" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A37" s="19"/>
+      <c r="A37" s="18"/>
       <c r="B37" s="8" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A38" s="19"/>
+      <c r="A38" s="18"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
@@ -1942,7 +1844,7 @@
       <c r="H38" s="10"/>
     </row>
     <row r="39" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A39" s="19"/>
+      <c r="A39" s="18"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
@@ -1952,43 +1854,41 @@
       <c r="H39" s="10"/>
     </row>
     <row r="40" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A40" s="19"/>
+      <c r="A40" s="18"/>
       <c r="B40" s="8" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A41" s="19"/>
+      <c r="A41" s="18"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
-      <c r="E41" s="10" t="s">
-        <v>114</v>
-      </c>
+      <c r="E41" s="10"/>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
     </row>
     <row r="42" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A42" s="19"/>
+      <c r="A42" s="18"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
@@ -1998,31 +1898,19 @@
       <c r="H42" s="10"/>
     </row>
     <row r="43" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A43" s="19"/>
+      <c r="A43" s="18"/>
       <c r="B43" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
     </row>
     <row r="44" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A44" s="19"/>
+      <c r="A44" s="18"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
@@ -2032,7 +1920,7 @@
       <c r="H44" s="10"/>
     </row>
     <row r="45" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A45" s="19"/>
+      <c r="A45" s="18"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
@@ -2042,135 +1930,149 @@
       <c r="H45" s="10"/>
     </row>
     <row r="46" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A46" s="19"/>
-      <c r="B46" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A47" s="19"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
+      <c r="A46" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A47" s="18"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="17">
+        <v>1</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="48" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A48" s="19"/>
+      <c r="A48" s="18"/>
       <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
+      <c r="C48" s="10" t="s">
+        <v>113</v>
+      </c>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
     </row>
-    <row r="49" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A49" s="19"/>
-      <c r="B49" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-    </row>
-    <row r="50" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A50" s="19"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
+    <row r="49" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A49" s="18"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+    </row>
+    <row r="50" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A50" s="18"/>
+      <c r="B50" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="51" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A51" s="19"/>
+      <c r="A51" s="18"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
+      <c r="E51" s="10" t="s">
+        <v>102</v>
+      </c>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
     </row>
-    <row r="52" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A52" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>48</v>
-      </c>
+    <row r="52" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A52" s="18"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
     </row>
     <row r="53" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A53" s="19"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="18">
-        <v>1</v>
-      </c>
-      <c r="D53" s="16" t="s">
-        <v>109</v>
+      <c r="A53" s="18"/>
+      <c r="B53" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A54" s="19"/>
+      <c r="A54" s="18"/>
       <c r="B54" s="10"/>
-      <c r="C54" s="10" t="s">
-        <v>117</v>
-      </c>
+      <c r="C54" s="10"/>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
@@ -2178,7 +2080,7 @@
       <c r="H54" s="10"/>
     </row>
     <row r="55" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A55" s="19"/>
+      <c r="A55" s="18"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
@@ -2188,43 +2090,41 @@
       <c r="H55" s="10"/>
     </row>
     <row r="56" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A56" s="19"/>
+      <c r="A56" s="18"/>
       <c r="B56" s="8" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A57" s="19"/>
+      <c r="A57" s="18"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
-      <c r="E57" s="10" t="s">
-        <v>105</v>
-      </c>
+      <c r="E57" s="10"/>
       <c r="F57" s="10"/>
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
     </row>
     <row r="58" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A58" s="19"/>
+      <c r="A58" s="18"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
@@ -2234,143 +2134,55 @@
       <c r="H58" s="10"/>
     </row>
     <row r="59" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A59" s="19"/>
+      <c r="A59" s="18"/>
       <c r="B59" s="8" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>84</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
     </row>
     <row r="60" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A60" s="19"/>
+      <c r="A60" s="18"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
       <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
+      <c r="F60" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>120</v>
+      </c>
       <c r="H60" s="10"/>
     </row>
     <row r="61" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A61" s="19"/>
+      <c r="A61" s="18"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
       <c r="E61" s="10"/>
       <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
+      <c r="G61" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="H61" s="10"/>
-    </row>
-    <row r="62" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A62" s="19"/>
-      <c r="B62" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A63" s="19"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
-    </row>
-    <row r="64" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A64" s="19"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="10"/>
-    </row>
-    <row r="65" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A65" s="19"/>
-      <c r="B65" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F65" s="12"/>
-      <c r="G65" s="12"/>
-      <c r="H65" s="12"/>
-    </row>
-    <row r="66" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A66" s="19"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="G66" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="H66" s="10"/>
-    </row>
-    <row r="67" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A67" s="19"/>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H67" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A53:A67"/>
-    <mergeCell ref="A2:A16"/>
-    <mergeCell ref="A18:A32"/>
-    <mergeCell ref="A34:A51"/>
+    <mergeCell ref="A47:A61"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A12:A26"/>
+    <mergeCell ref="A28:A45"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2395,11 +2207,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="21" thickBot="1">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="2:17">
       <c r="D2" s="4" t="s">
@@ -2655,6 +2467,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F91E044E3A9D84A8197B09587594D86" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a727839579f0816cd156df87ac1abb38">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4b137422-f48a-46a4-80bc-5707d2d59248" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c55dfd8d1a660179b90c490e9dacc3e0" ns3:_="">
     <xsd:import namespace="4b137422-f48a-46a4-80bc-5707d2d59248"/>
@@ -2786,35 +2613,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2836,9 +2638,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5243F0-8B22-482E-8BE2-FFD526994B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E8EC45-9782-467E-A3A5-35D19C64EA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="138">
   <si>
     <t>해야할 일</t>
   </si>
@@ -504,11 +504,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>DAsP 시험
-이현정 식구 1박2일?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>이현정 식구
 1박 2일?</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -557,15 +552,49 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>저녁? 박시원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10시반 에어부산 김포-&gt;김해</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>21시30분 에어부산 김해-&gt;김포</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁 박시원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10시반 에어부산 김포-&gt;김해
+장전집 한솔 - 대우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15 (광복절)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 (현충일)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>고대치기공 MT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20시30분 에어부산 김포-&gt;김해</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>21시 에어부산 김해-&gt;김포</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10시 해운대공고 DAsP 시험
+이현정 식구 1박2일?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>21시30분 에어부산 김포-&gt;김해</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10시30분 에어부산 김포-&gt;김해</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1191,7 +1220,7 @@
   <dimension ref="A1:M61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1257,13 +1286,13 @@
     <row r="3" spans="1:13" ht="50.1" customHeight="1">
       <c r="A3" s="18"/>
       <c r="B3" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>101</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
@@ -1277,11 +1306,11 @@
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10" t="s">
@@ -1322,7 +1351,7 @@
         <v>128</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10" t="s">
@@ -1333,7 +1362,7 @@
     <row r="7" spans="1:13" ht="50.1" customHeight="1">
       <c r="A7" s="18"/>
       <c r="B7" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -1411,7 +1440,7 @@
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="8" t="s">
         <v>105</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -1432,10 +1461,12 @@
       <c r="E13" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="F13" s="10"/>
+      <c r="F13" s="10" t="s">
+        <v>133</v>
+      </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="M13" s="11" t="s">
         <v>74</v>
@@ -1447,7 +1478,7 @@
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
@@ -1461,8 +1492,8 @@
       <c r="B15" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>49</v>
+      <c r="C15" s="8" t="s">
+        <v>131</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>50</v>
@@ -1486,9 +1517,11 @@
     <row r="16" spans="1:13" ht="50.1" customHeight="1">
       <c r="A16" s="20"/>
       <c r="B16" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="C16" s="10"/>
+        <v>117</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>134</v>
+      </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
@@ -1507,7 +1540,9 @@
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
+      <c r="G17" s="10" t="s">
+        <v>136</v>
+      </c>
       <c r="H17" s="10"/>
       <c r="M17" s="11" t="s">
         <v>78</v>
@@ -1542,15 +1577,21 @@
     </row>
     <row r="19" spans="1:13" ht="50.1" customHeight="1">
       <c r="A19" s="20"/>
-      <c r="B19" s="10"/>
+      <c r="B19" s="10" t="s">
+        <v>127</v>
+      </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10" t="s">
         <v>111</v>
       </c>
       <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
+      <c r="G19" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>132</v>
+      </c>
       <c r="M19" s="4" t="s">
         <v>81</v>
       </c>
@@ -1591,14 +1632,16 @@
     </row>
     <row r="22" spans="1:13" ht="50.1" customHeight="1">
       <c r="A22" s="20"/>
-      <c r="B22" s="10"/>
+      <c r="B22" s="10" t="s">
+        <v>132</v>
+      </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="50.1" customHeight="1">
@@ -1609,7 +1652,9 @@
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
+      <c r="H23" s="10" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="24" spans="1:13" ht="35.1" customHeight="1">
       <c r="A24" s="20"/>
@@ -1633,7 +1678,9 @@
     </row>
     <row r="25" spans="1:13" ht="50.1" customHeight="1">
       <c r="A25" s="20"/>
-      <c r="B25" s="10"/>
+      <c r="B25" s="10" t="s">
+        <v>127</v>
+      </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
@@ -2050,8 +2097,8 @@
       <c r="B53" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>67</v>
+      <c r="C53" s="8" t="s">
+        <v>130</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>55</v>
@@ -2161,7 +2208,7 @@
         <v>113</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H60" s="10"/>
     </row>
@@ -2173,7 +2220,7 @@
       <c r="E61" s="10"/>
       <c r="F61" s="10"/>
       <c r="G61" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H61" s="10"/>
     </row>
@@ -2467,21 +2514,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F91E044E3A9D84A8197B09587594D86" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a727839579f0816cd156df87ac1abb38">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4b137422-f48a-46a4-80bc-5707d2d59248" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c55dfd8d1a660179b90c490e9dacc3e0" ns3:_="">
     <xsd:import namespace="4b137422-f48a-46a4-80bc-5707d2d59248"/>
@@ -2613,10 +2645,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2638,19 +2695,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E8EC45-9782-467E-A3A5-35D19C64EA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C951E5C-41B9-48A2-9746-D44CF90B87B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -556,10 +556,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>저녁 박시원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>10시반 에어부산 김포-&gt;김해
 장전집 한솔 - 대우</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -595,6 +591,11 @@
   </si>
   <si>
     <t>10시30분 에어부산 김포-&gt;김해</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7시 상암동 주민센터 박시원
+온돈부리 주람?</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1219,9 +1220,7 @@
   </sheetPr>
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
@@ -1298,7 +1297,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="50.1" customHeight="1">
@@ -1348,7 +1347,7 @@
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>123</v>
@@ -1462,11 +1461,11 @@
         <v>113</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M13" s="11" t="s">
         <v>74</v>
@@ -1493,7 +1492,7 @@
         <v>82</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>50</v>
@@ -1520,7 +1519,7 @@
         <v>117</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -1541,7 +1540,7 @@
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H17" s="10"/>
       <c r="M17" s="11" t="s">
@@ -1587,10 +1586,10 @@
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M19" s="4" t="s">
         <v>81</v>
@@ -1633,7 +1632,7 @@
     <row r="22" spans="1:13" ht="50.1" customHeight="1">
       <c r="A22" s="20"/>
       <c r="B22" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -1641,7 +1640,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="50.1" customHeight="1">
@@ -2098,7 +2097,7 @@
         <v>70</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>55</v>
@@ -2514,6 +2513,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F91E044E3A9D84A8197B09587594D86" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a727839579f0816cd156df87ac1abb38">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4b137422-f48a-46a4-80bc-5707d2d59248" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c55dfd8d1a660179b90c490e9dacc3e0" ns3:_="">
     <xsd:import namespace="4b137422-f48a-46a4-80bc-5707d2d59248"/>
@@ -2645,35 +2659,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2695,9 +2684,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C951E5C-41B9-48A2-9746-D44CF90B87B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE078F29-3D77-4EEB-87AE-839BB5C88207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="135">
   <si>
     <t>해야할 일</t>
   </si>
@@ -433,11 +433,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>장모님 생신
-(음력 4/16)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>8/10 휴대폰 선택약정 신청</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -495,20 +490,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>COS PRO 1급 자바 강의 종료</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>DAsP 공부순서
 가이드 장 요약 - 한권 끝내기 이론 - 공식 문제집 풀이</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>이현정 식구
-1박 2일?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>박한솔 베이비파스텔
 사진 액자 찾으러 가야함</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -527,37 +513,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>점심 장모님 생신잔치
-12시 아난티 힐튼 다모임
-19시35분 에어부산 김해-&gt;김포</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>이상아 생일</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>11시30분 박한솔 영유아검진
-금정소아청소년과의원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>윤석원 생일
-저녁 icsb 합정
-미미본관 - 보그노래연습장</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김세훈, 한지연, 이현호, 최재혁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>21시30분 에어부산 김해-&gt;김포</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10시반 에어부산 김포-&gt;김해
-장전집 한솔 - 대우</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -594,8 +554,28 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>7시 상암동 주민센터 박시원
-온돈부리 주람?</t>
+    <t>10시 ybm신촌 COS PRO
+COS PRO 1급 자바 강의 종료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7시30분 헤어로맨스 사가정점</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자진근로반 창반행사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7시 신논현 류재열, 송성윤, 왕건</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁 SeeKU 모임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCT 주스킬 공부</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1218,9 +1198,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:M61"/>
+  <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
@@ -1261,214 +1243,225 @@
     <row r="2" spans="1:13" ht="35.1" customHeight="1">
       <c r="A2" s="18"/>
       <c r="B2" s="8" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="50.1" customHeight="1">
       <c r="A3" s="18"/>
       <c r="B3" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="E3" s="10"/>
+        <v>113</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10" t="s">
+        <v>119</v>
+      </c>
       <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
+      <c r="G3" s="10" t="s">
+        <v>129</v>
+      </c>
       <c r="H3" s="10" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="50.1" customHeight="1">
       <c r="A4" s="18"/>
-      <c r="B4" s="10"/>
+      <c r="B4" s="10" t="s">
+        <v>120</v>
+      </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="G4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10" t="s">
+        <v>130</v>
+      </c>
       <c r="H4" s="10" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="35.1" customHeight="1">
       <c r="A5" s="18"/>
       <c r="B5" s="8" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>87</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
     </row>
     <row r="6" spans="1:13" ht="50.1" customHeight="1">
       <c r="A6" s="18"/>
-      <c r="B6" s="10" t="s">
-        <v>114</v>
-      </c>
+      <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>123</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="E6" s="10"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="10" t="s">
-        <v>115</v>
-      </c>
+      <c r="G6" s="10"/>
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:13" ht="50.1" customHeight="1">
       <c r="A7" s="18"/>
-      <c r="B7" s="10" t="s">
-        <v>127</v>
-      </c>
+      <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
-      <c r="E7" s="10" t="s">
-        <v>103</v>
-      </c>
+      <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A8" s="18"/>
-      <c r="B8" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A9" s="18"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
+      <c r="A8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A9" s="19"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="10" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A10" s="18"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+      <c r="E10" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>124</v>
+      </c>
       <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A11" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>48</v>
+      <c r="H10" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A11" s="20"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A12" s="19"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="8" t="s">
-        <v>105</v>
+      <c r="A12" s="20"/>
+      <c r="B12" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>72</v>
+        <v>52</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="50.1" customHeight="1">
       <c r="A13" s="20"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="F13" s="10" t="s">
+      <c r="C13" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="M13" s="11" t="s">
-        <v>74</v>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="M13" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="50.1" customHeight="1">
@@ -1476,126 +1469,113 @@
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
-      <c r="E14" s="10" t="s">
-        <v>120</v>
-      </c>
+      <c r="E14" s="10"/>
       <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
+      <c r="G14" s="10" t="s">
+        <v>127</v>
+      </c>
       <c r="H14" s="10"/>
       <c r="M14" s="11" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="35.1" customHeight="1">
       <c r="A15" s="20"/>
       <c r="B15" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>130</v>
+        <v>53</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>76</v>
+        <v>57</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="50.1" customHeight="1">
       <c r="A16" s="20"/>
       <c r="B16" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>133</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="C16" s="10"/>
       <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
+      <c r="E16" s="10" t="s">
+        <v>110</v>
+      </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="H16" s="10"/>
+        <v>123</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>123</v>
+      </c>
       <c r="M16" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="50.1" customHeight="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="50.1" customHeight="1">
       <c r="A17" s="20"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
-      <c r="G17" s="10" t="s">
-        <v>135</v>
-      </c>
+      <c r="G17" s="10"/>
       <c r="H17" s="10"/>
-      <c r="M17" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="35.1" customHeight="1">
+    </row>
+    <row r="18" spans="1:8" ht="35.1" customHeight="1">
       <c r="A18" s="20"/>
       <c r="B18" s="8" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M18" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="50.1" customHeight="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="50.1" customHeight="1">
       <c r="A19" s="20"/>
       <c r="B19" s="10" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
-      <c r="E19" s="10" t="s">
-        <v>111</v>
-      </c>
+      <c r="E19" s="10"/>
       <c r="F19" s="10"/>
-      <c r="G19" s="10" t="s">
-        <v>131</v>
-      </c>
+      <c r="G19" s="10"/>
       <c r="H19" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="50.1" customHeight="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="50.1" customHeight="1">
       <c r="A20" s="20"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -1603,198 +1583,196 @@
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-    </row>
-    <row r="21" spans="1:13" ht="35.1" customHeight="1">
+      <c r="H20" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="35.1" customHeight="1">
       <c r="A21" s="20"/>
       <c r="B21" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="50.1" customHeight="1">
+        <v>88</v>
+      </c>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" spans="1:8" ht="50.1" customHeight="1">
       <c r="A22" s="20"/>
       <c r="B22" s="10" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
-      <c r="H22" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A23" s="20"/>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A23" s="21"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
-      <c r="H23" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A24" s="20"/>
-      <c r="B24" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-    </row>
-    <row r="25" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A25" s="20"/>
-      <c r="B25" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-    </row>
-    <row r="26" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A26" s="21"/>
+      <c r="H23" s="10"/>
+    </row>
+    <row r="24" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A24" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A25" s="18"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A26" s="18"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-    </row>
-    <row r="27" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A27" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="35.1" customHeight="1">
+      <c r="F26" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A27" s="18"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+    </row>
+    <row r="28" spans="1:8" ht="35.1" customHeight="1">
       <c r="A28" s="18"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
+      <c r="B28" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="G28" s="1" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="50.1" customHeight="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="50.1" customHeight="1">
       <c r="A29" s="18"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
-      <c r="F29" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="50.1" customHeight="1">
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+    </row>
+    <row r="30" spans="1:8" ht="50.1" customHeight="1">
       <c r="A30" s="18"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
-      <c r="F30" s="10" t="s">
-        <v>91</v>
-      </c>
+      <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
     </row>
-    <row r="31" spans="1:13" ht="35.1" customHeight="1">
+    <row r="31" spans="1:8" ht="35.1" customHeight="1">
       <c r="A31" s="18"/>
       <c r="B31" s="8" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="50.1" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="50.1" customHeight="1">
       <c r="A32" s="18"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
+      <c r="E32" s="10" t="s">
+        <v>110</v>
+      </c>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
@@ -1812,25 +1790,25 @@
     <row r="34" spans="1:8" ht="35.1" customHeight="1">
       <c r="A34" s="18"/>
       <c r="B34" s="8" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="50.1" customHeight="1">
@@ -1838,9 +1816,7 @@
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
-      <c r="E35" s="10" t="s">
-        <v>111</v>
-      </c>
+      <c r="E35" s="10"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
@@ -1858,25 +1834,25 @@
     <row r="37" spans="1:8" ht="35.1" customHeight="1">
       <c r="A37" s="18"/>
       <c r="B37" s="8" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="50.1" customHeight="1">
@@ -1902,26 +1878,14 @@
     <row r="40" spans="1:8" ht="35.1" customHeight="1">
       <c r="A40" s="18"/>
       <c r="B40" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>88</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
     </row>
     <row r="41" spans="1:8" ht="50.1" customHeight="1">
       <c r="A41" s="18"/>
@@ -1944,93 +1908,107 @@
       <c r="H42" s="10"/>
     </row>
     <row r="43" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A43" s="18"/>
-      <c r="B43" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-    </row>
-    <row r="44" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A43" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="35.1" customHeight="1">
       <c r="A44" s="18"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="17">
+        <v>1</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="45" spans="1:8" ht="50.1" customHeight="1">
       <c r="A45" s="18"/>
       <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
+      <c r="C45" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
     </row>
-    <row r="46" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A46" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>48</v>
-      </c>
+    <row r="46" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A46" s="18"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
     </row>
     <row r="47" spans="1:8" ht="35.1" customHeight="1">
       <c r="A47" s="18"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="17">
-        <v>1</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>106</v>
+      <c r="B47" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="50.1" customHeight="1">
       <c r="A48" s="18"/>
       <c r="B48" s="10"/>
-      <c r="C48" s="10" t="s">
-        <v>113</v>
-      </c>
+      <c r="C48" s="10"/>
       <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
+      <c r="E48" s="10" t="s">
+        <v>101</v>
+      </c>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
@@ -2048,25 +2026,25 @@
     <row r="50" spans="1:8" ht="35.1" customHeight="1">
       <c r="A50" s="18"/>
       <c r="B50" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>51</v>
+        <v>70</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>121</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="50.1" customHeight="1">
@@ -2074,9 +2052,7 @@
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
-      <c r="E51" s="10" t="s">
-        <v>102</v>
-      </c>
+      <c r="E51" s="10"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
@@ -2094,25 +2070,25 @@
     <row r="53" spans="1:8" ht="35.1" customHeight="1">
       <c r="A53" s="18"/>
       <c r="B53" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>129</v>
+        <v>69</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="50.1" customHeight="1">
@@ -2138,26 +2114,20 @@
     <row r="56" spans="1:8" ht="35.1" customHeight="1">
       <c r="A56" s="18"/>
       <c r="B56" s="8" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>86</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
     </row>
     <row r="57" spans="1:8" ht="50.1" customHeight="1">
       <c r="A57" s="18"/>
@@ -2165,8 +2135,12 @@
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
       <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
+      <c r="F57" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>116</v>
+      </c>
       <c r="H57" s="10"/>
     </row>
     <row r="58" spans="1:8" ht="50.1" customHeight="1">
@@ -2176,59 +2150,17 @@
       <c r="D58" s="10"/>
       <c r="E58" s="10"/>
       <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
+      <c r="G58" s="10" t="s">
+        <v>118</v>
+      </c>
       <c r="H58" s="10"/>
-    </row>
-    <row r="59" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A59" s="18"/>
-      <c r="B59" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
-    </row>
-    <row r="60" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A60" s="18"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="G60" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="H60" s="10"/>
-    </row>
-    <row r="61" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A61" s="18"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="H61" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A47:A61"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="A12:A26"/>
-    <mergeCell ref="A28:A45"/>
+    <mergeCell ref="A44:A58"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A9:A23"/>
+    <mergeCell ref="A25:A42"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE078F29-3D77-4EEB-87AE-839BB5C88207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6959E28-0DE0-4611-8A14-22CA0772D068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -559,10 +559,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>7시30분 헤어로맨스 사가정점</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>자진근로반 창반행사</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -576,6 +572,10 @@
   </si>
   <si>
     <t>TCT 주스킬 공부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6시 헤어로맨스 사가정점</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1201,7 +1201,7 @@
   <dimension ref="A1:M58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1294,10 +1294,10 @@
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>130</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="35.1" customHeight="1">
@@ -1321,7 +1321,7 @@
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
@@ -1412,7 +1412,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M11" s="11" t="s">
         <v>75</v>
@@ -1452,7 +1452,7 @@
         <v>125</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>

--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6959E28-0DE0-4611-8A14-22CA0772D068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF4CE8C-6DA4-41E5-8F99-23C1D0ACFC5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="2430" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="일정" sheetId="1" r:id="rId1"/>
@@ -1201,7 +1201,7 @@
   <dimension ref="A1:M58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -2445,21 +2445,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F91E044E3A9D84A8197B09587594D86" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a727839579f0816cd156df87ac1abb38">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4b137422-f48a-46a4-80bc-5707d2d59248" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c55dfd8d1a660179b90c490e9dacc3e0" ns3:_="">
     <xsd:import namespace="4b137422-f48a-46a4-80bc-5707d2d59248"/>
@@ -2591,10 +2576,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2616,19 +2626,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF4CE8C-6DA4-41E5-8F99-23C1D0ACFC5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DBBEC3-FA4C-4511-9489-A2272CBA2784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="2430" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="일정" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="136">
   <si>
     <t>해야할 일</t>
   </si>
@@ -576,6 +576,11 @@
   </si>
   <si>
     <t>6시 헤어로맨스 사가정점</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7시 영등포 박진열, 류승진
+초장집 - 리춘시장</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1201,7 +1206,7 @@
   <dimension ref="A1:M58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1319,7 +1324,9 @@
     <row r="6" spans="1:13" ht="50.1" customHeight="1">
       <c r="A6" s="18"/>
       <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
+      <c r="C6" s="10" t="s">
+        <v>135</v>
+      </c>
       <c r="D6" s="10" t="s">
         <v>132</v>
       </c>
@@ -2445,6 +2452,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F91E044E3A9D84A8197B09587594D86" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a727839579f0816cd156df87ac1abb38">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4b137422-f48a-46a4-80bc-5707d2d59248" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c55dfd8d1a660179b90c490e9dacc3e0" ns3:_="">
     <xsd:import namespace="4b137422-f48a-46a4-80bc-5707d2d59248"/>
@@ -2576,35 +2598,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2626,9 +2623,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DBBEC3-FA4C-4511-9489-A2272CBA2784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B3D9A8-B7B2-46FD-9629-384A13CD261D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="123">
   <si>
     <t>해야할 일</t>
   </si>
@@ -429,23 +429,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>8/10 휴대폰 선택약정 신청</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>인화원 MVP교육</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>7월 미구위 박한솔생일 3만원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -484,17 +472,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>조영민 생일
-12시20분 이효림 결혼
-센텀사이언스파크 별관4층</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DAsP 공부순서
-가이드 장 요약 - 한권 끝내기 이론 - 공식 문제집 풀이</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>박한솔 베이비파스텔
 사진 액자 찾으러 가야함</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -504,19 +481,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>6월 챔프스터디 연장하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>11월 지니뮤직 재결제
 재결제 이벤트 확인</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>이상아 생일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>21시30분 에어부산 김해-&gt;김포</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -533,19 +502,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>20시30분 에어부산 김포-&gt;김해</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>21시 에어부산 김해-&gt;김포</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10시 해운대공고 DAsP 시험
-이현정 식구 1박2일?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>21시30분 에어부산 김포-&gt;김해</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -554,33 +510,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10시 ybm신촌 COS PRO
-COS PRO 1급 자바 강의 종료</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>자진근로반 창반행사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>7시 신논현 류재열, 송성윤, 왕건</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>저녁 SeeKU 모임</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TCT 주스킬 공부</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6시 헤어로맨스 사가정점</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7시 영등포 박진열, 류승진
-초장집 - 리춘시장</t>
+    <t>23-06 챔프스터디
+수강연장 신청</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심 동래 세연정
+동래롯데백화점</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동래롯데백화점-본가벌나무복집
+스토케 트립트랩 조립
+21시 에어부산 김해-&gt;김포</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -713,7 +659,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -793,24 +739,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -866,9 +801,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1203,10 +1135,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:M58"/>
+  <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1219,9 +1151,9 @@
     <col min="15" max="16384" width="8.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="35.1" customHeight="1">
+    <row r="1" spans="1:13" ht="34.5" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>43</v>
@@ -1246,97 +1178,103 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A2" s="18"/>
+      <c r="A2" s="19"/>
       <c r="B2" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>59</v>
+        <v>82</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>115</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A3" s="18"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>119</v>
       </c>
+      <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>114</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A4" s="18"/>
-      <c r="B4" s="10" t="s">
-        <v>120</v>
-      </c>
+      <c r="A4" s="19"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
-      <c r="E4" s="10" t="s">
-        <v>102</v>
-      </c>
+      <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>130</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A5" s="18"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="8" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
+        <v>70</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="6" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A6" s="18"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="E6" s="10"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10" t="s">
+        <v>107</v>
+      </c>
       <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
+      <c r="G6" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="7" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A7" s="18"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -1346,288 +1284,268 @@
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A8" s="19"/>
+      <c r="B8" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="50.1" customHeight="1">
       <c r="A9" s="19"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>72</v>
+      <c r="B9" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A10" s="20"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
-      <c r="E10" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>124</v>
-      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A11" s="20"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A12" s="20"/>
-      <c r="B12" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>76</v>
-      </c>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A11" s="19"/>
+      <c r="B11" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A12" s="19"/>
+      <c r="B12" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:13" ht="50.1" customHeight="1">
       <c r="A13" s="20"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>131</v>
-      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
-      <c r="G13" s="10" t="s">
-        <v>109</v>
-      </c>
+      <c r="G13" s="10"/>
       <c r="H13" s="10"/>
-      <c r="M13" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A14" s="20"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="H14" s="10"/>
-      <c r="M14" s="11" t="s">
-        <v>78</v>
+    </row>
+    <row r="14" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A15" s="20"/>
-      <c r="B15" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="A15" s="18"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
       <c r="G15" s="1" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M15" s="11" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A16" s="20"/>
-      <c r="B16" s="10" t="s">
-        <v>120</v>
-      </c>
+      <c r="A16" s="18"/>
+      <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
-      <c r="E16" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="F16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10" t="s">
+        <v>101</v>
+      </c>
       <c r="G16" s="10" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A17" s="20"/>
+        <v>108</v>
+      </c>
+      <c r="M16" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A17" s="18"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
+      <c r="F17" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A18" s="20"/>
+      <c r="M17" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A18" s="18"/>
       <c r="B18" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A19" s="20"/>
-      <c r="B19" s="10" t="s">
-        <v>123</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A19" s="18"/>
+      <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
-      <c r="H19" s="10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A20" s="20"/>
+      <c r="H19" s="10"/>
+      <c r="M19" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A20" s="18"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
-      <c r="H20" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A21" s="20"/>
+      <c r="H20" s="10"/>
+      <c r="M20" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A21" s="18"/>
       <c r="B21" s="8" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-    </row>
-    <row r="22" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A22" s="20"/>
-      <c r="B22" s="10" t="s">
-        <v>120</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A22" s="18"/>
+      <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
+      <c r="E22" s="10" t="s">
+        <v>107</v>
+      </c>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
-    </row>
-    <row r="23" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A23" s="21"/>
+      <c r="M22" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A23" s="18"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
@@ -1636,99 +1554,85 @@
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
     </row>
-    <row r="24" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A24" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="35.1" customHeight="1">
+    <row r="24" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A24" s="18"/>
+      <c r="B24" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="50.1" customHeight="1">
       <c r="A25" s="18"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="50.1" customHeight="1">
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="1:13" ht="50.1" customHeight="1">
       <c r="A26" s="18"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
-      <c r="F26" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="50.1" customHeight="1">
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+    </row>
+    <row r="27" spans="1:13" ht="35.1" customHeight="1">
       <c r="A27" s="18"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-    </row>
-    <row r="28" spans="1:8" ht="35.1" customHeight="1">
+      <c r="B27" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="50.1" customHeight="1">
       <c r="A28" s="18"/>
-      <c r="B28" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="50.1" customHeight="1">
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+    </row>
+    <row r="29" spans="1:13" ht="50.1" customHeight="1">
       <c r="A29" s="18"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -1738,97 +1642,99 @@
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
     </row>
-    <row r="30" spans="1:8" ht="50.1" customHeight="1">
+    <row r="30" spans="1:13" ht="35.1" customHeight="1">
       <c r="A30" s="18"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-    </row>
-    <row r="31" spans="1:8" ht="35.1" customHeight="1">
+      <c r="B30" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+    </row>
+    <row r="31" spans="1:13" ht="50.1" customHeight="1">
       <c r="A31" s="18"/>
-      <c r="B31" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="50.1" customHeight="1">
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+    </row>
+    <row r="32" spans="1:13" ht="50.1" customHeight="1">
       <c r="A32" s="18"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
-      <c r="E32" s="10" t="s">
-        <v>110</v>
-      </c>
+      <c r="E32" s="10"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
     </row>
-    <row r="33" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A33" s="18"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-    </row>
-    <row r="34" spans="1:8" ht="35.1" customHeight="1">
+    <row r="33" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A33" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="35.1" customHeight="1">
       <c r="A34" s="18"/>
-      <c r="B34" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>83</v>
+      <c r="B34" s="13"/>
+      <c r="C34" s="17">
+        <v>1</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>102</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="50.1" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="50.1" customHeight="1">
       <c r="A35" s="18"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
+      <c r="C35" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
     </row>
-    <row r="36" spans="1:8" ht="50.1" customHeight="1">
+    <row r="36" spans="1:13" ht="50.1" customHeight="1">
       <c r="A36" s="18"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -1838,41 +1744,43 @@
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
     </row>
-    <row r="37" spans="1:8" ht="35.1" customHeight="1">
+    <row r="37" spans="1:13" ht="35.1" customHeight="1">
       <c r="A37" s="18"/>
       <c r="B37" s="8" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="50.1" customHeight="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="50.1" customHeight="1">
       <c r="A38" s="18"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
+      <c r="E38" s="10" t="s">
+        <v>100</v>
+      </c>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
     </row>
-    <row r="39" spans="1:8" ht="50.1" customHeight="1">
+    <row r="39" spans="1:13" ht="50.1" customHeight="1">
       <c r="A39" s="18"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -1882,19 +1790,31 @@
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
     </row>
-    <row r="40" spans="1:8" ht="35.1" customHeight="1">
+    <row r="40" spans="1:13" ht="35.1" customHeight="1">
       <c r="A40" s="18"/>
       <c r="B40" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-    </row>
-    <row r="41" spans="1:8" ht="50.1" customHeight="1">
+        <v>70</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="50.1" customHeight="1">
       <c r="A41" s="18"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -1904,7 +1824,7 @@
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
     </row>
-    <row r="42" spans="1:8" ht="50.1" customHeight="1">
+    <row r="42" spans="1:13" ht="50.1" customHeight="1">
       <c r="A42" s="18"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -1914,260 +1834,102 @@
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
     </row>
-    <row r="43" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A43" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="35.1" customHeight="1">
+    <row r="43" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A43" s="18"/>
+      <c r="B43" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="50.1" customHeight="1">
       <c r="A44" s="18"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="17">
-        <v>1</v>
-      </c>
-      <c r="D44" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="50.1" customHeight="1">
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+    </row>
+    <row r="45" spans="1:13" ht="50.1" customHeight="1">
       <c r="A45" s="18"/>
       <c r="B45" s="10"/>
-      <c r="C45" s="10" t="s">
-        <v>112</v>
-      </c>
+      <c r="C45" s="10"/>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
     </row>
-    <row r="46" spans="1:8" ht="50.1" customHeight="1">
+    <row r="46" spans="1:13" ht="35.1" customHeight="1">
       <c r="A46" s="18"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-    </row>
-    <row r="47" spans="1:8" ht="35.1" customHeight="1">
+      <c r="B46" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+    </row>
+    <row r="47" spans="1:13" ht="50.1" customHeight="1">
       <c r="A47" s="18"/>
-      <c r="B47" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="50.1" customHeight="1">
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="H47" s="10"/>
+      <c r="M47" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="50.1" customHeight="1">
       <c r="A48" s="18"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
-      <c r="E48" s="10" t="s">
-        <v>101</v>
-      </c>
+      <c r="E48" s="10"/>
       <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
+      <c r="G48" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="H48" s="10"/>
     </row>
-    <row r="49" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A49" s="18"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-    </row>
-    <row r="50" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A50" s="18"/>
-      <c r="B50" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A51" s="18"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-    </row>
-    <row r="52" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A52" s="18"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-    </row>
-    <row r="53" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A53" s="18"/>
-      <c r="B53" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A54" s="18"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-    </row>
-    <row r="55" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A55" s="18"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-    </row>
-    <row r="56" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A56" s="18"/>
-      <c r="B56" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-    </row>
-    <row r="57" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A57" s="18"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="G57" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="H57" s="10"/>
-    </row>
-    <row r="58" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A58" s="18"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="H58" s="10"/>
-    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A44:A58"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A9:A23"/>
-    <mergeCell ref="A25:A42"/>
+  <mergeCells count="3">
+    <mergeCell ref="A34:A48"/>
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="A15:A32"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2192,11 +1954,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="21" thickBot="1">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="24"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="2:17">
       <c r="D2" s="4" t="s">

--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B3D9A8-B7B2-46FD-9629-384A13CD261D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EECB9752-8EC3-4ED5-A282-2DD3CDB8A692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="120">
   <si>
     <t>해야할 일</t>
   </si>
@@ -453,11 +453,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>6/10 서윤식
-DAP 강의개설공지?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>TCT - 주스킬</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -494,23 +489,11 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>6 (현충일)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>고대치기공 MT</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>21시30분 에어부산 김포-&gt;김해</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>10시30분 에어부산 김포-&gt;김해</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7시 신논현 류재열, 송성윤, 왕건</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -519,14 +502,16 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>점심 동래 세연정
-동래롯데백화점</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>동래롯데백화점-본가벌나무복집
-스토케 트립트랩 조립
-21시 에어부산 김해-&gt;김포</t>
+    <t>류미리 결혼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>챔프스터디 출석체크 시작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>웨스턴챔버 - 병산저수지 - 대우
+21시30분 에어부산 김해-&gt;김포</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1135,10 +1120,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:M48"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1180,44 +1165,44 @@
     <row r="2" spans="1:13" ht="35.1" customHeight="1">
       <c r="A2" s="19"/>
       <c r="B2" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>115</v>
+        <v>53</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="50.1" customHeight="1">
       <c r="A3" s="19"/>
       <c r="B3" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D3" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="E3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10" t="s">
+        <v>106</v>
+      </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="H3" s="10"/>
+        <v>114</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="4" spans="1:13" ht="50.1" customHeight="1">
       <c r="A4" s="19"/>
@@ -1227,50 +1212,46 @@
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:13" ht="35.1" customHeight="1">
       <c r="A5" s="19"/>
       <c r="B5" s="8" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="50.1" customHeight="1">
       <c r="A6" s="19"/>
       <c r="B6" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
-      <c r="E6" s="10" t="s">
-        <v>107</v>
-      </c>
+      <c r="E6" s="10"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="10" t="s">
-        <v>116</v>
-      </c>
+      <c r="G6" s="10"/>
       <c r="H6" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="50.1" customHeight="1">
@@ -1281,138 +1262,153 @@
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
+      <c r="H7" s="10" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="8" spans="1:13" ht="35.1" customHeight="1">
       <c r="A8" s="19"/>
       <c r="B8" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>60</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:13" ht="50.1" customHeight="1">
       <c r="A9" s="19"/>
       <c r="B9" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
-      <c r="H9" s="10" t="s">
-        <v>118</v>
-      </c>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A10" s="19"/>
-      <c r="B10" s="10"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="10" t="s">
+        <v>117</v>
+      </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
-      <c r="H10" s="10" t="s">
-        <v>110</v>
-      </c>
+      <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A11" s="19"/>
-      <c r="B11" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A12" s="19"/>
-      <c r="B12" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
+      <c r="A11" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A12" s="18"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="13" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A13" s="20"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A14" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>48</v>
+      <c r="F13" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A14" s="18"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="M14" s="11" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="35.1" customHeight="1">
       <c r="A15" s="18"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
+      <c r="B15" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="G15" s="1" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>93</v>
+        <v>68</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="50.1" customHeight="1">
@@ -1421,17 +1417,11 @@
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="M16" s="11" t="s">
-        <v>74</v>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="M16" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="50.1" customHeight="1">
@@ -1440,40 +1430,38 @@
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="10" t="s">
-        <v>91</v>
-      </c>
+      <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="M17" s="11" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="35.1" customHeight="1">
       <c r="A18" s="18"/>
       <c r="B18" s="8" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>76</v>
+        <v>55</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="50.1" customHeight="1">
@@ -1481,12 +1469,14 @@
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
+      <c r="E19" s="10" t="s">
+        <v>106</v>
+      </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="M19" s="4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="50.1" customHeight="1">
@@ -1498,35 +1488,29 @@
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
-      <c r="M20" s="11" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="21" spans="1:13" ht="35.1" customHeight="1">
       <c r="A21" s="18"/>
       <c r="B21" s="8" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M21" s="11" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="50.1" customHeight="1">
@@ -1534,15 +1518,10 @@
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
-      <c r="E22" s="10" t="s">
-        <v>107</v>
-      </c>
+      <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
-      <c r="M22" s="4" t="s">
-        <v>81</v>
-      </c>
     </row>
     <row r="23" spans="1:13" ht="50.1" customHeight="1">
       <c r="A23" s="18"/>
@@ -1557,25 +1536,25 @@
     <row r="24" spans="1:13" ht="35.1" customHeight="1">
       <c r="A24" s="18"/>
       <c r="B24" s="8" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="50.1" customHeight="1">
@@ -1601,26 +1580,14 @@
     <row r="27" spans="1:13" ht="35.1" customHeight="1">
       <c r="A27" s="18"/>
       <c r="B27" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>88</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
     </row>
     <row r="28" spans="1:13" ht="50.1" customHeight="1">
       <c r="A28" s="18"/>
@@ -1643,93 +1610,107 @@
       <c r="H29" s="10"/>
     </row>
     <row r="30" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A30" s="18"/>
-      <c r="B30" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-    </row>
-    <row r="31" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A30" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="35.1" customHeight="1">
       <c r="A31" s="18"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="17">
+        <v>1</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="32" spans="1:13" ht="50.1" customHeight="1">
       <c r="A32" s="18"/>
       <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
+      <c r="C32" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
     </row>
-    <row r="33" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A33" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>48</v>
-      </c>
+    <row r="33" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A33" s="18"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
     </row>
     <row r="34" spans="1:13" ht="35.1" customHeight="1">
       <c r="A34" s="18"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="17">
-        <v>1</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>102</v>
+      <c r="B34" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="50.1" customHeight="1">
       <c r="A35" s="18"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="10" t="s">
-        <v>109</v>
-      </c>
+      <c r="C35" s="10"/>
       <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
+      <c r="E35" s="10" t="s">
+        <v>100</v>
+      </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
@@ -1747,25 +1728,25 @@
     <row r="37" spans="1:13" ht="35.1" customHeight="1">
       <c r="A37" s="18"/>
       <c r="B37" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>51</v>
+        <v>70</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="50.1" customHeight="1">
@@ -1773,9 +1754,7 @@
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
-      <c r="E38" s="10" t="s">
-        <v>100</v>
-      </c>
+      <c r="E38" s="10"/>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
@@ -1793,25 +1772,25 @@
     <row r="40" spans="1:13" ht="35.1" customHeight="1">
       <c r="A40" s="18"/>
       <c r="B40" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>114</v>
+        <v>69</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="50.1" customHeight="1">
@@ -1837,26 +1816,20 @@
     <row r="43" spans="1:13" ht="35.1" customHeight="1">
       <c r="A43" s="18"/>
       <c r="B43" s="8" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>86</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
     </row>
     <row r="44" spans="1:13" ht="50.1" customHeight="1">
       <c r="A44" s="18"/>
@@ -1864,9 +1837,16 @@
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
+      <c r="F44" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>110</v>
+      </c>
       <c r="H44" s="10"/>
+      <c r="M44" s="11" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="45" spans="1:13" ht="50.1" customHeight="1">
       <c r="A45" s="18"/>
@@ -1875,61 +1855,16 @@
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
+      <c r="G45" s="10" t="s">
+        <v>111</v>
+      </c>
       <c r="H45" s="10"/>
-    </row>
-    <row r="46" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A46" s="18"/>
-      <c r="B46" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-    </row>
-    <row r="47" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A47" s="18"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="H47" s="10"/>
-      <c r="M47" s="11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A48" s="18"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="H48" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A34:A48"/>
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="A15:A32"/>
+    <mergeCell ref="A31:A45"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A12:A29"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2214,21 +2149,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F91E044E3A9D84A8197B09587594D86" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a727839579f0816cd156df87ac1abb38">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4b137422-f48a-46a4-80bc-5707d2d59248" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c55dfd8d1a660179b90c490e9dacc3e0" ns3:_="">
     <xsd:import namespace="4b137422-f48a-46a4-80bc-5707d2d59248"/>
@@ -2360,10 +2280,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2385,19 +2330,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EECB9752-8EC3-4ED5-A282-2DD3CDB8A692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286E5969-B7FE-4A22-80B9-FD112D05D3DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="122">
   <si>
     <t>해야할 일</t>
   </si>
@@ -512,6 +512,15 @@
   <si>
     <t>웨스턴챔버 - 병산저수지 - 대우
 21시30분 에어부산 김해-&gt;김포</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁 마곡 icst 디그다 모임
+이주후, 박민지, 금강현, 유창재</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁 영등포 정솔아</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1123,7 +1132,7 @@
   <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1196,7 +1205,9 @@
       <c r="E3" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="F3" s="10"/>
+      <c r="F3" s="10" t="s">
+        <v>121</v>
+      </c>
       <c r="G3" s="10" t="s">
         <v>114</v>
       </c>
@@ -1294,7 +1305,9 @@
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
+      <c r="F9" s="10" t="s">
+        <v>120</v>
+      </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>

--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286E5969-B7FE-4A22-80B9-FD112D05D3DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FCE624-D401-4EB1-9574-9C222E47C7A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="121">
   <si>
     <t>해야할 일</t>
   </si>
@@ -481,19 +481,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>21시30분 에어부산 김해-&gt;김포</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>15 (광복절)</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>고대치기공 MT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10시30분 에어부산 김포-&gt;김해</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -502,25 +494,32 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>류미리 결혼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>챔프스터디 출석체크 시작</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>웨스턴챔버 - 병산저수지 - 대우
-21시30분 에어부산 김해-&gt;김포</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>저녁 마곡 icst 디그다 모임
 이주후, 박민지, 금강현, 유창재</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>저녁 영등포 정솔아</t>
+    <t>7시30분 희영누나 집들이
+류재열, 송성윤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁 EDA팀 정공회
+홍박식당 - 일레븐탭하우스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>21시 에어부산 김포-&gt;김해</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1시 류미리 결혼 그랜드블랑
+5시 무적스쿨 동래 삼다진족</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10시30분 이현정 머리 예약
+21시30분 에어부산 김해-&gt;김포</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1129,10 +1128,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1174,45 +1173,45 @@
     <row r="2" spans="1:13" ht="35.1" customHeight="1">
       <c r="A2" s="19"/>
       <c r="B2" s="8" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="50.1" customHeight="1">
       <c r="A3" s="19"/>
       <c r="B3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>119</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="50.1" customHeight="1">
@@ -1222,145 +1221,154 @@
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
-      <c r="G4" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="H4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="5" spans="1:13" ht="35.1" customHeight="1">
       <c r="A5" s="19"/>
       <c r="B5" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>60</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
     </row>
     <row r="6" spans="1:13" ht="50.1" customHeight="1">
       <c r="A6" s="19"/>
       <c r="B6" s="10" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+      <c r="F6" s="10" t="s">
+        <v>115</v>
+      </c>
       <c r="G6" s="10"/>
-      <c r="H6" s="10" t="s">
-        <v>115</v>
-      </c>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A7" s="19"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
-      <c r="H7" s="10" t="s">
-        <v>109</v>
-      </c>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A8" s="19"/>
-      <c r="B8" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A9" s="19"/>
-      <c r="B9" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
+      <c r="A8" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A9" s="18"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="10" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A10" s="20"/>
-      <c r="B10" s="10" t="s">
-        <v>117</v>
-      </c>
+      <c r="A10" s="18"/>
+      <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A11" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>48</v>
+      <c r="F10" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A11" s="18"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="M11" s="11" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="35.1" customHeight="1">
       <c r="A12" s="18"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+      <c r="B12" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="G12" s="1" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>93</v>
+        <v>68</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="50.1" customHeight="1">
@@ -1369,17 +1377,11 @@
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
-      <c r="F13" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="M13" s="11" t="s">
-        <v>74</v>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="M13" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="50.1" customHeight="1">
@@ -1388,40 +1390,38 @@
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
-      <c r="F14" s="10" t="s">
-        <v>91</v>
-      </c>
+      <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="M14" s="11" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="35.1" customHeight="1">
       <c r="A15" s="18"/>
       <c r="B15" s="8" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>76</v>
+        <v>55</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="50.1" customHeight="1">
@@ -1429,15 +1429,17 @@
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
+      <c r="E16" s="10" t="s">
+        <v>106</v>
+      </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="M16" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="50.1" customHeight="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="50.1" customHeight="1">
       <c r="A17" s="18"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -1446,53 +1448,42 @@
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
-      <c r="M17" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="35.1" customHeight="1">
+    </row>
+    <row r="18" spans="1:8" ht="35.1" customHeight="1">
       <c r="A18" s="18"/>
       <c r="B18" s="8" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M18" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="50.1" customHeight="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="50.1" customHeight="1">
       <c r="A19" s="18"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
-      <c r="E19" s="10" t="s">
-        <v>106</v>
-      </c>
+      <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
-      <c r="M19" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="50.1" customHeight="1">
+    </row>
+    <row r="20" spans="1:8" ht="50.1" customHeight="1">
       <c r="A20" s="18"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -1502,31 +1493,31 @@
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
     </row>
-    <row r="21" spans="1:13" ht="35.1" customHeight="1">
+    <row r="21" spans="1:8" ht="35.1" customHeight="1">
       <c r="A21" s="18"/>
       <c r="B21" s="8" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="50.1" customHeight="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="50.1" customHeight="1">
       <c r="A22" s="18"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -1536,7 +1527,7 @@
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" spans="1:13" ht="50.1" customHeight="1">
+    <row r="23" spans="1:8" ht="50.1" customHeight="1">
       <c r="A23" s="18"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -1546,31 +1537,19 @@
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
     </row>
-    <row r="24" spans="1:13" ht="35.1" customHeight="1">
+    <row r="24" spans="1:8" ht="35.1" customHeight="1">
       <c r="A24" s="18"/>
       <c r="B24" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="50.1" customHeight="1">
+        <v>97</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+    </row>
+    <row r="25" spans="1:8" ht="50.1" customHeight="1">
       <c r="A25" s="18"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -1580,7 +1559,7 @@
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
     </row>
-    <row r="26" spans="1:13" ht="50.1" customHeight="1">
+    <row r="26" spans="1:8" ht="50.1" customHeight="1">
       <c r="A26" s="18"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -1590,94 +1569,108 @@
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
     </row>
-    <row r="27" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A27" s="18"/>
-      <c r="B27" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-    </row>
-    <row r="28" spans="1:13" ht="50.1" customHeight="1">
+    <row r="27" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A27" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="35.1" customHeight="1">
       <c r="A28" s="18"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-    </row>
-    <row r="29" spans="1:13" ht="50.1" customHeight="1">
+      <c r="B28" s="13"/>
+      <c r="C28" s="17">
+        <v>1</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="50.1" customHeight="1">
       <c r="A29" s="18"/>
       <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
+      <c r="C29" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
     </row>
-    <row r="30" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A30" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="35.1" customHeight="1">
+    <row r="30" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A30" s="18"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+    </row>
+    <row r="31" spans="1:8" ht="35.1" customHeight="1">
       <c r="A31" s="18"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="17">
-        <v>1</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>102</v>
+      <c r="B31" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="50.1" customHeight="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="50.1" customHeight="1">
       <c r="A32" s="18"/>
       <c r="B32" s="10"/>
-      <c r="C32" s="10" t="s">
-        <v>108</v>
-      </c>
+      <c r="C32" s="10"/>
       <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
+      <c r="E32" s="10" t="s">
+        <v>100</v>
+      </c>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
@@ -1695,25 +1688,25 @@
     <row r="34" spans="1:13" ht="35.1" customHeight="1">
       <c r="A34" s="18"/>
       <c r="B34" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>51</v>
+        <v>70</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="50.1" customHeight="1">
@@ -1721,9 +1714,7 @@
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
-      <c r="E35" s="10" t="s">
-        <v>100</v>
-      </c>
+      <c r="E35" s="10"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
@@ -1741,25 +1732,25 @@
     <row r="37" spans="1:13" ht="35.1" customHeight="1">
       <c r="A37" s="18"/>
       <c r="B37" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>113</v>
+        <v>69</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="50.1" customHeight="1">
@@ -1785,26 +1776,20 @@
     <row r="40" spans="1:13" ht="35.1" customHeight="1">
       <c r="A40" s="18"/>
       <c r="B40" s="8" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>86</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
     </row>
     <row r="41" spans="1:13" ht="50.1" customHeight="1">
       <c r="A41" s="18"/>
@@ -1812,9 +1797,16 @@
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
+      <c r="F41" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>110</v>
+      </c>
       <c r="H41" s="10"/>
+      <c r="M41" s="11" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="42" spans="1:13" ht="50.1" customHeight="1">
       <c r="A42" s="18"/>
@@ -1823,61 +1815,16 @@
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
+      <c r="G42" s="10" t="s">
+        <v>111</v>
+      </c>
       <c r="H42" s="10"/>
-    </row>
-    <row r="43" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A43" s="18"/>
-      <c r="B43" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-    </row>
-    <row r="44" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A44" s="18"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="H44" s="10"/>
-      <c r="M44" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A45" s="18"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="H45" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A31:A45"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="A12:A29"/>
+    <mergeCell ref="A28:A42"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A9:A26"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2162,6 +2109,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F91E044E3A9D84A8197B09587594D86" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a727839579f0816cd156df87ac1abb38">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4b137422-f48a-46a4-80bc-5707d2d59248" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c55dfd8d1a660179b90c490e9dacc3e0" ns3:_="">
     <xsd:import namespace="4b137422-f48a-46a4-80bc-5707d2d59248"/>
@@ -2293,35 +2255,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2343,9 +2280,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FCE624-D401-4EB1-9574-9C222E47C7A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57334FA7-F378-4766-A1AF-82475D23BDAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="122">
   <si>
     <t>해야할 일</t>
   </si>
@@ -520,6 +520,10 @@
   <si>
     <t>10시30분 이현정 머리 예약
 21시30분 에어부산 김해-&gt;김포</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오후12시 토르소포맨 진성쌤</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1131,7 +1135,7 @@
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1252,7 +1256,9 @@
         <v>120</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
+      <c r="D6" s="10" t="s">
+        <v>121</v>
+      </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10" t="s">
         <v>115</v>
@@ -2109,21 +2115,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F91E044E3A9D84A8197B09587594D86" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a727839579f0816cd156df87ac1abb38">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4b137422-f48a-46a4-80bc-5707d2d59248" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c55dfd8d1a660179b90c490e9dacc3e0" ns3:_="">
     <xsd:import namespace="4b137422-f48a-46a4-80bc-5707d2d59248"/>
@@ -2255,10 +2246,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2280,19 +2296,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57334FA7-F378-4766-A1AF-82475D23BDAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704397F1-31DF-43A1-83AE-E7659D2D4D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="117">
   <si>
     <t>해야할 일</t>
   </si>
@@ -467,11 +467,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>박한솔 베이비파스텔
-사진 액자 찾으러 가야함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>23년 10월 엄마 회갑 경조사</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -485,10 +480,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>고대치기공 MT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>23-06 챔프스터디
 수강연장 신청</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -499,31 +490,16 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>7시30분 희영누나 집들이
-류재열, 송성윤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>저녁 EDA팀 정공회
-홍박식당 - 일레븐탭하우스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>21시 에어부산 김포-&gt;김해</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1시 류미리 결혼 그랜드블랑
-5시 무적스쿨 동래 삼다진족</t>
+    <t>오후12시 토르소포맨 진성쌤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>21시30분 에어부산 김해-&gt;김포</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>10시30분 이현정 머리 예약
-21시30분 에어부산 김해-&gt;김포</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>오후12시 토르소포맨 진성쌤</t>
+서면 롯데백화점</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1132,10 +1108,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1177,143 +1153,150 @@
     <row r="2" spans="1:13" ht="35.1" customHeight="1">
       <c r="A2" s="19"/>
       <c r="B2" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>60</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:13" ht="50.1" customHeight="1">
       <c r="A3" s="19"/>
       <c r="B3" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>119</v>
-      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A4" s="19"/>
-      <c r="B4" s="10"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="10" t="s">
+        <v>115</v>
+      </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
-      <c r="H4" s="10" t="s">
-        <v>109</v>
-      </c>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A5" s="19"/>
-      <c r="B5" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="6" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A6" s="19"/>
-      <c r="B6" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
+      <c r="A5" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A6" s="18"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="7" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A7" s="20"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A8" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>48</v>
+      <c r="F7" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A8" s="18"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="M8" s="11" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="35.1" customHeight="1">
       <c r="A9" s="18"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
+      <c r="B9" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="G9" s="1" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>93</v>
+        <v>68</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="50.1" customHeight="1">
@@ -1322,17 +1305,11 @@
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
-      <c r="F10" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>74</v>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="M10" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="50.1" customHeight="1">
@@ -1341,40 +1318,38 @@
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
-      <c r="F11" s="10" t="s">
-        <v>91</v>
-      </c>
+      <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="M11" s="11" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="35.1" customHeight="1">
       <c r="A12" s="18"/>
       <c r="B12" s="8" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>76</v>
+        <v>55</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="50.1" customHeight="1">
@@ -1382,12 +1357,14 @@
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
+      <c r="E13" s="10" t="s">
+        <v>106</v>
+      </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="M13" s="4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="50.1" customHeight="1">
@@ -1399,35 +1376,29 @@
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
-      <c r="M14" s="11" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="15" spans="1:13" ht="35.1" customHeight="1">
       <c r="A15" s="18"/>
       <c r="B15" s="8" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M15" s="11" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="50.1" customHeight="1">
@@ -1435,15 +1406,10 @@
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
-      <c r="E16" s="10" t="s">
-        <v>106</v>
-      </c>
+      <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
-      <c r="M16" s="4" t="s">
-        <v>81</v>
-      </c>
     </row>
     <row r="17" spans="1:8" ht="50.1" customHeight="1">
       <c r="A17" s="18"/>
@@ -1458,25 +1424,25 @@
     <row r="18" spans="1:8" ht="35.1" customHeight="1">
       <c r="A18" s="18"/>
       <c r="B18" s="8" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="50.1" customHeight="1">
@@ -1502,26 +1468,14 @@
     <row r="21" spans="1:8" ht="35.1" customHeight="1">
       <c r="A21" s="18"/>
       <c r="B21" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>88</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8" ht="50.1" customHeight="1">
       <c r="A22" s="18"/>
@@ -1544,93 +1498,107 @@
       <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A24" s="18"/>
-      <c r="B24" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-    </row>
-    <row r="25" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A24" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="35.1" customHeight="1">
       <c r="A25" s="18"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="17">
+        <v>1</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="26" spans="1:8" ht="50.1" customHeight="1">
       <c r="A26" s="18"/>
       <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
+      <c r="C26" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
     </row>
-    <row r="27" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A27" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>48</v>
-      </c>
+    <row r="27" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A27" s="18"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:8" ht="35.1" customHeight="1">
       <c r="A28" s="18"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="17">
-        <v>1</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>102</v>
+      <c r="B28" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="50.1" customHeight="1">
       <c r="A29" s="18"/>
       <c r="B29" s="10"/>
-      <c r="C29" s="10" t="s">
-        <v>108</v>
-      </c>
+      <c r="C29" s="10"/>
       <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
+      <c r="E29" s="10" t="s">
+        <v>100</v>
+      </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
@@ -1648,25 +1616,25 @@
     <row r="31" spans="1:8" ht="35.1" customHeight="1">
       <c r="A31" s="18"/>
       <c r="B31" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>51</v>
+        <v>70</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>111</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="50.1" customHeight="1">
@@ -1674,9 +1642,7 @@
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
-      <c r="E32" s="10" t="s">
-        <v>100</v>
-      </c>
+      <c r="E32" s="10"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
@@ -1694,25 +1660,25 @@
     <row r="34" spans="1:13" ht="35.1" customHeight="1">
       <c r="A34" s="18"/>
       <c r="B34" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>112</v>
+        <v>69</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="50.1" customHeight="1">
@@ -1738,26 +1704,20 @@
     <row r="37" spans="1:13" ht="35.1" customHeight="1">
       <c r="A37" s="18"/>
       <c r="B37" s="8" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>86</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
     </row>
     <row r="38" spans="1:13" ht="50.1" customHeight="1">
       <c r="A38" s="18"/>
@@ -1765,9 +1725,16 @@
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
+      <c r="F38" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="H38" s="10"/>
+      <c r="M38" s="11" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="39" spans="1:13" ht="50.1" customHeight="1">
       <c r="A39" s="18"/>
@@ -1776,61 +1743,16 @@
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
+      <c r="G39" s="10" t="s">
+        <v>110</v>
+      </c>
       <c r="H39" s="10"/>
-    </row>
-    <row r="40" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A40" s="18"/>
-      <c r="B40" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-    </row>
-    <row r="41" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A41" s="18"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="H41" s="10"/>
-      <c r="M41" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A42" s="18"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="H42" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A28:A42"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A9:A26"/>
+    <mergeCell ref="A25:A39"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A6:A23"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2115,6 +2037,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F91E044E3A9D84A8197B09587594D86" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a727839579f0816cd156df87ac1abb38">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4b137422-f48a-46a4-80bc-5707d2d59248" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c55dfd8d1a660179b90c490e9dacc3e0" ns3:_="">
     <xsd:import namespace="4b137422-f48a-46a4-80bc-5707d2d59248"/>
@@ -2246,35 +2183,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2296,9 +2208,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704397F1-31DF-43A1-83AE-E7659D2D4D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9064ED44-0650-4EEA-9F74-0E67FCB25392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1111,7 +1111,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -2037,21 +2037,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F91E044E3A9D84A8197B09587594D86" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a727839579f0816cd156df87ac1abb38">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4b137422-f48a-46a4-80bc-5707d2d59248" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c55dfd8d1a660179b90c490e9dacc3e0" ns3:_="">
     <xsd:import namespace="4b137422-f48a-46a4-80bc-5707d2d59248"/>
@@ -2183,10 +2168,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2208,19 +2218,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9064ED44-0650-4EEA-9F74-0E67FCB25392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA726781-5050-4EE5-B6BF-E0795DB326A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="119">
   <si>
     <t>해야할 일</t>
   </si>
@@ -490,16 +490,25 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>오후12시 토르소포맨 진성쌤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>21시30분 에어부산 김해-&gt;김포</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>10시30분 이현정 머리 예약
 서면 롯데백화점</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>타바스코, 우유</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12시30분 에어부산 김포-&gt;김해</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오후12시 토르소포맨 진성쌤
+컷+다운펌 10만 5천원</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1111,7 +1120,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1173,11 +1182,11 @@
     <row r="3" spans="1:13" ht="50.1" customHeight="1">
       <c r="A3" s="19"/>
       <c r="B3" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10" t="s">
@@ -1189,7 +1198,7 @@
     <row r="4" spans="1:13" ht="50.1" customHeight="1">
       <c r="A4" s="20"/>
       <c r="B4" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -1266,7 +1275,9 @@
       <c r="F8" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="G8" s="10"/>
+      <c r="G8" s="10" t="s">
+        <v>117</v>
+      </c>
       <c r="H8" s="10"/>
       <c r="M8" s="11" t="s">
         <v>75</v>
@@ -1302,7 +1313,9 @@
     <row r="10" spans="1:13" ht="50.1" customHeight="1">
       <c r="A10" s="18"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
+      <c r="C10" s="10" t="s">
+        <v>116</v>
+      </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>

--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA726781-5050-4EE5-B6BF-E0795DB326A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2630FF80-722F-40E9-BD05-6617CFD8964D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1120,7 +1120,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -2050,6 +2050,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F91E044E3A9D84A8197B09587594D86" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a727839579f0816cd156df87ac1abb38">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4b137422-f48a-46a4-80bc-5707d2d59248" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c55dfd8d1a660179b90c490e9dacc3e0" ns3:_="">
     <xsd:import namespace="4b137422-f48a-46a4-80bc-5707d2d59248"/>
@@ -2181,35 +2196,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2231,9 +2221,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2630FF80-722F-40E9-BD05-6617CFD8964D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25626DF-C7DD-4C25-9D42-89FDC85B1280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="120">
   <si>
     <t>해야할 일</t>
   </si>
@@ -457,11 +457,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>웨스틴 조선 부산 셔블
-박한솔 돌잔치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>과학기술인공제회 적금 입금
 고대치기공, 지산고 회비 입금</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -499,16 +494,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>타바스코, 우유</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12시30분 에어부산 김포-&gt;김해</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>오후12시 토르소포맨 진성쌤
 컷+다운펌 10만 5천원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>권승미, 방진실, 오지인, 조상혁
+망원 이담쌀롱 - 2차.. 모름..</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12시30분 에어부산 김포-&gt;김해
+부산대 더모음파티 - 롯데캐슬 -
+이승헌 집 - 이재관 집</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10시 웨스틴 조선 부산 셔블
+박한솔 돌잔치
+신세계백화점 센텀시티 - 대우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이재관 집(양복 돌려줌) -
+서3동 주민센터 -동래롯데백화점
+21시 30분 에어부산 김해-&gt;김포</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1120,7 +1130,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1182,15 +1192,15 @@
     <row r="3" spans="1:13" ht="50.1" customHeight="1">
       <c r="A3" s="19"/>
       <c r="B3" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -1198,12 +1208,14 @@
     <row r="4" spans="1:13" ht="50.1" customHeight="1">
       <c r="A4" s="20"/>
       <c r="B4" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
+      <c r="F4" s="10" t="s">
+        <v>116</v>
+      </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
     </row>
@@ -1257,10 +1269,10 @@
         <v>101</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="M7" s="11" t="s">
         <v>74</v>
@@ -1312,10 +1324,10 @@
     </row>
     <row r="10" spans="1:13" ht="50.1" customHeight="1">
       <c r="A10" s="18"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10" t="s">
-        <v>116</v>
-      </c>
+      <c r="B10" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
@@ -1562,7 +1574,7 @@
       <c r="A26" s="18"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
@@ -1632,7 +1644,7 @@
         <v>70</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>55</v>
@@ -1739,14 +1751,14 @@
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G38" s="10" t="s">
         <v>108</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>109</v>
       </c>
       <c r="H38" s="10"/>
       <c r="M38" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="50.1" customHeight="1">
@@ -1757,7 +1769,7 @@
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
       <c r="G39" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H39" s="10"/>
     </row>
@@ -2050,21 +2062,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F91E044E3A9D84A8197B09587594D86" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a727839579f0816cd156df87ac1abb38">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4b137422-f48a-46a4-80bc-5707d2d59248" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c55dfd8d1a660179b90c490e9dacc3e0" ns3:_="">
     <xsd:import namespace="4b137422-f48a-46a4-80bc-5707d2d59248"/>
@@ -2196,10 +2193,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2221,19 +2243,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25626DF-C7DD-4C25-9D42-89FDC85B1280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CA62CE-8BAD-457C-A9C8-208C483836E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="122">
   <si>
     <t>해야할 일</t>
   </si>
@@ -519,6 +519,16 @@
     <t>이재관 집(양복 돌려줌) -
 서3동 주민센터 -동래롯데백화점
 21시 30분 에어부산 김해-&gt;김포</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁 팀장님, 박성현 선임님
+마곡 기대만족</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10시 신촌 정솔아
+금별맥주 - 코비노래방</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1130,7 +1140,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1328,7 +1338,9 @@
         <v>119</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
+      <c r="D10" s="10" t="s">
+        <v>120</v>
+      </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
@@ -1341,7 +1353,9 @@
       <c r="A11" s="18"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
+      <c r="D11" s="10" t="s">
+        <v>121</v>
+      </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>

--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CA62CE-8BAD-457C-A9C8-208C483836E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136B97B4-80F1-4AFA-8ECE-99D20CA82D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="108">
   <si>
     <t>해야할 일</t>
   </si>
@@ -310,10 +310,6 @@
   </si>
   <si>
     <t>24</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -344,10 +340,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>29</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -397,51 +389,39 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <t>27</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>28</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>31</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8/10 휴대폰 선택약정 신청</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7월 미구위 박한솔생일 3만원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>27</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>28</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>30</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>31</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8/10 휴대폰 선택약정 신청</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7월 미구위 박한솔생일 3만원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -480,55 +460,8 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>저녁 마곡 icst 디그다 모임
-이주후, 박민지, 금강현, 유창재</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>21시30분 에어부산 김해-&gt;김포</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10시30분 이현정 머리 예약
-서면 롯데백화점</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>오후12시 토르소포맨 진성쌤
-컷+다운펌 10만 5천원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>권승미, 방진실, 오지인, 조상혁
-망원 이담쌀롱 - 2차.. 모름..</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12시30분 에어부산 김포-&gt;김해
-부산대 더모음파티 - 롯데캐슬 -
-이승헌 집 - 이재관 집</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10시 웨스틴 조선 부산 셔블
-박한솔 돌잔치
-신세계백화점 센텀시티 - 대우</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이재관 집(양복 돌려줌) -
-서3동 주민센터 -동래롯데백화점
-21시 30분 에어부산 김해-&gt;김포</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>저녁 팀장님, 박성현 선임님
-마곡 기대만족</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10시 신촌 정솔아
-금별맥주 - 코비노래방</t>
+    <t>오후 1시 김기연 결혼
+더채플앳논현 6층 라포레홀</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -661,7 +594,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -721,33 +654,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -790,12 +703,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -803,12 +710,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1137,10 +1038,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1153,9 +1054,9 @@
     <col min="15" max="16384" width="8.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="34.5" customHeight="1">
+    <row r="1" spans="1:13" ht="35.1" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>43</v>
@@ -1180,278 +1081,258 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A2" s="19"/>
+      <c r="A2" s="16"/>
       <c r="B2" s="8" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+        <v>70</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="3" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A3" s="19"/>
-      <c r="B3" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10" t="s">
-        <v>112</v>
-      </c>
+      <c r="A3" s="16"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A4" s="20"/>
-      <c r="B4" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" s="10"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
-      <c r="F4" s="10" t="s">
-        <v>116</v>
-      </c>
+      <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A6" s="18"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="A5" s="16"/>
+      <c r="B5" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A6" s="16"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A7" s="18"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
-      <c r="F7" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="M7" s="11" t="s">
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A8" s="16"/>
+      <c r="B8" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A9" s="16"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="M9" s="11" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A8" s="18"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="H8" s="10"/>
-      <c r="M8" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A9" s="18"/>
-      <c r="B9" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
     <row r="10" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A10" s="18"/>
-      <c r="B10" s="10" t="s">
-        <v>119</v>
-      </c>
+      <c r="A10" s="16"/>
+      <c r="B10" s="10"/>
       <c r="C10" s="10"/>
-      <c r="D10" s="10" t="s">
-        <v>120</v>
-      </c>
+      <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="M10" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A11" s="16"/>
+      <c r="B11" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="M11" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A12" s="16"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="M12" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A11" s="18"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="M11" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A12" s="18"/>
-      <c r="B12" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M12" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
     <row r="13" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A13" s="18"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
-      <c r="E13" s="10" t="s">
-        <v>106</v>
-      </c>
+      <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
-      <c r="M13" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A14" s="18"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
+      <c r="M13" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="15" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A15" s="18"/>
-      <c r="B15" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>83</v>
+      <c r="A15" s="16"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>98</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A16" s="18"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
+      <c r="C16" s="10" t="s">
+        <v>102</v>
+      </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A17" s="18"/>
+    <row r="17" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A17" s="16"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -1460,42 +1341,44 @@
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A18" s="18"/>
+    <row r="18" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A18" s="16"/>
       <c r="B18" s="8" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A19" s="18"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A19" s="16"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
+      <c r="E19" s="10" t="s">
+        <v>96</v>
+      </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A20" s="18"/>
+    <row r="20" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A20" s="16"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -1504,30 +1387,44 @@
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
     </row>
-    <row r="21" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A21" s="18"/>
+    <row r="21" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A21" s="16"/>
       <c r="B21" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-    </row>
-    <row r="22" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A22" s="18"/>
+        <v>70</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A22" s="16"/>
       <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
+      <c r="C22" s="10" t="s">
+        <v>107</v>
+      </c>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A23" s="18"/>
+    <row r="23" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A23" s="16"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
@@ -1536,262 +1433,101 @@
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
     </row>
-    <row r="24" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A24" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A25" s="18"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="17">
-        <v>1</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A26" s="18"/>
+    <row r="24" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A24" s="16"/>
+      <c r="B24" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A25" s="16"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A26" s="16"/>
       <c r="B26" s="10"/>
-      <c r="C26" s="10" t="s">
-        <v>107</v>
-      </c>
+      <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
     </row>
-    <row r="27" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A27" s="18"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-    </row>
-    <row r="28" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A28" s="18"/>
-      <c r="B28" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A29" s="18"/>
+    <row r="27" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A27" s="16"/>
+      <c r="B27" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+    </row>
+    <row r="28" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A28" s="16"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="H28" s="10"/>
+      <c r="M28" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A29" s="16"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
-      <c r="E29" s="10" t="s">
-        <v>100</v>
-      </c>
+      <c r="E29" s="10"/>
       <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
+      <c r="G29" s="10" t="s">
+        <v>104</v>
+      </c>
       <c r="H29" s="10"/>
     </row>
-    <row r="30" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A30" s="18"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-    </row>
-    <row r="31" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A31" s="18"/>
-      <c r="B31" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A32" s="18"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-    </row>
-    <row r="33" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A33" s="18"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-    </row>
-    <row r="34" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A34" s="18"/>
-      <c r="B34" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A35" s="18"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-    </row>
-    <row r="36" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A36" s="18"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-    </row>
-    <row r="37" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A37" s="18"/>
-      <c r="B37" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-    </row>
-    <row r="38" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A38" s="18"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="H38" s="10"/>
-      <c r="M38" s="11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A39" s="18"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="H39" s="10"/>
-    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A25:A39"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A6:A23"/>
+  <mergeCells count="2">
+    <mergeCell ref="A15:A29"/>
+    <mergeCell ref="A2:A13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1816,11 +1552,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="21" thickBot="1">
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="23"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="2:17">
       <c r="D2" s="4" t="s">
@@ -2076,6 +1812,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F91E044E3A9D84A8197B09587594D86" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a727839579f0816cd156df87ac1abb38">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4b137422-f48a-46a4-80bc-5707d2d59248" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c55dfd8d1a660179b90c490e9dacc3e0" ns3:_="">
     <xsd:import namespace="4b137422-f48a-46a4-80bc-5707d2d59248"/>
@@ -2207,35 +1958,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2257,9 +1983,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136B97B4-80F1-4AFA-8ECE-99D20CA82D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D605206-3B64-48CD-B658-620DF650BD2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="109">
   <si>
     <t>해야할 일</t>
   </si>
@@ -462,6 +462,11 @@
   <si>
     <t>오후 1시 김기연 결혼
 더채플앳논현 6층 라포레홀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7시 구의역 이유진, 최상희
+참치</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1040,9 +1045,7 @@
   </sheetPr>
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
@@ -1159,7 +1162,9 @@
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
+      <c r="E6" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
@@ -1197,9 +1202,7 @@
       <c r="H8" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M8" s="11" t="s">
-        <v>73</v>
-      </c>
+      <c r="M8" s="11"/>
     </row>
     <row r="9" spans="1:13" ht="50.1" customHeight="1">
       <c r="A9" s="16"/>
@@ -1210,9 +1213,7 @@
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
-      <c r="M9" s="11" t="s">
-        <v>74</v>
-      </c>
+      <c r="M9" s="11"/>
     </row>
     <row r="10" spans="1:13" ht="50.1" customHeight="1">
       <c r="A10" s="16"/>
@@ -1223,9 +1224,6 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
-      <c r="M10" s="4" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="11" spans="1:13" ht="35.1" customHeight="1">
       <c r="A11" s="16"/>
@@ -1238,9 +1236,6 @@
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
-      <c r="M11" s="4" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="12" spans="1:13" ht="50.1" customHeight="1">
       <c r="A12" s="16"/>
@@ -1251,9 +1246,7 @@
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
-      <c r="M12" s="11" t="s">
-        <v>77</v>
-      </c>
+      <c r="M12" s="11"/>
     </row>
     <row r="13" spans="1:13" ht="50.1" customHeight="1">
       <c r="A13" s="16"/>
@@ -1264,9 +1257,7 @@
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
-      <c r="M13" s="11" t="s">
-        <v>72</v>
-      </c>
+      <c r="M13" s="11"/>
     </row>
     <row r="14" spans="1:13" ht="35.1" customHeight="1">
       <c r="A14" s="2" t="s">
@@ -1292,9 +1283,6 @@
       </c>
       <c r="H14" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="35.1" customHeight="1">
@@ -1376,6 +1364,9 @@
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
+      <c r="M19" s="11" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="20" spans="1:13" ht="50.1" customHeight="1">
       <c r="A20" s="16"/>
@@ -1386,6 +1377,9 @@
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
+      <c r="M20" s="11" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="21" spans="1:13" ht="35.1" customHeight="1">
       <c r="A21" s="16"/>
@@ -1409,6 +1403,9 @@
       </c>
       <c r="H21" s="1" t="s">
         <v>82</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="50.1" customHeight="1">
@@ -1422,6 +1419,9 @@
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
+      <c r="M22" s="4" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="23" spans="1:13" ht="50.1" customHeight="1">
       <c r="A23" s="16"/>
@@ -1432,6 +1432,9 @@
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
+      <c r="M23" s="11" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="24" spans="1:13" ht="35.1" customHeight="1">
       <c r="A24" s="16"/>
@@ -1455,6 +1458,9 @@
       </c>
       <c r="H24" s="1" t="s">
         <v>84</v>
+      </c>
+      <c r="M24" s="11" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="50.1" customHeight="1">
@@ -1466,6 +1472,9 @@
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
+      <c r="M25" s="4" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="26" spans="1:13" ht="50.1" customHeight="1">
       <c r="A26" s="16"/>
@@ -1812,21 +1821,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F91E044E3A9D84A8197B09587594D86" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a727839579f0816cd156df87ac1abb38">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4b137422-f48a-46a4-80bc-5707d2d59248" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c55dfd8d1a660179b90c490e9dacc3e0" ns3:_="">
     <xsd:import namespace="4b137422-f48a-46a4-80bc-5707d2d59248"/>
@@ -1958,10 +1952,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1983,19 +2002,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D605206-3B64-48CD-B658-620DF650BD2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B606517-E818-4392-9C12-A2EDC695AFDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="110">
   <si>
     <t>해야할 일</t>
   </si>
@@ -384,11 +384,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>박한솔 돌 이후
-북스타트 2단계</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>27</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -430,10 +425,6 @@
   </si>
   <si>
     <t>8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TCT - 주스킬</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -467,6 +458,20 @@
   <si>
     <t>7시 구의역 이유진, 최상희
 참치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14시 TCT - 주스킬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>네이버카페 마이키 가입하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박한솔 돌 이후
+북스타트플러스(북스타트 2단계)
+신청완료</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1045,7 +1050,9 @@
   </sheetPr>
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
@@ -1059,7 +1066,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="35.1" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>43</v>
@@ -1110,25 +1117,25 @@
     <row r="3" spans="1:13" ht="50.1" customHeight="1">
       <c r="A3" s="16"/>
       <c r="B3" s="10"/>
-      <c r="C3" s="10" t="s">
-        <v>97</v>
-      </c>
+      <c r="C3" s="10"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
+      <c r="G3" s="10" t="s">
+        <v>96</v>
+      </c>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:13" ht="50.1" customHeight="1">
       <c r="A4" s="16"/>
       <c r="B4" s="10"/>
-      <c r="C4" s="10" t="s">
-        <v>89</v>
-      </c>
+      <c r="C4" s="10"/>
       <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
+      <c r="E4" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -1163,7 +1170,7 @@
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
@@ -1191,10 +1198,10 @@
         <v>83</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>78</v>
@@ -1228,7 +1235,7 @@
     <row r="11" spans="1:13" ht="35.1" customHeight="1">
       <c r="A11" s="16"/>
       <c r="B11" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -1261,7 +1268,7 @@
     </row>
     <row r="14" spans="1:13" ht="35.1" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>43</v>
@@ -1292,13 +1299,13 @@
         <v>1</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>80</v>
@@ -1311,7 +1318,7 @@
       <c r="A16" s="16"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -1322,7 +1329,9 @@
     <row r="17" spans="1:13" ht="50.1" customHeight="1">
       <c r="A17" s="16"/>
       <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
+      <c r="C17" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
@@ -1359,7 +1368,7 @@
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
@@ -1387,7 +1396,7 @@
         <v>70</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>55</v>
@@ -1412,7 +1421,7 @@
       <c r="A22" s="16"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -1495,7 +1504,7 @@
         <v>88</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>87</v>
@@ -1511,14 +1520,14 @@
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H28" s="10"/>
       <c r="M28" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="50.1" customHeight="1">
@@ -1529,7 +1538,7 @@
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
       <c r="G29" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H29" s="10"/>
     </row>
@@ -1821,6 +1830,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F91E044E3A9D84A8197B09587594D86" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a727839579f0816cd156df87ac1abb38">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4b137422-f48a-46a4-80bc-5707d2d59248" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c55dfd8d1a660179b90c490e9dacc3e0" ns3:_="">
     <xsd:import namespace="4b137422-f48a-46a4-80bc-5707d2d59248"/>
@@ -1952,35 +1976,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2002,9 +2001,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE719ED1-0439-4266-8F9C-8738D0151331}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD3585F-F7A7-412D-AFE1-E638B576DB58}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4b137422-f48a-46a4-80bc-5707d2d59248"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B606517-E818-4392-9C12-A2EDC695AFDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE656F3-F020-4BD0-8835-6616125FCDDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="112">
   <si>
     <t>해야할 일</t>
   </si>
@@ -412,10 +412,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>7월 미구위 박한솔생일 3만원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -472,6 +468,19 @@
     <t>박한솔 돌 이후
 북스타트플러스(북스타트 2단계)
 신청완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7월 미구위 박한솔생일 3만원
+쿠키 가져가기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>21시 30분 에어부산 김해-&gt;김포</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>21시 5분 에어부산 김포-&gt;김해</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1050,9 +1059,7 @@
   </sheetPr>
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
@@ -1066,7 +1073,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="35.1" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>43</v>
@@ -1120,11 +1127,11 @@
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="H3" s="10"/>
     </row>
@@ -1134,10 +1141,12 @@
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
+      <c r="G4" s="10" t="s">
+        <v>111</v>
+      </c>
       <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:13" ht="35.1" customHeight="1">
@@ -1170,7 +1179,7 @@
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
@@ -1178,7 +1187,9 @@
     </row>
     <row r="7" spans="1:13" ht="50.1" customHeight="1">
       <c r="A7" s="16"/>
-      <c r="B7" s="10"/>
+      <c r="B7" s="10" t="s">
+        <v>110</v>
+      </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -1268,7 +1279,7 @@
     </row>
     <row r="14" spans="1:13" ht="35.1" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>43</v>
@@ -1299,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>93</v>
@@ -1318,7 +1329,7 @@
       <c r="A16" s="16"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -1330,7 +1341,7 @@
       <c r="A17" s="16"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
@@ -1396,7 +1407,7 @@
         <v>70</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>55</v>
@@ -1421,7 +1432,7 @@
       <c r="A22" s="16"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -1520,14 +1531,14 @@
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G28" s="10" t="s">
         <v>100</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>101</v>
       </c>
       <c r="H28" s="10"/>
       <c r="M28" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="50.1" customHeight="1">
@@ -1538,7 +1549,7 @@
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
       <c r="G29" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H29" s="10"/>
     </row>

--- a/박진형.xlsx
+++ b/박진형.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE656F3-F020-4BD0-8835-6616125FCDDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777DF0E1-8A14-44B2-8956-1A545A8C4AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="122">
   <si>
     <t>해야할 일</t>
   </si>
@@ -452,11 +452,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>7시 구의역 이유진, 최상희
-참치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>14시 TCT - 주스킬</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -471,16 +466,71 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>7월 미구위 박한솔생일 3만원
-쿠키 가져가기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>21시 30분 에어부산 김해-&gt;김포</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>21시 5분 에어부산 김포-&gt;김해</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7월 미구위 박한솔생일 3만원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가덕도 외양포 야생화단지 -
+카페 오플로우 -
+저녁 미분당 부산대점</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아침 서3동 초과근무 -
+11시 할머니 안평노인건강센터 -
+점심 박해윤통영해물밥상 -</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서면 롯데백화점 -
+21시 30분 에어부산 김해-&gt;김포</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심 전체 가족 모임
+1시 박해윤통영해물밥상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가족 서울 구경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁 홍성욱 청첩장 모임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2209 홍성욱 결혼
+2209 방준호 출산
+230318 송병주 결혼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2309 정봉현 결혼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고현재 변리사 2차시험(~30일)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7시 구의역 이유진, 최상희
+대양참치 - 포차35구역 구의점</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김창훈 책임님, 조상혁 사원님
+신흥부전 - 이이제이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁 이유진, 최상희, 김세훈
+노량진 와라와라 - 육수당 -
+보드람치킨</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1059,7 +1109,9 @@
   </sheetPr>
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
@@ -1127,13 +1179,15 @@
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="H3" s="10"/>
+        <v>108</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="4" spans="1:13" ht="50.1" customHeight="1">
       <c r="A4" s="16"/>
@@ -1141,12 +1195,10 @@
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F4" s="10"/>
-      <c r="G4" s="10" t="s">
-        <v>111</v>
-      </c>
+      <c r="G4" s="10"/>
       <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:13" ht="35.1" customHeight="1">
@@ -1175,20 +1227,28 @@
     </row>
     <row r="6" spans="1:13" ht="50.1" customHeight="1">
       <c r="A6" s="16"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
+      <c r="B6" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
+        <v>119</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>121</v>
+      </c>
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:13" ht="50.1" customHeight="1">
       <c r="A7" s="16"/>
       <c r="B7" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -1228,8 +1288,12 @@
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
+      <c r="F9" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>118</v>
+      </c>
       <c r="H9" s="10"/>
       <c r="M9" s="11"/>
     </row>
@@ -1334,14 +1398,16 @@
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
+      <c r="G16" s="10" t="s">
+        <v>115</v>
+      </c>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:13" ht="50.1" customHeight="1">
       <c r="A17" s="16"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
@@ -1438,7 +1504,9 @@
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
+      <c r="H22" s="10" t="s">
+        <v>113</v>
+      </c>
       <c r="M22" s="4" t="s">
         <v>76</v>
       </c>
@@ -1536,7 +1604,9 @@
       <c r="G28" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="H28" s="10"/>
+      <c r="H28" s="10" t="s">
+        <v>116</v>
+      </c>
       <c r="M28" s="11" t="s">
         <v>103</v>
       </c>
@@ -1551,7 +1621,9 @@
       <c r="G29" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="H29" s="10"/>
+      <c r="H29" s="10" t="s">
+        <v>117</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
